--- a/test/IntegrationTest_Index.xlsx
+++ b/test/IntegrationTest_Index.xlsx
@@ -5,14 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakit\Desktop\web\Panda\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haruna Doranecoco\comp2910\Panda\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="index" sheetId="1" r:id="rId1"/>
+    <sheet name="Representative" sheetId="9" r:id="rId1"/>
+    <sheet name="index" sheetId="1" r:id="rId2"/>
+    <sheet name="foodlist" sheetId="3" r:id="rId3"/>
+    <sheet name="content" sheetId="4" r:id="rId4"/>
+    <sheet name="affiliate" sheetId="6" r:id="rId5"/>
+    <sheet name="about us" sheetId="7" r:id="rId6"/>
+    <sheet name="contact us" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="62">
   <si>
     <t>design</t>
   </si>
@@ -181,6 +187,42 @@
   <si>
     <t>Test Date</t>
   </si>
+  <si>
+    <t xml:space="preserve">Test Case </t>
+  </si>
+  <si>
+    <t>Do testing</t>
+  </si>
+  <si>
+    <t>Fix bugs</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Saki</t>
+  </si>
+  <si>
+    <t>Xin</t>
+  </si>
+  <si>
+    <t>Haruna</t>
+  </si>
+  <si>
+    <t>Food list</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>affiliate</t>
+  </si>
+  <si>
+    <t>about us</t>
+  </si>
+  <si>
+    <t>contact us</t>
+  </si>
 </sst>
 </file>
 
@@ -203,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +267,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -307,6 +361,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -316,18 +377,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -346,6 +411,20 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
         </patternFill>
       </fill>
     </dxf>
@@ -395,6 +474,118 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -727,9 +918,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -750,54 +1055,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -814,12 +1119,12 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
@@ -834,12 +1139,12 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
@@ -854,12 +1159,12 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -874,12 +1179,12 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
@@ -894,12 +1199,12 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -916,12 +1221,12 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -936,12 +1241,12 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
@@ -956,14 +1261,14 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
@@ -978,12 +1283,12 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
@@ -998,12 +1303,12 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1018,12 +1323,12 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1038,14 +1343,14 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1062,12 +1367,12 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1082,12 +1387,12 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -1102,12 +1407,12 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1122,12 +1427,12 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -1142,12 +1447,12 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -1162,12 +1467,12 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1184,12 +1489,12 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -1204,12 +1509,12 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -1224,12 +1529,12 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -1244,12 +1549,12 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -1264,12 +1569,12 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="10">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -1284,16 +1589,16 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="10">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -1310,12 +1615,12 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="10">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="4" t="s">
         <v>11</v>
       </c>
@@ -1330,12 +1635,12 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="10">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
@@ -1350,12 +1655,12 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="10">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="4" t="s">
         <v>14</v>
       </c>
@@ -1370,12 +1675,12 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="10">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="4" t="s">
         <v>17</v>
       </c>
@@ -1390,12 +1695,12 @@
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="10">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="5" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -1412,12 +1717,12 @@
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="10">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1432,12 +1737,12 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="10">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="4" t="s">
         <v>21</v>
       </c>
@@ -1452,14 +1757,14 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="10">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5" t="s">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="4" t="s">
         <v>24</v>
       </c>
@@ -1474,12 +1779,12 @@
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="10">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="4" t="s">
         <v>26</v>
       </c>
@@ -1494,12 +1799,12 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="10">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="4" t="s">
         <v>28</v>
       </c>
@@ -1514,12 +1819,12 @@
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="10">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="4" t="s">
         <v>30</v>
       </c>
@@ -1534,14 +1839,14 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="10">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -1558,12 +1863,12 @@
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="10">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="4" t="s">
         <v>45</v>
       </c>
@@ -1578,12 +1883,12 @@
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="10">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
       <c r="E40" s="4" t="s">
         <v>42</v>
       </c>
@@ -1598,12 +1903,12 @@
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="10">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="4" t="s">
         <v>43</v>
       </c>
@@ -1618,12 +1923,12 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="10">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="4" t="s">
         <v>46</v>
       </c>
@@ -1638,12 +1943,12 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="10">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
       <c r="E43" s="4" t="s">
         <v>44</v>
       </c>
@@ -1658,12 +1963,12 @@
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="10">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="5" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -1680,12 +1985,12 @@
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="10">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="4" t="s">
         <v>45</v>
       </c>
@@ -1700,12 +2005,12 @@
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="10">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
       <c r="E46" s="4" t="s">
         <v>42</v>
       </c>
@@ -1720,12 +2025,12 @@
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="10">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="4" t="s">
         <v>43</v>
       </c>
@@ -1740,12 +2045,12 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="10">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
@@ -1760,12 +2065,12 @@
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="10">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
       <c r="E49" s="4" t="s">
         <v>44</v>
       </c>
@@ -1781,6 +2086,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
     <mergeCell ref="C38:C49"/>
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
@@ -1797,14 +2104,5532 @@
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>$G26="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
+      <formula>$G26="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:L49">
+    <cfRule type="expression" dxfId="27" priority="1">
+      <formula>$K2 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="5">
+      <formula>$G2="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="6">
+      <formula>$G2="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G49">
+      <formula1>"OK, NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B26:B49"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C49"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
+    <cfRule type="expression" dxfId="24" priority="2">
+      <formula>$G26="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="3">
+      <formula>$G26="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:L49">
+    <cfRule type="expression" dxfId="22" priority="1">
+      <formula>$K2 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="4">
+      <formula>$G2="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="5">
+      <formula>$G2="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G49">
+      <formula1>"OK, NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B26:B49"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C49"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
+    <cfRule type="expression" dxfId="19" priority="2">
+      <formula>$G26="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="3">
+      <formula>$G26="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:L49">
+    <cfRule type="expression" dxfId="17" priority="1">
+      <formula>$K2 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="4">
+      <formula>$G2="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="5">
+      <formula>$G2="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G49">
+      <formula1>"OK, NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B26:B49"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C49"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>$G26="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>$G26="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:L49">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>$K2 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="4">
+      <formula>$G2="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>$G2="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G49">
+      <formula1>"OK, NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B26:B49"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C49"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>$G26="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>$G26="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:L49">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$K2 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$G2="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$G2="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G49">
+      <formula1>"OK, NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B26:B49"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C49"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$G26="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$G26="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1812,10 +7637,10 @@
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/IntegrationTest_Index.xlsx
+++ b/test/IntegrationTest_Index.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Representative" sheetId="9" r:id="rId1"/>
     <sheet name="index" sheetId="1" r:id="rId2"/>
     <sheet name="foodlist" sheetId="3" r:id="rId3"/>
     <sheet name="content" sheetId="4" r:id="rId4"/>
-    <sheet name="affiliate" sheetId="6" r:id="rId5"/>
+    <sheet name="affiliates" sheetId="6" r:id="rId5"/>
     <sheet name="about us" sheetId="7" r:id="rId6"/>
     <sheet name="contact us" sheetId="8" r:id="rId7"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="71">
   <si>
     <t>design</t>
   </si>
@@ -223,12 +223,39 @@
   <si>
     <t>contact us</t>
   </si>
+  <si>
+    <t>Link for each apps</t>
+  </si>
+  <si>
+    <t>1. click logo of Pocket Pantry</t>
+  </si>
+  <si>
+    <t>Go to the index page of Pocket Pantry</t>
+  </si>
+  <si>
+    <t>Go to the index page of Freshness</t>
+  </si>
+  <si>
+    <t>Go to the index page of Keep Track Food</t>
+  </si>
+  <si>
+    <t>1. click logo of Freshness</t>
+  </si>
+  <si>
+    <t>1. click logo of Keep Track Food</t>
+  </si>
+  <si>
+    <t>1. click logo of Take2</t>
+  </si>
+  <si>
+    <t>Go to the index page of Take2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +267,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -347,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -368,15 +401,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -388,11 +412,32 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill>
@@ -460,6 +505,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -921,7 +987,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -930,98 +996,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1034,7 +1100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -1096,13 +1162,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1122,9 +1188,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1142,9 +1208,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1162,9 +1228,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1182,9 +1248,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1202,9 +1268,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1224,9 +1290,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1244,9 +1310,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1264,11 +1330,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1286,9 +1352,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1306,9 +1372,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1326,9 +1392,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1346,11 +1412,11 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1370,9 +1436,9 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1390,9 +1456,9 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -1410,9 +1476,9 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1430,9 +1496,9 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -1450,9 +1516,9 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -1470,9 +1536,9 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1492,9 +1558,9 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -1512,9 +1578,9 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -1532,9 +1598,9 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -1552,9 +1618,9 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -1572,9 +1638,9 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -1592,13 +1658,13 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -1618,9 +1684,9 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="4" t="s">
         <v>11</v>
       </c>
@@ -1638,9 +1704,9 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
@@ -1658,9 +1724,9 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="4" t="s">
         <v>14</v>
       </c>
@@ -1678,9 +1744,9 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="4" t="s">
         <v>17</v>
       </c>
@@ -1698,9 +1764,9 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -1720,9 +1786,9 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1740,9 +1806,9 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="4" t="s">
         <v>21</v>
       </c>
@@ -1760,11 +1826,11 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="4" t="s">
         <v>24</v>
       </c>
@@ -1782,9 +1848,9 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="4" t="s">
         <v>26</v>
       </c>
@@ -1802,9 +1868,9 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="4" t="s">
         <v>28</v>
       </c>
@@ -1822,9 +1888,9 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="4" t="s">
         <v>30</v>
       </c>
@@ -1842,11 +1908,11 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -1866,9 +1932,9 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="4" t="s">
         <v>45</v>
       </c>
@@ -1886,9 +1952,9 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="4" t="s">
         <v>42</v>
       </c>
@@ -1906,9 +1972,9 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="4" t="s">
         <v>43</v>
       </c>
@@ -1926,9 +1992,9 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="4" t="s">
         <v>46</v>
       </c>
@@ -1946,9 +2012,9 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="4" t="s">
         <v>44</v>
       </c>
@@ -1966,9 +2032,9 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="8" t="s">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -1988,9 +2054,9 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="4" t="s">
         <v>45</v>
       </c>
@@ -2008,9 +2074,9 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="4" t="s">
         <v>42</v>
       </c>
@@ -2028,9 +2094,9 @@
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="4" t="s">
         <v>43</v>
       </c>
@@ -2048,9 +2114,9 @@
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
@@ -2068,9 +2134,9 @@
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="4" t="s">
         <v>44</v>
       </c>
@@ -2086,41 +2152,41 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="B26:B49"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="C38:C49"/>
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B26:B49"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D26:D30"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="32" priority="3">
       <formula>$G26="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="31" priority="4">
       <formula>$G26="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="29" priority="5">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="6">
+    <cfRule type="expression" dxfId="28" priority="6">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2138,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C33"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2149,7 +2215,7 @@
     <col min="3" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.36328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.08984375" style="1" customWidth="1"/>
@@ -2200,261 +2266,261 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="13" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="14"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="13" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="13" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="13" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="13" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="4" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="4" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -2472,11 +2538,11 @@
     </row>
     <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -2492,11 +2558,11 @@
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -2512,11 +2578,11 @@
     </row>
     <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -2532,11 +2598,11 @@
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -2552,11 +2618,11 @@
     </row>
     <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -2572,11 +2638,11 @@
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -2594,11 +2660,11 @@
     </row>
     <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -2614,11 +2680,11 @@
     </row>
     <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -2634,11 +2700,11 @@
     </row>
     <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -2654,11 +2720,11 @@
     </row>
     <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -2674,11 +2740,11 @@
     </row>
     <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -2694,263 +2760,263 @@
     </row>
     <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -2968,11 +3034,11 @@
     </row>
     <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="4" t="s">
         <v>45</v>
       </c>
@@ -2988,11 +3054,11 @@
     </row>
     <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="4" t="s">
         <v>42</v>
       </c>
@@ -3008,11 +3074,11 @@
     </row>
     <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="4" t="s">
         <v>43</v>
       </c>
@@ -3028,11 +3094,11 @@
     </row>
     <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="4" t="s">
         <v>46</v>
       </c>
@@ -3048,11 +3114,11 @@
     </row>
     <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="4" t="s">
         <v>44</v>
       </c>
@@ -3068,11 +3134,11 @@
     </row>
     <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -3090,11 +3156,11 @@
     </row>
     <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="4" t="s">
         <v>45</v>
       </c>
@@ -3110,11 +3176,11 @@
     </row>
     <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
-        <v>45</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="4" t="s">
         <v>42</v>
       </c>
@@ -3130,11 +3196,11 @@
     </row>
     <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="4" t="s">
         <v>43</v>
       </c>
@@ -3150,11 +3216,11 @@
     </row>
     <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
@@ -3170,11 +3236,11 @@
     </row>
     <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="4" t="s">
         <v>44</v>
       </c>
@@ -3190,41 +3256,41 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="B26:B49"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="D26:D30"/>
     <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C34:C37"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="C38:C49"/>
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C34:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="27" priority="5">
       <formula>$G26="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>$G26="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="24" priority="7">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="5">
+    <cfRule type="expression" dxfId="23" priority="8">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3242,8 +3308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C33"/>
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3253,7 +3319,7 @@
     <col min="3" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.36328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.08984375" style="1" customWidth="1"/>
@@ -3304,261 +3370,261 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="13" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="14"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="13" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="13" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="13" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="13" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="4" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="4" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -3576,11 +3642,11 @@
     </row>
     <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -3596,11 +3662,11 @@
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -3616,11 +3682,11 @@
     </row>
     <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3636,11 +3702,11 @@
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -3656,11 +3722,11 @@
     </row>
     <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -3676,11 +3742,11 @@
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3698,11 +3764,11 @@
     </row>
     <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -3718,11 +3784,11 @@
     </row>
     <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -3738,11 +3804,11 @@
     </row>
     <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -3758,11 +3824,11 @@
     </row>
     <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -3778,11 +3844,11 @@
     </row>
     <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -3798,263 +3864,263 @@
     </row>
     <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -4072,11 +4138,11 @@
     </row>
     <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="4" t="s">
         <v>45</v>
       </c>
@@ -4092,11 +4158,11 @@
     </row>
     <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="4" t="s">
         <v>42</v>
       </c>
@@ -4112,11 +4178,11 @@
     </row>
     <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="4" t="s">
         <v>43</v>
       </c>
@@ -4132,11 +4198,11 @@
     </row>
     <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="4" t="s">
         <v>46</v>
       </c>
@@ -4152,11 +4218,11 @@
     </row>
     <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="4" t="s">
         <v>44</v>
       </c>
@@ -4172,11 +4238,11 @@
     </row>
     <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -4194,11 +4260,11 @@
     </row>
     <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="4" t="s">
         <v>45</v>
       </c>
@@ -4214,11 +4280,11 @@
     </row>
     <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
-        <v>45</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="4" t="s">
         <v>42</v>
       </c>
@@ -4234,11 +4300,11 @@
     </row>
     <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="4" t="s">
         <v>43</v>
       </c>
@@ -4254,11 +4320,11 @@
     </row>
     <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
@@ -4274,11 +4340,11 @@
     </row>
     <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="4" t="s">
         <v>44</v>
       </c>
@@ -4294,41 +4360,41 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="B26:B49"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="D26:D30"/>
     <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C34:C37"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="C38:C49"/>
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C34:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>$G26="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>$G26="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="19" priority="7">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4344,10 +4410,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C33"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4357,7 +4423,7 @@
     <col min="3" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.36328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.08984375" style="1" customWidth="1"/>
@@ -4408,345 +4474,347 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="13" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="14"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="13" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="13" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="13" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="13" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="4" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="4" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="E18" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>33</v>
@@ -4762,11 +4830,11 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>33</v>
@@ -4782,13 +4850,11 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>33</v>
@@ -4804,11 +4870,11 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>33</v>
@@ -4824,11 +4890,11 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>33</v>
@@ -4844,11 +4910,11 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>33</v>
@@ -4864,11 +4930,13 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="E24" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>33</v>
@@ -4884,11 +4952,11 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>33</v>
@@ -4904,427 +4972,427 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
+      <c r="B30" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B38" s="14"/>
+      <c r="C38" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
     </row>
     <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="E46" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>33</v>
@@ -5340,11 +5408,11 @@
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>33</v>
@@ -5360,11 +5428,11 @@
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>33</v>
@@ -5380,11 +5448,11 @@
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
       <c r="E49" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>33</v>
@@ -5396,48 +5464,223 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
+    <row r="50" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B26:B49"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C49"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="B2:B25"/>
+  <mergeCells count="20">
+    <mergeCell ref="B2:B29"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C18:C29"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="B30:B57"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C46:C57"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="D42:D45"/>
   </mergeCells>
-  <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="14" priority="2">
-      <formula>$G26="NG"</formula>
+  <conditionalFormatting sqref="C30:D30 C38:D38 D52:D55 C46:D49 D35">
+    <cfRule type="expression" dxfId="17" priority="5">
+      <formula>$G30="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3">
-      <formula>$G26="OK"</formula>
+    <cfRule type="expression" dxfId="16" priority="6">
+      <formula>$G30="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="12" priority="1">
+  <conditionalFormatting sqref="E2:L41 E46:L57 G42:L45">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E42:F45">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>$K42 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>$G42="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>$G42="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G57">
       <formula1>"OK, NG"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5450,8 +5693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C33"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5461,7 +5704,7 @@
     <col min="3" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.36328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.08984375" style="1" customWidth="1"/>
@@ -5512,261 +5755,261 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="13" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="14"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="13" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="13" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="13" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="13" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="4" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="4" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -5784,11 +6027,11 @@
     </row>
     <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -5804,11 +6047,11 @@
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -5824,11 +6067,11 @@
     </row>
     <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -5844,11 +6087,11 @@
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -5864,11 +6107,11 @@
     </row>
     <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -5884,11 +6127,11 @@
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -5906,11 +6149,11 @@
     </row>
     <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -5926,11 +6169,11 @@
     </row>
     <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -5946,11 +6189,11 @@
     </row>
     <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -5966,11 +6209,11 @@
     </row>
     <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -5986,11 +6229,11 @@
     </row>
     <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -6006,263 +6249,263 @@
     </row>
     <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -6280,11 +6523,11 @@
     </row>
     <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="4" t="s">
         <v>45</v>
       </c>
@@ -6300,11 +6543,11 @@
     </row>
     <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="4" t="s">
         <v>42</v>
       </c>
@@ -6320,11 +6563,11 @@
     </row>
     <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="4" t="s">
         <v>43</v>
       </c>
@@ -6340,11 +6583,11 @@
     </row>
     <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="4" t="s">
         <v>46</v>
       </c>
@@ -6360,11 +6603,11 @@
     </row>
     <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="4" t="s">
         <v>44</v>
       </c>
@@ -6380,11 +6623,11 @@
     </row>
     <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -6402,11 +6645,11 @@
     </row>
     <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="4" t="s">
         <v>45</v>
       </c>
@@ -6422,11 +6665,11 @@
     </row>
     <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
-        <v>45</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="4" t="s">
         <v>42</v>
       </c>
@@ -6442,11 +6685,11 @@
     </row>
     <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="4" t="s">
         <v>43</v>
       </c>
@@ -6462,11 +6705,11 @@
     </row>
     <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
@@ -6482,11 +6725,11 @@
     </row>
     <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="4" t="s">
         <v>44</v>
       </c>
@@ -6502,41 +6745,41 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="B26:B49"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="D26:D30"/>
     <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C34:C37"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="C38:C49"/>
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C34:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$G26="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>$G26="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6554,8 +6797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6565,7 +6808,7 @@
     <col min="3" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.36328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.08984375" style="1" customWidth="1"/>
@@ -6616,261 +6859,261 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="13" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="14"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="13" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="13" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="13" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="13" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="4" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="4" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -6888,11 +7131,11 @@
     </row>
     <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -6908,11 +7151,11 @@
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -6928,11 +7171,11 @@
     </row>
     <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -6948,11 +7191,11 @@
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -6968,11 +7211,11 @@
     </row>
     <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -6988,11 +7231,11 @@
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -7010,11 +7253,11 @@
     </row>
     <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -7030,11 +7273,11 @@
     </row>
     <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -7050,11 +7293,11 @@
     </row>
     <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -7070,11 +7313,11 @@
     </row>
     <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -7090,11 +7333,11 @@
     </row>
     <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -7110,263 +7353,263 @@
     </row>
     <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -7384,11 +7627,11 @@
     </row>
     <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="4" t="s">
         <v>45</v>
       </c>
@@ -7404,11 +7647,11 @@
     </row>
     <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="4" t="s">
         <v>42</v>
       </c>
@@ -7424,11 +7667,11 @@
     </row>
     <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="4" t="s">
         <v>43</v>
       </c>
@@ -7444,11 +7687,11 @@
     </row>
     <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="4" t="s">
         <v>46</v>
       </c>
@@ -7464,11 +7707,11 @@
     </row>
     <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="4" t="s">
         <v>44</v>
       </c>
@@ -7484,11 +7727,11 @@
     </row>
     <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -7506,11 +7749,11 @@
     </row>
     <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="4" t="s">
         <v>45</v>
       </c>
@@ -7526,11 +7769,11 @@
     </row>
     <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
-        <v>45</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="4" t="s">
         <v>42</v>
       </c>
@@ -7546,11 +7789,11 @@
     </row>
     <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="4" t="s">
         <v>43</v>
       </c>
@@ -7566,11 +7809,11 @@
     </row>
     <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
@@ -7586,11 +7829,11 @@
     </row>
     <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="4" t="s">
         <v>44</v>
       </c>
@@ -7606,41 +7849,41 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="B26:B49"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="D26:D30"/>
     <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C34:C37"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="C38:C49"/>
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C34:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$G26="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$G26="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/IntegrationTest_Index.xlsx
+++ b/test/IntegrationTest_Index.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitStar\Panda\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakit\Desktop\web\Panda\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Representative" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="about us" sheetId="7" r:id="rId6"/>
     <sheet name="contact us" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="78">
   <si>
     <t>design</t>
   </si>
@@ -253,6 +253,25 @@
   <si>
     <t>OK</t>
   </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logo's aspect ratio is obviously collapsed. </t>
+  </si>
+  <si>
+    <t>I can't scroll to the bottom.</t>
+  </si>
+  <si>
+    <t>1. open from the mobile or inspection on the pc</t>
+  </si>
+  <si>
+    <t>- "Contact Us" of footer should be one line
+'- Search button should be one line with search bar like Firefox</t>
+  </si>
+  <si>
+    <t>"Contact Us" of footer should be one line</t>
+  </si>
 </sst>
 </file>
 
@@ -383,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -436,102 +455,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE8972"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE8972"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE8972"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <fill>
         <patternFill>
@@ -725,6 +662,83 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1063,12 +1077,12 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>50</v>
@@ -1080,7 +1094,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
@@ -1094,7 +1108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>57</v>
       </c>
@@ -1108,7 +1122,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>58</v>
       </c>
@@ -1122,7 +1136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>59</v>
       </c>
@@ -1136,7 +1150,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>60</v>
       </c>
@@ -1150,7 +1164,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>61</v>
       </c>
@@ -1171,29 +1185,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:J25"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -1231,7 +1248,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1263,7 +1280,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1289,7 +1306,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1315,7 +1332,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1341,7 +1358,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1367,7 +1384,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1395,7 +1412,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1421,7 +1438,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1447,7 +1464,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1475,7 +1492,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1501,7 +1518,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1527,7 +1544,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1553,7 +1570,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1583,7 +1600,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1609,7 +1626,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1623,19 +1640,21 @@
         <v>33</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I16" s="3">
-        <v>42870</v>
+        <v>42871</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1661,7 +1680,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1675,19 +1694,21 @@
         <v>33</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="I18" s="3">
-        <v>42870</v>
+        <v>42871</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1701,19 +1722,21 @@
         <v>33</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="I19" s="3">
-        <v>42870</v>
+        <v>42871</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1728,14 +1751,16 @@
       <c r="F20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1748,14 +1773,16 @@
       <c r="F21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1768,14 +1795,22 @@
       <c r="F22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="G22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1788,14 +1823,20 @@
       <c r="F23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="I23" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1808,14 +1849,22 @@
       <c r="F24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="G24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1828,24 +1877,32 @@
       <c r="F25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="G25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="21" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -1857,23 +1914,23 @@
       <c r="G26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="3">
         <v>42870</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K26" s="2"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="4" t="s">
         <v>11</v>
       </c>
@@ -1890,16 +1947,16 @@
       <c r="J27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="2"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
@@ -1919,13 +1976,13 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="4" t="s">
         <v>14</v>
       </c>
@@ -1942,16 +1999,16 @@
       <c r="J29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K29" s="2"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="4" t="s">
         <v>17</v>
       </c>
@@ -1971,13 +2028,13 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="17" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -1999,13 +2056,13 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="4" t="s">
         <v>20</v>
       </c>
@@ -2025,13 +2082,13 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="4" t="s">
         <v>21</v>
       </c>
@@ -2051,15 +2108,15 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="17" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="4" t="s">
         <v>24</v>
       </c>
@@ -2079,13 +2136,13 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="4" t="s">
         <v>26</v>
       </c>
@@ -2105,13 +2162,13 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="4" t="s">
         <v>28</v>
       </c>
@@ -2131,13 +2188,13 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="4" t="s">
         <v>30</v>
       </c>
@@ -2157,330 +2214,100 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="22" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="I38" s="3">
-        <v>42870</v>
+        <v>42871</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="E39" s="4" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I39" s="3">
-        <v>42870</v>
+        <v>42871</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C49"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B26:B49"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D26:D30"/>
+  <mergeCells count="16">
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C39"/>
   </mergeCells>
-  <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="42" priority="3">
-      <formula>$G26="NG"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="4">
-      <formula>$G26="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="E2:L39">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="29" priority="8">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="28" priority="9">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G39">
       <formula1>"OK, NG"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2497,23 +2324,23 @@
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -2551,7 +2378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2577,7 +2404,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2597,7 +2424,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2617,7 +2444,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2637,7 +2464,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2657,7 +2484,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2679,7 +2506,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2699,7 +2526,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2719,7 +2546,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2741,7 +2568,7 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2761,7 +2588,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2781,7 +2608,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2801,7 +2628,7 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>17</v>
       </c>
@@ -2831,7 +2658,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>18</v>
       </c>
@@ -2857,7 +2684,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>19</v>
       </c>
@@ -2883,7 +2710,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>20</v>
       </c>
@@ -2909,7 +2736,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>21</v>
       </c>
@@ -2935,7 +2762,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>22</v>
       </c>
@@ -2961,7 +2788,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>23</v>
       </c>
@@ -2983,7 +2810,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>24</v>
       </c>
@@ -3003,7 +2830,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>25</v>
       </c>
@@ -3023,7 +2850,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>26</v>
       </c>
@@ -3043,7 +2870,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>27</v>
       </c>
@@ -3063,7 +2890,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>28</v>
       </c>
@@ -3083,7 +2910,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>29</v>
       </c>
@@ -3109,7 +2936,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
     </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>30</v>
       </c>
@@ -3129,7 +2956,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>31</v>
       </c>
@@ -3149,7 +2976,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>32</v>
       </c>
@@ -3169,7 +2996,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
     </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>33</v>
       </c>
@@ -3189,7 +3016,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>34</v>
       </c>
@@ -3211,7 +3038,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>35</v>
       </c>
@@ -3231,7 +3058,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>36</v>
       </c>
@@ -3251,7 +3078,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>37</v>
       </c>
@@ -3273,7 +3100,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>38</v>
       </c>
@@ -3293,7 +3120,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>39</v>
       </c>
@@ -3313,7 +3140,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>40</v>
       </c>
@@ -3333,7 +3160,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
     </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>41</v>
       </c>
@@ -3363,7 +3190,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>42</v>
       </c>
@@ -3389,7 +3216,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>43</v>
       </c>
@@ -3415,7 +3242,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>44</v>
       </c>
@@ -3441,7 +3268,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>45</v>
       </c>
@@ -3467,7 +3294,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>46</v>
       </c>
@@ -3493,7 +3320,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>47</v>
       </c>
@@ -3515,7 +3342,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>48</v>
       </c>
@@ -3535,7 +3362,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>49</v>
       </c>
@@ -3555,7 +3382,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>50</v>
       </c>
@@ -3575,7 +3402,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>51</v>
       </c>
@@ -3595,7 +3422,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>52</v>
       </c>
@@ -3617,6 +3444,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="B26:B49"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="D26:D30"/>
@@ -3626,32 +3462,23 @@
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="40" priority="7">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>$G26="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="8">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>$G26="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="38" priority="6">
+    <cfRule type="expression" dxfId="25" priority="6">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="9">
+    <cfRule type="expression" dxfId="24" priority="9">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="10">
+    <cfRule type="expression" dxfId="23" priority="10">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3673,23 +3500,23 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -3727,7 +3554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -3753,7 +3580,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -3773,7 +3600,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -3793,7 +3620,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -3813,7 +3640,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -3833,7 +3660,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -3855,7 +3682,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -3875,7 +3702,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -3895,7 +3722,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -3917,7 +3744,7 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -3937,7 +3764,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -3957,7 +3784,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -3977,7 +3804,7 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>17</v>
       </c>
@@ -4001,7 +3828,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>18</v>
       </c>
@@ -4021,7 +3848,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>19</v>
       </c>
@@ -4041,7 +3868,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>20</v>
       </c>
@@ -4061,7 +3888,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>21</v>
       </c>
@@ -4081,7 +3908,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>22</v>
       </c>
@@ -4101,7 +3928,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>23</v>
       </c>
@@ -4123,7 +3950,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>24</v>
       </c>
@@ -4143,7 +3970,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>25</v>
       </c>
@@ -4163,7 +3990,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>26</v>
       </c>
@@ -4183,7 +4010,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>27</v>
       </c>
@@ -4203,7 +4030,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>28</v>
       </c>
@@ -4223,7 +4050,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>29</v>
       </c>
@@ -4249,7 +4076,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
     </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>30</v>
       </c>
@@ -4269,7 +4096,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>31</v>
       </c>
@@ -4289,7 +4116,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>32</v>
       </c>
@@ -4309,7 +4136,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
     </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>33</v>
       </c>
@@ -4329,7 +4156,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>34</v>
       </c>
@@ -4351,7 +4178,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>35</v>
       </c>
@@ -4371,7 +4198,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>36</v>
       </c>
@@ -4391,7 +4218,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>37</v>
       </c>
@@ -4413,7 +4240,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>38</v>
       </c>
@@ -4433,7 +4260,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>39</v>
       </c>
@@ -4453,7 +4280,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>40</v>
       </c>
@@ -4473,7 +4300,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
     </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>41</v>
       </c>
@@ -4497,7 +4324,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>42</v>
       </c>
@@ -4517,7 +4344,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>43</v>
       </c>
@@ -4537,7 +4364,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>44</v>
       </c>
@@ -4557,7 +4384,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>45</v>
       </c>
@@ -4577,7 +4404,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>46</v>
       </c>
@@ -4597,7 +4424,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>47</v>
       </c>
@@ -4619,7 +4446,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>48</v>
       </c>
@@ -4639,7 +4466,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>49</v>
       </c>
@@ -4659,7 +4486,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>50</v>
       </c>
@@ -4679,7 +4506,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>51</v>
       </c>
@@ -4699,7 +4526,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>52</v>
       </c>
@@ -4721,6 +4548,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="B26:B49"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="D26:D30"/>
@@ -4730,2400 +4566,6 @@
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="C10:C13"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="35" priority="5">
-      <formula>$G26="NG"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="6">
-      <formula>$G26="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="33" priority="4">
-      <formula>$K2 &lt;&gt; ""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="7">
-      <formula>$G2="NG"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="8">
-      <formula>$G2="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G49">
-      <formula1>"OK, NG"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L57"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-    </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>53</v>
-      </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
-        <v>55</v>
-      </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B30:B57"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C46:C57"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="B2:B29"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C18:C29"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="C10:C17"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C30:D30 C38:D38 D52:D55 C46:D49 D35">
-    <cfRule type="expression" dxfId="30" priority="5">
-      <formula>$G30="NG"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="6">
-      <formula>$G30="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:L41 E46:L57 G42:L45">
-    <cfRule type="expression" dxfId="28" priority="4">
-      <formula>$K2 &lt;&gt; ""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="7">
-      <formula>$G2="NG"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="8">
-      <formula>$G2="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:F45">
-    <cfRule type="expression" dxfId="25" priority="1">
-      <formula>$K42 &lt;&gt; ""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="2">
-      <formula>$G42="NG"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="3">
-      <formula>$G42="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G57">
-      <formula1>"OK, NG"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
-  <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>17</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>18</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>19</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>20</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>21</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>22</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>23</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>24</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>25</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>26</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>27</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>28</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>29</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>30</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>31</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>32</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>33</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>34</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>35</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>36</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>37</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>38</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>39</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>40</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>41</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>42</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>43</v>
-      </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>44</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>45</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>46</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>47</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>48</v>
-      </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>49</v>
-      </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>50</v>
-      </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>51</v>
-      </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>52</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B26:B49"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C49"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
     <cfRule type="expression" dxfId="22" priority="5">
@@ -7154,31 +4596,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -7216,7 +4658,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -7242,7 +4684,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -7262,7 +4704,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -7282,7 +4724,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -7302,7 +4744,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -7322,7 +4764,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -7344,7 +4786,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -7364,7 +4806,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -7384,7 +4826,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -7406,7 +4848,7 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -7426,7 +4868,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -7446,7 +4888,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -7466,7 +4908,1288 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B2:B29"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C18:C29"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="B30:B57"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C46:C57"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="D42:D45"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C30:D30 C38:D38 D52:D55 C46:D49 D35">
+    <cfRule type="expression" dxfId="17" priority="5">
+      <formula>$G30="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="6">
+      <formula>$G30="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:L41 E46:L57 G42:L45">
+    <cfRule type="expression" dxfId="15" priority="4">
+      <formula>$K2 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="7">
+      <formula>$G2="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="8">
+      <formula>$G2="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:F45">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>$K42 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>$G42="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>$G42="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G57">
+      <formula1>"OK, NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>17</v>
       </c>
@@ -7490,7 +6213,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>18</v>
       </c>
@@ -7510,7 +6233,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>19</v>
       </c>
@@ -7530,7 +6253,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>20</v>
       </c>
@@ -7550,7 +6273,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>21</v>
       </c>
@@ -7570,7 +6293,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>22</v>
       </c>
@@ -7590,7 +6313,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>23</v>
       </c>
@@ -7612,7 +6335,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>24</v>
       </c>
@@ -7632,7 +6355,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>25</v>
       </c>
@@ -7652,7 +6375,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>26</v>
       </c>
@@ -7672,7 +6395,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>27</v>
       </c>
@@ -7692,7 +6415,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>28</v>
       </c>
@@ -7712,7 +6435,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>29</v>
       </c>
@@ -7738,7 +6461,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
     </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>30</v>
       </c>
@@ -7758,7 +6481,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>31</v>
       </c>
@@ -7778,7 +6501,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>32</v>
       </c>
@@ -7798,7 +6521,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
     </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>33</v>
       </c>
@@ -7818,7 +6541,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>34</v>
       </c>
@@ -7840,7 +6563,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>35</v>
       </c>
@@ -7860,7 +6583,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>36</v>
       </c>
@@ -7880,7 +6603,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>37</v>
       </c>
@@ -7902,7 +6625,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>38</v>
       </c>
@@ -7922,7 +6645,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>39</v>
       </c>
@@ -7942,7 +6665,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>40</v>
       </c>
@@ -7962,7 +6685,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
     </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>41</v>
       </c>
@@ -7986,7 +6709,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>42</v>
       </c>
@@ -8006,7 +6729,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>43</v>
       </c>
@@ -8026,7 +6749,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>44</v>
       </c>
@@ -8046,7 +6769,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>45</v>
       </c>
@@ -8066,7 +6789,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>46</v>
       </c>
@@ -8086,7 +6809,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>47</v>
       </c>
@@ -8108,7 +6831,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>48</v>
       </c>
@@ -8128,7 +6851,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>49</v>
       </c>
@@ -8148,7 +6871,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>50</v>
       </c>
@@ -8168,7 +6891,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>51</v>
       </c>
@@ -8188,7 +6911,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>52</v>
       </c>
@@ -8210,6 +6933,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="B26:B49"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="D26:D30"/>
@@ -8219,6 +6951,1092 @@
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
     <mergeCell ref="C34:C37"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>$G26="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="6">
+      <formula>$G26="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:L49">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>$K2 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$G2="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>$G2="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G49">
+      <formula1>"OK, NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>17</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>18</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>19</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>20</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>21</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>22</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>23</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>24</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>25</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>26</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>27</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>28</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>29</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>30</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>31</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>32</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>33</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>34</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>35</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>36</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>37</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>38</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>39</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>40</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>41</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>42</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>43</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <v>44</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <v>45</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
+        <v>46</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="7">
+        <v>47</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
+        <v>48</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="7">
+        <v>49</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="7">
+        <v>50</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="7">
+        <v>51</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="7">
+        <v>52</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -8228,23 +8046,32 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B26:B49"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C49"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="C34:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$G26="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$G26="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/IntegrationTest_Index.xlsx
+++ b/test/IntegrationTest_Index.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="78">
   <si>
     <t>design</t>
   </si>
@@ -266,11 +266,10 @@
     <t>1. open from the mobile or inspection on the pc</t>
   </si>
   <si>
-    <t>- "Contact Us" of footer should be one line
-'- Search button should be one line with search bar like Firefox</t>
+    <t>"Contact Us" of footer should be one line</t>
   </si>
   <si>
-    <t>"Contact Us" of footer should be one line</t>
+    <t>Search button should be one line with search bar like Firefox</t>
   </si>
 </sst>
 </file>
@@ -402,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -446,6 +445,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -455,20 +460,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="31">
     <dxf>
       <fill>
         <patternFill>
@@ -683,76 +688,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE8972"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE8972"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE8972"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE8972"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1185,13 +1120,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1252,13 +1187,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1284,9 +1219,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1310,9 +1245,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1336,9 +1271,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1362,9 +1297,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1388,9 +1323,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1416,9 +1351,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1442,9 +1377,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1468,11 +1403,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1496,9 +1431,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1522,9 +1457,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1548,9 +1483,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1574,11 +1509,11 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1604,9 +1539,9 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1630,9 +1565,9 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -1658,9 +1593,9 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1684,9 +1619,9 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -1712,9 +1647,9 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -1740,9 +1675,9 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1764,9 +1699,9 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -1786,9 +1721,9 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -1814,9 +1749,9 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -1840,9 +1775,9 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -1868,9 +1803,9 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -1896,13 +1831,13 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -1928,9 +1863,9 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="4" t="s">
         <v>11</v>
       </c>
@@ -1954,9 +1889,9 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
@@ -1980,9 +1915,9 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="4" t="s">
         <v>14</v>
       </c>
@@ -2006,9 +1941,9 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2032,9 +1967,9 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -2060,9 +1995,9 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="4" t="s">
         <v>20</v>
       </c>
@@ -2086,9 +2021,9 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="4" t="s">
         <v>21</v>
       </c>
@@ -2112,11 +2047,11 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="21"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="4" t="s">
         <v>24</v>
       </c>
@@ -2140,9 +2075,9 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="4" t="s">
         <v>26</v>
       </c>
@@ -2166,9 +2101,9 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="4" t="s">
         <v>28</v>
       </c>
@@ -2192,9 +2127,9 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="4" t="s">
         <v>30</v>
       </c>
@@ -2214,27 +2149,27 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="23" t="s">
         <v>33</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H38" s="20" t="s">
+      <c r="H38" s="17" t="s">
         <v>76</v>
       </c>
       <c r="I38" s="3">
@@ -2243,28 +2178,24 @@
       <c r="J38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="K38" s="3">
+        <v>42871</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
       <c r="G39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="17" t="s">
         <v>77</v>
       </c>
       <c r="I39" s="3">
@@ -2276,13 +2207,44 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
+    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" s="3">
+        <v>42871</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
+  <mergeCells count="19">
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
     <mergeCell ref="D26:D30"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="D34:D37"/>
@@ -2290,12 +2252,18 @@
     <mergeCell ref="C14:C25"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C2:C9"/>
-    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="B26:B40"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:L39">
+  <conditionalFormatting sqref="E2:L38 E40:L40 G39:L39">
     <cfRule type="expression" dxfId="30" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
@@ -2307,7 +2275,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G40">
       <formula1>"OK, NG"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2382,13 +2350,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -2408,9 +2376,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -2428,9 +2396,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -2448,9 +2416,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -2468,9 +2436,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -2488,9 +2456,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2510,9 +2478,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -2530,9 +2498,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -2550,11 +2518,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -2572,9 +2540,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2592,9 +2560,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -2612,9 +2580,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -2632,11 +2600,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -2662,9 +2630,9 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -2688,9 +2656,9 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -2714,9 +2682,9 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -2740,9 +2708,9 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -2766,9 +2734,9 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -2792,9 +2760,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -2814,9 +2782,9 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -2834,9 +2802,9 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -2854,9 +2822,9 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -2874,9 +2842,9 @@
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -2894,9 +2862,9 @@
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -2914,13 +2882,13 @@
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -2940,9 +2908,9 @@
       <c r="A27" s="7">
         <v>30</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
@@ -2960,9 +2928,9 @@
       <c r="A28" s="7">
         <v>31</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
@@ -2980,9 +2948,9 @@
       <c r="A29" s="7">
         <v>32</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
@@ -3000,9 +2968,9 @@
       <c r="A30" s="7">
         <v>33</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
@@ -3020,9 +2988,9 @@
       <c r="A31" s="7">
         <v>34</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="17" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -3042,9 +3010,9 @@
       <c r="A32" s="7">
         <v>35</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
@@ -3062,9 +3030,9 @@
       <c r="A33" s="7">
         <v>36</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
@@ -3082,11 +3050,11 @@
       <c r="A34" s="7">
         <v>37</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="17" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
@@ -3104,9 +3072,9 @@
       <c r="A35" s="7">
         <v>38</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="10" t="s">
         <v>26</v>
       </c>
@@ -3124,9 +3092,9 @@
       <c r="A36" s="7">
         <v>39</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="10" t="s">
         <v>28</v>
       </c>
@@ -3144,9 +3112,9 @@
       <c r="A37" s="7">
         <v>40</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="10" t="s">
         <v>30</v>
       </c>
@@ -3164,11 +3132,11 @@
       <c r="A38" s="7">
         <v>41</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -3194,9 +3162,9 @@
       <c r="A39" s="7">
         <v>42</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="4" t="s">
         <v>45</v>
       </c>
@@ -3220,9 +3188,9 @@
       <c r="A40" s="7">
         <v>43</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="4" t="s">
         <v>42</v>
       </c>
@@ -3246,9 +3214,9 @@
       <c r="A41" s="7">
         <v>44</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="4" t="s">
         <v>43</v>
       </c>
@@ -3272,9 +3240,9 @@
       <c r="A42" s="7">
         <v>45</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="4" t="s">
         <v>46</v>
       </c>
@@ -3298,9 +3266,9 @@
       <c r="A43" s="7">
         <v>46</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="4" t="s">
         <v>44</v>
       </c>
@@ -3324,9 +3292,9 @@
       <c r="A44" s="7">
         <v>47</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="17" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -3346,9 +3314,9 @@
       <c r="A45" s="7">
         <v>48</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="4" t="s">
         <v>45</v>
       </c>
@@ -3366,9 +3334,9 @@
       <c r="A46" s="7">
         <v>49</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="4" t="s">
         <v>42</v>
       </c>
@@ -3386,9 +3354,9 @@
       <c r="A47" s="7">
         <v>50</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="4" t="s">
         <v>43</v>
       </c>
@@ -3406,9 +3374,9 @@
       <c r="A48" s="7">
         <v>51</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
@@ -3426,9 +3394,9 @@
       <c r="A49" s="7">
         <v>52</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="4" t="s">
         <v>44</v>
       </c>
@@ -3444,6 +3412,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B26:B49"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C49"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -3453,15 +3430,6 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B26:B49"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C49"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="C34:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
     <cfRule type="expression" dxfId="27" priority="7">
@@ -3558,13 +3526,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -3584,9 +3552,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -3604,9 +3572,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -3624,9 +3592,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -3644,9 +3612,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -3664,9 +3632,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -3686,9 +3654,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -3706,9 +3674,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -3726,11 +3694,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -3748,9 +3716,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -3768,9 +3736,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -3788,9 +3756,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -3808,11 +3776,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -3832,9 +3800,9 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -3852,9 +3820,9 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -3872,9 +3840,9 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3892,9 +3860,9 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -3912,9 +3880,9 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -3932,9 +3900,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3954,9 +3922,9 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -3974,9 +3942,9 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -3994,9 +3962,9 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -4014,9 +3982,9 @@
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -4034,9 +4002,9 @@
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -4054,13 +4022,13 @@
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -4080,9 +4048,9 @@
       <c r="A27" s="7">
         <v>30</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
@@ -4100,9 +4068,9 @@
       <c r="A28" s="7">
         <v>31</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
@@ -4120,9 +4088,9 @@
       <c r="A29" s="7">
         <v>32</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
@@ -4140,9 +4108,9 @@
       <c r="A30" s="7">
         <v>33</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
@@ -4160,9 +4128,9 @@
       <c r="A31" s="7">
         <v>34</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="17" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -4182,9 +4150,9 @@
       <c r="A32" s="7">
         <v>35</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
@@ -4202,9 +4170,9 @@
       <c r="A33" s="7">
         <v>36</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
@@ -4222,11 +4190,11 @@
       <c r="A34" s="7">
         <v>37</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="17" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
@@ -4244,9 +4212,9 @@
       <c r="A35" s="7">
         <v>38</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="10" t="s">
         <v>26</v>
       </c>
@@ -4264,9 +4232,9 @@
       <c r="A36" s="7">
         <v>39</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="10" t="s">
         <v>28</v>
       </c>
@@ -4284,9 +4252,9 @@
       <c r="A37" s="7">
         <v>40</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="10" t="s">
         <v>30</v>
       </c>
@@ -4304,11 +4272,11 @@
       <c r="A38" s="7">
         <v>41</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -4328,9 +4296,9 @@
       <c r="A39" s="7">
         <v>42</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="4" t="s">
         <v>45</v>
       </c>
@@ -4348,9 +4316,9 @@
       <c r="A40" s="7">
         <v>43</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="4" t="s">
         <v>42</v>
       </c>
@@ -4368,9 +4336,9 @@
       <c r="A41" s="7">
         <v>44</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="4" t="s">
         <v>43</v>
       </c>
@@ -4388,9 +4356,9 @@
       <c r="A42" s="7">
         <v>45</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="4" t="s">
         <v>46</v>
       </c>
@@ -4408,9 +4376,9 @@
       <c r="A43" s="7">
         <v>46</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="4" t="s">
         <v>44</v>
       </c>
@@ -4428,9 +4396,9 @@
       <c r="A44" s="7">
         <v>47</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="17" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -4450,9 +4418,9 @@
       <c r="A45" s="7">
         <v>48</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="4" t="s">
         <v>45</v>
       </c>
@@ -4470,9 +4438,9 @@
       <c r="A46" s="7">
         <v>49</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="4" t="s">
         <v>42</v>
       </c>
@@ -4490,9 +4458,9 @@
       <c r="A47" s="7">
         <v>50</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="4" t="s">
         <v>43</v>
       </c>
@@ -4510,9 +4478,9 @@
       <c r="A48" s="7">
         <v>51</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
@@ -4530,9 +4498,9 @@
       <c r="A49" s="7">
         <v>52</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="4" t="s">
         <v>44</v>
       </c>
@@ -4548,6 +4516,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B26:B49"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C49"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -4557,15 +4534,6 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B26:B49"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C49"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="C34:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
     <cfRule type="expression" dxfId="22" priority="5">
@@ -4662,13 +4630,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -4688,9 +4656,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -4708,9 +4676,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -4728,9 +4696,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -4748,9 +4716,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -4768,9 +4736,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -4790,9 +4758,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -4810,9 +4778,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -4830,11 +4798,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -4852,9 +4820,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -4872,9 +4840,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -4892,9 +4860,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -4912,9 +4880,9 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="17" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -4934,9 +4902,9 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="15" t="s">
         <v>67</v>
       </c>
@@ -4954,9 +4922,9 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="15" t="s">
         <v>68</v>
       </c>
@@ -4974,9 +4942,9 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="15" t="s">
         <v>69</v>
       </c>
@@ -4994,11 +4962,11 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -5018,9 +4986,9 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
@@ -5038,9 +5006,9 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
@@ -5058,9 +5026,9 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="4" t="s">
         <v>43</v>
       </c>
@@ -5078,9 +5046,9 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="4" t="s">
         <v>46</v>
       </c>
@@ -5098,9 +5066,9 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="4" t="s">
         <v>44</v>
       </c>
@@ -5118,9 +5086,9 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="17" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -5140,9 +5108,9 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="4" t="s">
         <v>45</v>
       </c>
@@ -5160,9 +5128,9 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="4" t="s">
         <v>42</v>
       </c>
@@ -5180,9 +5148,9 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="4" t="s">
         <v>43</v>
       </c>
@@ -5200,9 +5168,9 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="4" t="s">
         <v>46</v>
       </c>
@@ -5220,9 +5188,9 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="4" t="s">
         <v>44</v>
       </c>
@@ -5240,13 +5208,13 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -5266,9 +5234,9 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="10" t="s">
         <v>11</v>
       </c>
@@ -5286,9 +5254,9 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="10" t="s">
         <v>13</v>
       </c>
@@ -5306,9 +5274,9 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
@@ -5326,9 +5294,9 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="10" t="s">
         <v>17</v>
       </c>
@@ -5346,9 +5314,9 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="17" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -5368,9 +5336,9 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="10" t="s">
         <v>20</v>
       </c>
@@ -5388,9 +5356,9 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="10" t="s">
         <v>21</v>
       </c>
@@ -5408,11 +5376,11 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="17"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="10" t="s">
         <v>24</v>
       </c>
@@ -5430,9 +5398,9 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="10" t="s">
         <v>26</v>
       </c>
@@ -5450,9 +5418,9 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="10" t="s">
         <v>28</v>
       </c>
@@ -5470,9 +5438,9 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="10" t="s">
         <v>30</v>
       </c>
@@ -5490,9 +5458,9 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="17" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E42" s="13" t="s">
@@ -5512,9 +5480,9 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="13" t="s">
         <v>67</v>
       </c>
@@ -5532,9 +5500,9 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="13" t="s">
         <v>68</v>
       </c>
@@ -5552,9 +5520,9 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="13" t="s">
         <v>69</v>
       </c>
@@ -5572,11 +5540,11 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="17" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -5596,9 +5564,9 @@
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="4" t="s">
         <v>45</v>
       </c>
@@ -5616,9 +5584,9 @@
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="4" t="s">
         <v>42</v>
       </c>
@@ -5636,9 +5604,9 @@
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="4" t="s">
         <v>43</v>
       </c>
@@ -5656,9 +5624,9 @@
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="4" t="s">
         <v>46</v>
       </c>
@@ -5676,9 +5644,9 @@
       <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
       <c r="E51" s="4" t="s">
         <v>44</v>
       </c>
@@ -5696,9 +5664,9 @@
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="17" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -5718,9 +5686,9 @@
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="4" t="s">
         <v>45</v>
       </c>
@@ -5738,9 +5706,9 @@
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
       <c r="E54" s="4" t="s">
         <v>42</v>
       </c>
@@ -5758,9 +5726,9 @@
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
       <c r="E55" s="4" t="s">
         <v>43</v>
       </c>
@@ -5778,9 +5746,9 @@
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="4" t="s">
         <v>46</v>
       </c>
@@ -5798,9 +5766,9 @@
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
       <c r="E57" s="4" t="s">
         <v>44</v>
       </c>
@@ -5816,6 +5784,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B30:B57"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C46:C57"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="D42:D45"/>
     <mergeCell ref="B2:B29"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -5826,16 +5804,6 @@
     <mergeCell ref="D24:D29"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="C10:C17"/>
-    <mergeCell ref="B30:B57"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C46:C57"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="D42:D45"/>
   </mergeCells>
   <conditionalFormatting sqref="C30:D30 C38:D38 D52:D55 C46:D49 D35">
     <cfRule type="expression" dxfId="17" priority="5">
@@ -5943,13 +5911,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -5969,9 +5937,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -5989,9 +5957,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -6009,9 +5977,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -6029,9 +5997,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -6049,9 +6017,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -6071,9 +6039,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -6091,9 +6059,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -6111,11 +6079,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -6133,9 +6101,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -6153,9 +6121,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -6173,9 +6141,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -6193,11 +6161,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -6217,9 +6185,9 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -6237,9 +6205,9 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -6257,9 +6225,9 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -6277,9 +6245,9 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -6297,9 +6265,9 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -6317,9 +6285,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -6339,9 +6307,9 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -6359,9 +6327,9 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -6379,9 +6347,9 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -6399,9 +6367,9 @@
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -6419,9 +6387,9 @@
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -6439,13 +6407,13 @@
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -6465,9 +6433,9 @@
       <c r="A27" s="7">
         <v>30</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
@@ -6485,9 +6453,9 @@
       <c r="A28" s="7">
         <v>31</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
@@ -6505,9 +6473,9 @@
       <c r="A29" s="7">
         <v>32</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
@@ -6525,9 +6493,9 @@
       <c r="A30" s="7">
         <v>33</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
@@ -6545,9 +6513,9 @@
       <c r="A31" s="7">
         <v>34</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="17" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -6567,9 +6535,9 @@
       <c r="A32" s="7">
         <v>35</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
@@ -6587,9 +6555,9 @@
       <c r="A33" s="7">
         <v>36</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
@@ -6607,11 +6575,11 @@
       <c r="A34" s="7">
         <v>37</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="17" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
@@ -6629,9 +6597,9 @@
       <c r="A35" s="7">
         <v>38</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="10" t="s">
         <v>26</v>
       </c>
@@ -6649,9 +6617,9 @@
       <c r="A36" s="7">
         <v>39</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="10" t="s">
         <v>28</v>
       </c>
@@ -6669,9 +6637,9 @@
       <c r="A37" s="7">
         <v>40</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="10" t="s">
         <v>30</v>
       </c>
@@ -6689,11 +6657,11 @@
       <c r="A38" s="7">
         <v>41</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -6713,9 +6681,9 @@
       <c r="A39" s="7">
         <v>42</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="4" t="s">
         <v>45</v>
       </c>
@@ -6733,9 +6701,9 @@
       <c r="A40" s="7">
         <v>43</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="4" t="s">
         <v>42</v>
       </c>
@@ -6753,9 +6721,9 @@
       <c r="A41" s="7">
         <v>44</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="4" t="s">
         <v>43</v>
       </c>
@@ -6773,9 +6741,9 @@
       <c r="A42" s="7">
         <v>45</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="4" t="s">
         <v>46</v>
       </c>
@@ -6793,9 +6761,9 @@
       <c r="A43" s="7">
         <v>46</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="4" t="s">
         <v>44</v>
       </c>
@@ -6813,9 +6781,9 @@
       <c r="A44" s="7">
         <v>47</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="17" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -6835,9 +6803,9 @@
       <c r="A45" s="7">
         <v>48</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="4" t="s">
         <v>45</v>
       </c>
@@ -6855,9 +6823,9 @@
       <c r="A46" s="7">
         <v>49</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="4" t="s">
         <v>42</v>
       </c>
@@ -6875,9 +6843,9 @@
       <c r="A47" s="7">
         <v>50</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="4" t="s">
         <v>43</v>
       </c>
@@ -6895,9 +6863,9 @@
       <c r="A48" s="7">
         <v>51</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
@@ -6915,9 +6883,9 @@
       <c r="A49" s="7">
         <v>52</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="4" t="s">
         <v>44</v>
       </c>
@@ -6933,6 +6901,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B26:B49"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C49"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -6942,15 +6919,6 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B26:B49"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C49"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="C34:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
     <cfRule type="expression" dxfId="9" priority="5">
@@ -7047,13 +7015,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -7073,9 +7041,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -7093,9 +7061,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -7113,9 +7081,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -7133,9 +7101,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -7153,9 +7121,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -7175,9 +7143,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -7195,9 +7163,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -7215,11 +7183,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -7237,9 +7205,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -7257,9 +7225,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -7277,9 +7245,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -7297,11 +7265,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -7321,9 +7289,9 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -7341,9 +7309,9 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -7361,9 +7329,9 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -7381,9 +7349,9 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -7401,9 +7369,9 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -7421,9 +7389,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -7443,9 +7411,9 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -7463,9 +7431,9 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -7483,9 +7451,9 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -7503,9 +7471,9 @@
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -7523,9 +7491,9 @@
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -7543,13 +7511,13 @@
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -7569,9 +7537,9 @@
       <c r="A27" s="7">
         <v>30</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
@@ -7589,9 +7557,9 @@
       <c r="A28" s="7">
         <v>31</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
@@ -7609,9 +7577,9 @@
       <c r="A29" s="7">
         <v>32</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
@@ -7629,9 +7597,9 @@
       <c r="A30" s="7">
         <v>33</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
@@ -7649,9 +7617,9 @@
       <c r="A31" s="7">
         <v>34</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="17" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -7671,9 +7639,9 @@
       <c r="A32" s="7">
         <v>35</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
@@ -7691,9 +7659,9 @@
       <c r="A33" s="7">
         <v>36</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
@@ -7711,11 +7679,11 @@
       <c r="A34" s="7">
         <v>37</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="17" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
@@ -7733,9 +7701,9 @@
       <c r="A35" s="7">
         <v>38</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="10" t="s">
         <v>26</v>
       </c>
@@ -7753,9 +7721,9 @@
       <c r="A36" s="7">
         <v>39</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="10" t="s">
         <v>28</v>
       </c>
@@ -7773,9 +7741,9 @@
       <c r="A37" s="7">
         <v>40</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="10" t="s">
         <v>30</v>
       </c>
@@ -7793,11 +7761,11 @@
       <c r="A38" s="7">
         <v>41</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -7817,9 +7785,9 @@
       <c r="A39" s="7">
         <v>42</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="4" t="s">
         <v>45</v>
       </c>
@@ -7837,9 +7805,9 @@
       <c r="A40" s="7">
         <v>43</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="4" t="s">
         <v>42</v>
       </c>
@@ -7857,9 +7825,9 @@
       <c r="A41" s="7">
         <v>44</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="4" t="s">
         <v>43</v>
       </c>
@@ -7877,9 +7845,9 @@
       <c r="A42" s="7">
         <v>45</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="4" t="s">
         <v>46</v>
       </c>
@@ -7897,9 +7865,9 @@
       <c r="A43" s="7">
         <v>46</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="4" t="s">
         <v>44</v>
       </c>
@@ -7917,9 +7885,9 @@
       <c r="A44" s="7">
         <v>47</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="17" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -7939,9 +7907,9 @@
       <c r="A45" s="7">
         <v>48</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="4" t="s">
         <v>45</v>
       </c>
@@ -7959,9 +7927,9 @@
       <c r="A46" s="7">
         <v>49</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="4" t="s">
         <v>42</v>
       </c>
@@ -7979,9 +7947,9 @@
       <c r="A47" s="7">
         <v>50</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="4" t="s">
         <v>43</v>
       </c>
@@ -7999,9 +7967,9 @@
       <c r="A48" s="7">
         <v>51</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
@@ -8019,9 +7987,9 @@
       <c r="A49" s="7">
         <v>52</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="4" t="s">
         <v>44</v>
       </c>
@@ -8037,6 +8005,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B26:B49"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C49"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -8046,15 +8023,6 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B26:B49"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C49"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="C34:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
     <cfRule type="expression" dxfId="4" priority="5">

--- a/test/IntegrationTest_Index.xlsx
+++ b/test/IntegrationTest_Index.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitStar\Panda\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skart\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6225" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Representative" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="86">
   <si>
     <t>design</t>
   </si>
@@ -252,6 +252,51 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>1. click title for each item</t>
+  </si>
+  <si>
+    <t>Go to content page and show the item's information</t>
+  </si>
+  <si>
+    <t>1. click picture</t>
+  </si>
+  <si>
+    <t>1. change page size to mobile screen size, and it will automatically change to mobile design</t>
+  </si>
+  <si>
+    <t>1.click drop down sign
+2.the hidden &lt;div&gt; appear
+3.the drop down arrow "down" change to "up"</t>
+  </si>
+  <si>
+    <t>1.click the "up" arrow 
+2.the &lt;div&gt; disappear and "up" arrow change to "down"</t>
+  </si>
+  <si>
+    <t>1.check the color for different categoaries: meat-red, vegetable-green, dairy product-blue</t>
+  </si>
+  <si>
+    <t>check the hidden &lt;div&gt; tag's content color is the same as their title</t>
+  </si>
+  <si>
+    <t>1. change page size to full of PC horizontality</t>
+  </si>
+  <si>
+    <t>1. change page size to half of PC horizontality</t>
+  </si>
+  <si>
+    <t>1. change page size to small of PC horizontality</t>
+  </si>
+  <si>
+    <t>1. change page size to full of PC verticality</t>
+  </si>
+  <si>
+    <t>1. change page size to half of PC verticality</t>
+  </si>
+  <si>
+    <t>1. change page size to small of PC verticality</t>
   </si>
 </sst>
 </file>
@@ -440,7 +485,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="45">
     <dxf>
       <fill>
         <patternFill>
@@ -459,76 +504,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE8972"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE8972"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -725,6 +700,90 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1173,7 +1232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20:J25"/>
     </sheetView>
   </sheetViews>
@@ -2461,21 +2520,21 @@
     <mergeCell ref="D20:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="42" priority="3">
+    <cfRule type="expression" dxfId="44" priority="3">
       <formula>$G26="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="4">
+    <cfRule type="expression" dxfId="43" priority="4">
       <formula>$G26="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="42" priority="1">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="41" priority="5">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="40" priority="6">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2493,8 +2552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,7 +2778,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2728,38 +2787,50 @@
         <v>1</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="E10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3">
+        <v>42870</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="E11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3">
+        <v>42870</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -2768,18 +2839,14 @@
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -2788,20 +2855,16 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>17</v>
       </c>
@@ -2813,7 +2876,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>33</v>
@@ -2825,141 +2888,91 @@
       <c r="I14" s="3">
         <v>42870</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="3" t="s">
         <v>55</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>18</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>19</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
-      <c r="E16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>20</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>21</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>22</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
@@ -3251,7 +3264,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>37</v>
       </c>
@@ -3260,38 +3273,38 @@
         <v>1</v>
       </c>
       <c r="D34" s="17"/>
-      <c r="E34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>38</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
+      <c r="E35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
@@ -3300,18 +3313,14 @@
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -3320,20 +3329,16 @@
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>41</v>
       </c>
@@ -3345,25 +3350,19 @@
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>42</v>
       </c>
@@ -3371,25 +3370,19 @@
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="4" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>43</v>
       </c>
@@ -3397,25 +3390,19 @@
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="4" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>44</v>
       </c>
@@ -3423,25 +3410,19 @@
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="4" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>45</v>
       </c>
@@ -3449,47 +3430,31 @@
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="4" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>46</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="19"/>
-      <c r="E43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
@@ -3637,22 +3602,55 @@
     <mergeCell ref="C10:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="40" priority="7">
+    <cfRule type="expression" dxfId="39" priority="16">
       <formula>$G26="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="8">
+    <cfRule type="expression" dxfId="38" priority="17">
       <formula>$G26="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="38" priority="6">
+  <conditionalFormatting sqref="E2:L9 E44:L49 E15:L33">
+    <cfRule type="expression" dxfId="37" priority="15">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="9">
+    <cfRule type="expression" dxfId="36" priority="18">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="10">
+    <cfRule type="expression" dxfId="35" priority="19">
       <formula>$G2="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:L43">
+    <cfRule type="expression" dxfId="34" priority="7">
+      <formula>$K34 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="8">
+      <formula>$G34="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="9">
+      <formula>$G34="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:L13">
+    <cfRule type="expression" dxfId="31" priority="4">
+      <formula>$K10 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="5">
+      <formula>$G10="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="6">
+      <formula>$G10="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:L14">
+    <cfRule type="expression" dxfId="28" priority="1">
+      <formula>$K14 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="2">
+      <formula>$G14="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="3">
+      <formula>$G14="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4741,21 +4739,21 @@
     <mergeCell ref="C10:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="35" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>$G26="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="6">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>$G26="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="7">
+    <cfRule type="expression" dxfId="22" priority="7">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="8">
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6011,32 +6009,32 @@
     <mergeCell ref="C10:C17"/>
   </mergeCells>
   <conditionalFormatting sqref="C30:D30 C38:D38 D52:D55 C46:D49 D35">
-    <cfRule type="expression" dxfId="30" priority="5">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>$G30="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="6">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>$G30="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L41 E46:L57 G42:L45">
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F45">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6054,8 +6052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6374,7 +6372,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>33</v>
@@ -6394,7 +6392,7 @@
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>33</v>
@@ -6414,7 +6412,7 @@
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>33</v>
@@ -6434,7 +6432,7 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>33</v>
@@ -6454,7 +6452,7 @@
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>33</v>
@@ -6474,7 +6472,7 @@
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>33</v>
@@ -6496,7 +6494,7 @@
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>33</v>
@@ -6516,7 +6514,7 @@
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>33</v>
@@ -6536,7 +6534,7 @@
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>33</v>
@@ -6556,7 +6554,7 @@
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>33</v>
@@ -6576,7 +6574,7 @@
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>33</v>
@@ -6596,7 +6594,7 @@
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>33</v>
@@ -6858,7 +6856,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
     </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>41</v>
       </c>
@@ -6870,7 +6868,7 @@
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>33</v>
@@ -6882,19 +6880,15 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>42</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -6902,19 +6896,15 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>43</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -6922,19 +6912,15 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>44</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -6942,19 +6928,15 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>45</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -6962,19 +6944,15 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>46</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="19"/>
-      <c r="E43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -6992,7 +6970,7 @@
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>33</v>
@@ -7012,7 +6990,7 @@
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>33</v>
@@ -7032,7 +7010,7 @@
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
       <c r="E46" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>33</v>
@@ -7052,7 +7030,7 @@
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>33</v>
@@ -7072,7 +7050,7 @@
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>33</v>
@@ -7092,7 +7070,7 @@
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>33</v>
@@ -7126,22 +7104,33 @@
     <mergeCell ref="C10:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="22" priority="5">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$G26="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>$G26="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="20" priority="4">
+  <conditionalFormatting sqref="E2:L37 E39:L49 G38:L38">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>$G2="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:F38">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$K38 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$G38="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$G38="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -8230,21 +8219,21 @@
     <mergeCell ref="C10:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$G26="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$G26="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/IntegrationTest_Index.xlsx
+++ b/test/IntegrationTest_Index.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skart\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitStar\Panda\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6225" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6225" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Representative" sheetId="9" r:id="rId1"/>
@@ -531,14 +531,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFE8972"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFE8972"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:J25"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,7 +1624,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>33</v>
@@ -1650,7 +1650,7 @@
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>33</v>
@@ -1676,7 +1676,7 @@
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>33</v>
@@ -1702,7 +1702,7 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>33</v>
@@ -1728,7 +1728,7 @@
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>33</v>
@@ -1754,7 +1754,7 @@
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>33</v>
@@ -1782,7 +1782,7 @@
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>33</v>
@@ -1802,7 +1802,7 @@
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>33</v>
@@ -1822,7 +1822,7 @@
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>33</v>
@@ -1842,7 +1842,7 @@
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>33</v>
@@ -1862,7 +1862,7 @@
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>33</v>
@@ -1882,7 +1882,7 @@
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>33</v>
@@ -2228,7 +2228,7 @@
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>33</v>
@@ -2254,7 +2254,7 @@
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>33</v>
@@ -2280,7 +2280,7 @@
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>33</v>
@@ -2306,7 +2306,7 @@
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>33</v>
@@ -2332,7 +2332,7 @@
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>33</v>
@@ -2358,7 +2358,7 @@
       <c r="C43" s="18"/>
       <c r="D43" s="19"/>
       <c r="E43" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>33</v>
@@ -2386,7 +2386,7 @@
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>33</v>
@@ -2406,7 +2406,7 @@
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>33</v>
@@ -2426,7 +2426,7 @@
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
       <c r="E46" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>33</v>
@@ -2446,7 +2446,7 @@
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>33</v>
@@ -2466,7 +2466,7 @@
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>33</v>
@@ -2486,7 +2486,7 @@
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>33</v>
@@ -2500,11 +2500,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C49"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="B26:B49"/>
     <mergeCell ref="C14:C25"/>
@@ -2512,12 +2513,11 @@
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C49"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D44:D49"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
     <cfRule type="expression" dxfId="44" priority="3">
@@ -3582,6 +3582,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="B26:B49"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="D26:D30"/>
@@ -3591,15 +3600,6 @@
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
     <cfRule type="expression" dxfId="39" priority="16">
@@ -3987,7 +3987,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>33</v>
@@ -4007,7 +4007,7 @@
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>33</v>
@@ -4027,7 +4027,7 @@
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>33</v>
@@ -4047,7 +4047,7 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>33</v>
@@ -4067,7 +4067,7 @@
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>33</v>
@@ -4087,7 +4087,7 @@
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>33</v>
@@ -4109,7 +4109,7 @@
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>33</v>
@@ -4129,7 +4129,7 @@
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>33</v>
@@ -4149,7 +4149,7 @@
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>33</v>
@@ -4169,7 +4169,7 @@
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>33</v>
@@ -4189,7 +4189,7 @@
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>33</v>
@@ -4209,7 +4209,7 @@
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>33</v>
@@ -4483,7 +4483,7 @@
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>33</v>
@@ -4503,7 +4503,7 @@
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>33</v>
@@ -4523,7 +4523,7 @@
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>33</v>
@@ -4543,7 +4543,7 @@
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>33</v>
@@ -4563,7 +4563,7 @@
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>33</v>
@@ -4583,7 +4583,7 @@
       <c r="C43" s="18"/>
       <c r="D43" s="19"/>
       <c r="E43" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>33</v>
@@ -4605,7 +4605,7 @@
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>33</v>
@@ -4625,7 +4625,7 @@
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>33</v>
@@ -4645,7 +4645,7 @@
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
       <c r="E46" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>33</v>
@@ -4665,7 +4665,7 @@
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>33</v>
@@ -4685,7 +4685,7 @@
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>33</v>
@@ -4705,7 +4705,7 @@
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>33</v>
@@ -4719,6 +4719,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="B26:B49"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="D26:D30"/>
@@ -4728,15 +4737,6 @@
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
     <cfRule type="expression" dxfId="25" priority="5">
@@ -5173,7 +5173,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>33</v>
@@ -5193,7 +5193,7 @@
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>33</v>
@@ -5213,7 +5213,7 @@
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>33</v>
@@ -5233,7 +5233,7 @@
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>33</v>
@@ -5253,7 +5253,7 @@
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>33</v>
@@ -5273,7 +5273,7 @@
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
       <c r="E23" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>33</v>
@@ -5295,7 +5295,7 @@
         <v>34</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>33</v>
@@ -5315,7 +5315,7 @@
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>33</v>
@@ -5335,7 +5335,7 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>33</v>
@@ -5355,7 +5355,7 @@
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>33</v>
@@ -5375,7 +5375,7 @@
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>33</v>
@@ -5395,7 +5395,7 @@
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>33</v>
@@ -5751,7 +5751,7 @@
         <v>32</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>33</v>
@@ -5771,7 +5771,7 @@
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>33</v>
@@ -5791,7 +5791,7 @@
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>33</v>
@@ -5811,7 +5811,7 @@
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>33</v>
@@ -5831,7 +5831,7 @@
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
       <c r="E50" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>33</v>
@@ -5851,7 +5851,7 @@
       <c r="C51" s="18"/>
       <c r="D51" s="19"/>
       <c r="E51" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>33</v>
@@ -5873,7 +5873,7 @@
         <v>34</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>33</v>
@@ -5893,7 +5893,7 @@
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
       <c r="E53" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>33</v>
@@ -5913,7 +5913,7 @@
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
       <c r="E54" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>33</v>
@@ -5933,7 +5933,7 @@
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
       <c r="E55" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>33</v>
@@ -5953,7 +5953,7 @@
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
       <c r="E56" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>33</v>
@@ -5973,7 +5973,7 @@
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>33</v>
@@ -5987,6 +5987,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:B29"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C18:C29"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C10:C17"/>
     <mergeCell ref="B30:B57"/>
     <mergeCell ref="C30:C37"/>
     <mergeCell ref="D30:D34"/>
@@ -5997,16 +6007,6 @@
     <mergeCell ref="D52:D57"/>
     <mergeCell ref="C38:C45"/>
     <mergeCell ref="D42:D45"/>
-    <mergeCell ref="B2:B29"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C18:C29"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="C10:C17"/>
   </mergeCells>
   <conditionalFormatting sqref="C30:D30 C38:D38 D52:D55 C46:D49 D35">
     <cfRule type="expression" dxfId="20" priority="5">
@@ -6052,7 +6052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -7084,6 +7084,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="B26:B49"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="D26:D30"/>
@@ -7093,15 +7102,6 @@
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
     <cfRule type="expression" dxfId="12" priority="8">
@@ -7123,13 +7123,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:F38">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$K38 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$G38="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$G38="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7147,8 +7147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7467,7 +7467,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>33</v>
@@ -7487,7 +7487,7 @@
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>33</v>
@@ -7507,7 +7507,7 @@
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>33</v>
@@ -7527,7 +7527,7 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>33</v>
@@ -7547,7 +7547,7 @@
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>33</v>
@@ -7567,7 +7567,7 @@
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>33</v>
@@ -7589,7 +7589,7 @@
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>33</v>
@@ -7609,7 +7609,7 @@
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>33</v>
@@ -7629,7 +7629,7 @@
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>33</v>
@@ -7649,7 +7649,7 @@
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>33</v>
@@ -7669,7 +7669,7 @@
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>33</v>
@@ -7689,7 +7689,7 @@
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>33</v>
@@ -7963,7 +7963,7 @@
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>33</v>
@@ -7983,7 +7983,7 @@
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>33</v>
@@ -8003,7 +8003,7 @@
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>33</v>
@@ -8023,7 +8023,7 @@
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>33</v>
@@ -8043,7 +8043,7 @@
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>33</v>
@@ -8063,7 +8063,7 @@
       <c r="C43" s="18"/>
       <c r="D43" s="19"/>
       <c r="E43" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>33</v>
@@ -8085,7 +8085,7 @@
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>33</v>
@@ -8105,7 +8105,7 @@
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="4" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>33</v>
@@ -8125,7 +8125,7 @@
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
       <c r="E46" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>33</v>
@@ -8145,7 +8145,7 @@
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>33</v>
@@ -8165,7 +8165,7 @@
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>33</v>
@@ -8185,7 +8185,7 @@
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>33</v>
@@ -8199,6 +8199,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="B26:B49"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="D26:D30"/>
@@ -8208,32 +8217,23 @@
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$G26="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$G26="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/IntegrationTest_Index.xlsx
+++ b/test/IntegrationTest_Index.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Representative" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="93">
   <si>
     <t>design</t>
   </si>
@@ -270,6 +270,61 @@
   </si>
   <si>
     <t>Search button should be one line with search bar like Firefox</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>toggle button</t>
+  </si>
+  <si>
+    <t>1. click toggle button in first row
+2. click toggle button in second row
+3. click toggle button in third row
+4. click toggle button in first row
+5. click toggle button in second row
+6. click toggle button in third row</t>
+  </si>
+  <si>
+    <t>Open and close every rows</t>
+  </si>
+  <si>
+    <t>1. click toggle button in second row
+2. click toggle button in third row
+3. click toggle button in first row
+4. click toggle button in third row
+5. click toggle button in first row
+6. click toggle button in second row</t>
+  </si>
+  <si>
+    <t>Each row is large too much</t>
+  </si>
+  <si>
+    <t>saki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only "Food name" and toggle buttons ride over navigation bar </t>
+  </si>
+  <si>
+    <t>1. change page size to full of PC horizontality</t>
+  </si>
+  <si>
+    <t>1. change page size to half of PC horizontality</t>
+  </si>
+  <si>
+    <t>1. change page size to small of PC horizontality</t>
+  </si>
+  <si>
+    <t>1. change page size to full of PC verticality</t>
+  </si>
+  <si>
+    <t>1. change page size to half of PC verticality</t>
+  </si>
+  <si>
+    <t>1. change page size to small of PC verticality</t>
+  </si>
+  <si>
+    <t>1. change page size to mobile screen size, and it will automatically change to mobile design</t>
   </si>
 </sst>
 </file>
@@ -299,7 +354,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +388,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -451,6 +518,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -469,11 +551,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="59">
     <dxf>
       <fill>
         <patternFill>
@@ -667,6 +780,202 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1122,11 +1431,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1187,13 +1496,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1219,9 +1528,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1245,9 +1554,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1271,9 +1580,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1297,9 +1606,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1323,9 +1632,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1351,9 +1660,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1377,9 +1686,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1403,11 +1712,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1431,9 +1740,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1457,9 +1766,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1483,9 +1792,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1509,11 +1818,11 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1539,9 +1848,9 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1565,9 +1874,9 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -1593,9 +1902,9 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1619,9 +1928,9 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -1647,9 +1956,9 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -1675,9 +1984,9 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1699,9 +2008,9 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -1721,9 +2030,9 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -1749,9 +2058,9 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -1775,9 +2084,9 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -1803,9 +2112,9 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -1831,13 +2140,13 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -1863,9 +2172,9 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="4" t="s">
         <v>11</v>
       </c>
@@ -1889,9 +2198,9 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
@@ -1915,9 +2224,9 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="4" t="s">
         <v>14</v>
       </c>
@@ -1941,9 +2250,9 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="4" t="s">
         <v>17</v>
       </c>
@@ -1967,9 +2276,9 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -1995,9 +2304,9 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="4" t="s">
         <v>20</v>
       </c>
@@ -2021,9 +2330,9 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="4" t="s">
         <v>21</v>
       </c>
@@ -2047,11 +2356,11 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22" t="s">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="22"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="4" t="s">
         <v>24</v>
       </c>
@@ -2075,9 +2384,9 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="4" t="s">
         <v>26</v>
       </c>
@@ -2101,9 +2410,9 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="4" t="s">
         <v>28</v>
       </c>
@@ -2127,9 +2436,9 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="4" t="s">
         <v>30</v>
       </c>
@@ -2153,17 +2462,17 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22" t="s">
+      <c r="B38" s="27"/>
+      <c r="C38" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -2187,11 +2496,11 @@
     </row>
     <row r="39" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
       <c r="G39" s="2" t="s">
         <v>72</v>
       </c>
@@ -2211,8 +2520,8 @@
       <c r="A40" s="7">
         <v>38</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="18" t="s">
         <v>34</v>
       </c>
@@ -2248,6 +2557,7 @@
     <mergeCell ref="D26:D30"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D38:D39"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C14:C25"/>
     <mergeCell ref="C10:C13"/>
@@ -2256,7 +2566,6 @@
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D39"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="D10:D13"/>
@@ -2264,13 +2573,13 @@
     <mergeCell ref="D20:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:L38 E40:L40 G39:L39">
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="58" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="8">
+    <cfRule type="expression" dxfId="57" priority="8">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="9">
+    <cfRule type="expression" dxfId="56" priority="9">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2286,10 +2595,1214 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>17</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>18</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3">
+        <v>42870</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>19</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3">
+        <v>42870</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>20</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3">
+        <v>42870</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>21</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>22</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>23</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>24</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>25</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>26</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>27</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>28</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>29</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>30</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>31</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>32</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>33</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>34</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>35</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>36</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>34</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="23">
+        <v>42871</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>35</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="23">
+        <v>42871</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>37</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>38</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>39</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>40</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+    </row>
+    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>41</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <v>42</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <v>43</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
+        <v>44</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B26:B43"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E2:L6 G7:L9 F40:G40 I40:L40 E34:L39 E10:L30 K41:L43">
+    <cfRule type="expression" dxfId="55" priority="48">
+      <formula>$K2 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="51">
+      <formula>$G2="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="52">
+      <formula>$G2="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="expression" dxfId="52" priority="37">
+      <formula>$K40 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="38">
+      <formula>$G40="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="39">
+      <formula>$G40="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:F9">
+    <cfRule type="expression" dxfId="49" priority="31">
+      <formula>$K7 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="32">
+      <formula>$G7="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="33">
+      <formula>$G7="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:L33">
+    <cfRule type="expression" dxfId="46" priority="28">
+      <formula>$K31 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="29">
+      <formula>$G31="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="30">
+      <formula>$G31="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="expression" dxfId="43" priority="25">
+      <formula>$K40 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="26">
+      <formula>$G40="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="27">
+      <formula>$G40="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41:J41">
+    <cfRule type="expression" dxfId="40" priority="16">
+      <formula>$K41 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="17">
+      <formula>$G41="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="18">
+      <formula>$G41="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42 I42:J42">
+    <cfRule type="expression" dxfId="37" priority="13">
+      <formula>$K42 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="14">
+      <formula>$G42="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="15">
+      <formula>$G42="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="expression" dxfId="34" priority="10">
+      <formula>$K42 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="11">
+      <formula>$G42="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="12">
+      <formula>$G42="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:J43">
+    <cfRule type="expression" dxfId="31" priority="7">
+      <formula>$K43 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="8">
+      <formula>$G43="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="9">
+      <formula>$G43="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="expression" dxfId="28" priority="4">
+      <formula>$K42 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="5">
+      <formula>$G42="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="6">
+      <formula>$G42="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="25" priority="1">
+      <formula>$K42 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="2">
+      <formula>$G42="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="3">
+      <formula>$G42="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G43">
+      <formula1>"OK, NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2350,13 +3863,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -2376,9 +3889,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -2396,9 +3909,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -2416,9 +3929,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -2436,9 +3949,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -2456,9 +3969,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2478,9 +3991,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -2498,9 +4011,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -2518,11 +4031,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -2540,9 +4053,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2560,9 +4073,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -2580,9 +4093,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -2600,11 +4113,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -2613,16 +4126,10 @@
       <c r="F14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
@@ -2630,25 +4137,19 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
@@ -2656,25 +4157,19 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
@@ -2682,25 +4177,19 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
@@ -2708,25 +4197,19 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
@@ -2734,25 +4217,19 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
@@ -2760,9 +4237,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -2782,9 +4259,9 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -2802,9 +4279,9 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -2822,9 +4299,9 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -2842,9 +4319,9 @@
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -2862,9 +4339,9 @@
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -2882,13 +4359,13 @@
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -2908,9 +4385,9 @@
       <c r="A27" s="7">
         <v>30</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
@@ -2928,9 +4405,9 @@
       <c r="A28" s="7">
         <v>31</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
@@ -2948,9 +4425,9 @@
       <c r="A29" s="7">
         <v>32</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
@@ -2968,9 +4445,9 @@
       <c r="A30" s="7">
         <v>33</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
@@ -2988,9 +4465,9 @@
       <c r="A31" s="7">
         <v>34</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="19" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -3010,9 +4487,9 @@
       <c r="A32" s="7">
         <v>35</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
@@ -3030,9 +4507,9 @@
       <c r="A33" s="7">
         <v>36</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
@@ -3050,11 +4527,11 @@
       <c r="A34" s="7">
         <v>37</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
@@ -3072,9 +4549,9 @@
       <c r="A35" s="7">
         <v>38</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="10" t="s">
         <v>26</v>
       </c>
@@ -3092,9 +4569,9 @@
       <c r="A36" s="7">
         <v>39</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="10" t="s">
         <v>28</v>
       </c>
@@ -3112,9 +4589,9 @@
       <c r="A37" s="7">
         <v>40</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="10" t="s">
         <v>30</v>
       </c>
@@ -3132,11 +4609,11 @@
       <c r="A38" s="7">
         <v>41</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -3145,16 +4622,10 @@
       <c r="F38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
@@ -3162,25 +4633,19 @@
       <c r="A39" s="7">
         <v>42</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
@@ -3188,25 +4653,19 @@
       <c r="A40" s="7">
         <v>43</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
@@ -3214,25 +4673,19 @@
       <c r="A41" s="7">
         <v>44</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
@@ -3240,25 +4693,19 @@
       <c r="A42" s="7">
         <v>45</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
@@ -3266,25 +4713,19 @@
       <c r="A43" s="7">
         <v>46</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="3">
-        <v>42870</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
@@ -3292,9 +4733,9 @@
       <c r="A44" s="7">
         <v>47</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="19" t="s">
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -3314,9 +4755,9 @@
       <c r="A45" s="7">
         <v>48</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="4" t="s">
         <v>45</v>
       </c>
@@ -3334,9 +4775,9 @@
       <c r="A46" s="7">
         <v>49</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="4" t="s">
         <v>42</v>
       </c>
@@ -3354,9 +4795,9 @@
       <c r="A47" s="7">
         <v>50</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="4" t="s">
         <v>43</v>
       </c>
@@ -3374,9 +4815,9 @@
       <c r="A48" s="7">
         <v>51</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
@@ -3394,1113 +4835,9 @@
       <c r="A49" s="7">
         <v>52</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B26:B49"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C49"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="C10:C13"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="27" priority="7">
-      <formula>$G26="NG"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="8">
-      <formula>$G26="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="25" priority="6">
-      <formula>$K2 &lt;&gt; ""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="9">
-      <formula>$G2="NG"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="10">
-      <formula>$G2="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G49">
-      <formula1>"OK, NG"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
-  <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
-        <v>17</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
-        <v>18</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
-        <v>19</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
-        <v>20</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>21</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
-        <v>22</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
-        <v>23</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
-        <v>24</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
-        <v>25</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
-        <v>26</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
-        <v>27</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
-        <v>28</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
-        <v>29</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
-        <v>30</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
-        <v>31</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
-        <v>32</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
-        <v>33</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="7">
-        <v>34</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
-        <v>35</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
-        <v>36</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
-        <v>37</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
-        <v>38</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
-        <v>39</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
-        <v>40</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
-        <v>41</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
-        <v>42</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
-        <v>43</v>
-      </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
-        <v>44</v>
-      </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
-        <v>45</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="7">
-        <v>46</v>
-      </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="7">
-        <v>47</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="7">
-        <v>48</v>
-      </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="7">
-        <v>49</v>
-      </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="7">
-        <v>50</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="7">
-        <v>51</v>
-      </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="7">
-        <v>52</v>
-      </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="4" t="s">
         <v>44</v>
       </c>
@@ -4630,13 +4967,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -4656,9 +4993,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -4676,9 +5013,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -4696,9 +5033,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -4716,9 +5053,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -4736,9 +5073,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -4758,9 +5095,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -4778,9 +5115,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -4798,11 +5135,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -4820,9 +5157,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -4840,9 +5177,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -4860,9 +5197,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -4880,9 +5217,9 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="24" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -4902,9 +5239,9 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="15" t="s">
         <v>67</v>
       </c>
@@ -4922,9 +5259,9 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="15" t="s">
         <v>68</v>
       </c>
@@ -4942,9 +5279,9 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="15" t="s">
         <v>69</v>
       </c>
@@ -4962,11 +5299,11 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -4986,9 +5323,9 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
@@ -5006,9 +5343,9 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
@@ -5026,9 +5363,9 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="4" t="s">
         <v>43</v>
       </c>
@@ -5046,9 +5383,9 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="4" t="s">
         <v>46</v>
       </c>
@@ -5066,9 +5403,9 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="4" t="s">
         <v>44</v>
       </c>
@@ -5086,9 +5423,9 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="19" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -5108,9 +5445,9 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="4" t="s">
         <v>45</v>
       </c>
@@ -5128,9 +5465,9 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="4" t="s">
         <v>42</v>
       </c>
@@ -5148,9 +5485,9 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="4" t="s">
         <v>43</v>
       </c>
@@ -5168,9 +5505,9 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="4" t="s">
         <v>46</v>
       </c>
@@ -5188,9 +5525,9 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="4" t="s">
         <v>44</v>
       </c>
@@ -5208,13 +5545,13 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -5234,9 +5571,9 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="10" t="s">
         <v>11</v>
       </c>
@@ -5254,9 +5591,9 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="10" t="s">
         <v>13</v>
       </c>
@@ -5274,9 +5611,9 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
@@ -5294,9 +5631,9 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="10" t="s">
         <v>17</v>
       </c>
@@ -5314,9 +5651,9 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="19" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -5336,9 +5673,9 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="10" t="s">
         <v>20</v>
       </c>
@@ -5356,9 +5693,9 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="10" t="s">
         <v>21</v>
       </c>
@@ -5376,11 +5713,11 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="19"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="10" t="s">
         <v>24</v>
       </c>
@@ -5398,9 +5735,9 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="10" t="s">
         <v>26</v>
       </c>
@@ -5418,9 +5755,9 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="10" t="s">
         <v>28</v>
       </c>
@@ -5438,9 +5775,9 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="10" t="s">
         <v>30</v>
       </c>
@@ -5458,9 +5795,9 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="19" t="s">
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="24" t="s">
         <v>62</v>
       </c>
       <c r="E42" s="13" t="s">
@@ -5480,9 +5817,9 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
       <c r="E43" s="13" t="s">
         <v>67</v>
       </c>
@@ -5500,9 +5837,9 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="13" t="s">
         <v>68</v>
       </c>
@@ -5520,9 +5857,9 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="13" t="s">
         <v>69</v>
       </c>
@@ -5540,11 +5877,11 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="19" t="s">
+      <c r="B46" s="25"/>
+      <c r="C46" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -5564,9 +5901,9 @@
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="4" t="s">
         <v>45</v>
       </c>
@@ -5584,9 +5921,9 @@
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="4" t="s">
         <v>42</v>
       </c>
@@ -5604,9 +5941,9 @@
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="4" t="s">
         <v>43</v>
       </c>
@@ -5624,9 +5961,9 @@
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="4" t="s">
         <v>46</v>
       </c>
@@ -5644,9 +5981,9 @@
       <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="4" t="s">
         <v>44</v>
       </c>
@@ -5664,9 +6001,9 @@
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="19" t="s">
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -5686,9 +6023,9 @@
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="4" t="s">
         <v>45</v>
       </c>
@@ -5706,9 +6043,9 @@
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
       <c r="E54" s="4" t="s">
         <v>42</v>
       </c>
@@ -5726,9 +6063,9 @@
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
       <c r="E55" s="4" t="s">
         <v>43</v>
       </c>
@@ -5746,9 +6083,9 @@
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="4" t="s">
         <v>46</v>
       </c>
@@ -5766,9 +6103,9 @@
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="4" t="s">
         <v>44</v>
       </c>
@@ -5849,8 +6186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A1:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5870,1044 +6207,1017 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="11"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+      <c r="A3" s="35">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="10" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
+      <c r="A4" s="35">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="10" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+      <c r="A5" s="35">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="10" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="37"/>
     </row>
     <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+      <c r="A6" s="35">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="10" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+      <c r="A7" s="35">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+      <c r="A8" s="35">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="10" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
     </row>
     <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
+      <c r="A9" s="35">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="10" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+      <c r="A10" s="35">
         <v>9</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
+      <c r="A11" s="35">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="13" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+      <c r="A12" s="35">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="13" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
+      <c r="A13" s="35">
         <v>12</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="13" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
+      <c r="A14" s="35">
         <v>17</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+    </row>
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="35">
+        <v>18</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+    </row>
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="35">
+        <v>19</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+    </row>
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="35">
+        <v>20</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+    </row>
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="35">
+        <v>21</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+    </row>
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="35">
+        <v>22</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+    </row>
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="35">
+        <v>23</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+    </row>
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="35">
+        <v>24</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+    </row>
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="35">
+        <v>25</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+    </row>
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="35">
+        <v>26</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+    </row>
+    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="35">
+        <v>27</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+    </row>
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="35">
+        <v>28</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+    </row>
+    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="35">
+        <v>29</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+    </row>
+    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="35">
+        <v>30</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+    </row>
+    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="35">
+        <v>31</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+    </row>
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="35">
+        <v>32</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+    </row>
+    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="35">
+        <v>33</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+    </row>
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="35">
+        <v>34</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+    </row>
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="35">
+        <v>35</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="35">
+        <v>36</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="35">
+        <v>37</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="35">
+        <v>38</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="35">
+        <v>39</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="35">
+        <v>40</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+    </row>
+    <row r="38" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A38" s="35">
         <v>41</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
-        <v>18</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="4" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="35">
+        <v>42</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="35">
+        <v>43</v>
+      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="35">
+        <v>44</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="35">
         <v>45</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
-        <v>19</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
-        <v>20</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>21</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="4" t="s">
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="35">
         <v>46</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
-        <v>22</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
-        <v>23</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19" t="s">
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+    </row>
+    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="35">
+        <v>47</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
-        <v>24</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
-        <v>25</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
-        <v>26</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
-        <v>27</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
-        <v>28</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
-        <v>29</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
-        <v>30</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
-        <v>31</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
-        <v>32</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
-        <v>33</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="7">
-        <v>34</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
-        <v>35</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
-        <v>36</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
-        <v>37</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
-        <v>38</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
-        <v>39</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
-        <v>40</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
-        <v>41</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
-        <v>42</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
-        <v>43</v>
-      </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
-        <v>44</v>
-      </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
-        <v>45</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="7">
-        <v>46</v>
-      </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="7">
-        <v>47</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="E44" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
     </row>
     <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="7">
+      <c r="A45" s="35">
         <v>48</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
     </row>
     <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="7">
+      <c r="A46" s="35">
         <v>49</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
     </row>
     <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="7">
+      <c r="A47" s="35">
         <v>50</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
     </row>
     <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="7">
+      <c r="A48" s="35">
         <v>51</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
     </row>
     <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="7">
+      <c r="A49" s="35">
         <v>52</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B26:B49"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C49"/>
-    <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="B2:B25"/>
@@ -6919,6 +7229,13 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B26:B49"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C49"/>
+    <mergeCell ref="D38:D43"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
     <cfRule type="expression" dxfId="9" priority="5">
@@ -7015,13 +7332,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -7041,9 +7358,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -7061,9 +7378,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -7081,9 +7398,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -7101,9 +7418,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -7121,9 +7438,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -7143,9 +7460,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -7163,9 +7480,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -7183,11 +7500,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -7205,9 +7522,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -7225,9 +7542,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -7245,9 +7562,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -7265,11 +7582,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -7289,9 +7606,9 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -7309,9 +7626,9 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -7329,9 +7646,9 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -7349,9 +7666,9 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -7369,9 +7686,9 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -7389,9 +7706,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -7411,9 +7728,9 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -7431,9 +7748,9 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -7451,9 +7768,9 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -7471,9 +7788,9 @@
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -7491,9 +7808,9 @@
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -7511,13 +7828,13 @@
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -7537,9 +7854,9 @@
       <c r="A27" s="7">
         <v>30</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
@@ -7557,9 +7874,9 @@
       <c r="A28" s="7">
         <v>31</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
@@ -7577,9 +7894,9 @@
       <c r="A29" s="7">
         <v>32</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
@@ -7597,9 +7914,9 @@
       <c r="A30" s="7">
         <v>33</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
@@ -7617,9 +7934,9 @@
       <c r="A31" s="7">
         <v>34</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="19" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -7639,9 +7956,9 @@
       <c r="A32" s="7">
         <v>35</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
@@ -7659,9 +7976,9 @@
       <c r="A33" s="7">
         <v>36</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
@@ -7679,11 +7996,11 @@
       <c r="A34" s="7">
         <v>37</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
@@ -7701,9 +8018,9 @@
       <c r="A35" s="7">
         <v>38</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="10" t="s">
         <v>26</v>
       </c>
@@ -7721,9 +8038,9 @@
       <c r="A36" s="7">
         <v>39</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="10" t="s">
         <v>28</v>
       </c>
@@ -7741,9 +8058,9 @@
       <c r="A37" s="7">
         <v>40</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="10" t="s">
         <v>30</v>
       </c>
@@ -7761,11 +8078,11 @@
       <c r="A38" s="7">
         <v>41</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -7785,9 +8102,9 @@
       <c r="A39" s="7">
         <v>42</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="4" t="s">
         <v>45</v>
       </c>
@@ -7805,9 +8122,9 @@
       <c r="A40" s="7">
         <v>43</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="4" t="s">
         <v>42</v>
       </c>
@@ -7825,9 +8142,9 @@
       <c r="A41" s="7">
         <v>44</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="4" t="s">
         <v>43</v>
       </c>
@@ -7845,9 +8162,9 @@
       <c r="A42" s="7">
         <v>45</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="4" t="s">
         <v>46</v>
       </c>
@@ -7865,9 +8182,9 @@
       <c r="A43" s="7">
         <v>46</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="4" t="s">
         <v>44</v>
       </c>
@@ -7885,9 +8202,9 @@
       <c r="A44" s="7">
         <v>47</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="19" t="s">
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -7907,9 +8224,9 @@
       <c r="A45" s="7">
         <v>48</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="4" t="s">
         <v>45</v>
       </c>
@@ -7927,9 +8244,9 @@
       <c r="A46" s="7">
         <v>49</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="4" t="s">
         <v>42</v>
       </c>
@@ -7947,9 +8264,9 @@
       <c r="A47" s="7">
         <v>50</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="4" t="s">
         <v>43</v>
       </c>
@@ -7967,9 +8284,9 @@
       <c r="A48" s="7">
         <v>51</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
@@ -7987,9 +8304,9 @@
       <c r="A49" s="7">
         <v>52</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="4" t="s">
         <v>44</v>
       </c>

--- a/test/IntegrationTest_Index.xlsx
+++ b/test/IntegrationTest_Index.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Representative" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="93">
   <si>
     <t>design</t>
   </si>
@@ -533,27 +533,6 @@
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -581,6 +560,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1496,13 +1496,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1528,9 +1528,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1554,9 +1554,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1580,9 +1580,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1606,9 +1606,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1632,9 +1632,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1660,9 +1660,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1686,9 +1686,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1712,11 +1712,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1740,9 +1740,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1766,9 +1766,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1792,9 +1792,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1818,11 +1818,11 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1848,9 +1848,9 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1874,9 +1874,9 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -1902,9 +1902,9 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1928,9 +1928,9 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -1956,9 +1956,9 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -1984,9 +1984,9 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="24" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -2008,9 +2008,9 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -2030,9 +2030,9 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -2058,9 +2058,9 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -2084,9 +2084,9 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -2112,9 +2112,9 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -2140,13 +2140,13 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -2172,9 +2172,9 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="4" t="s">
         <v>11</v>
       </c>
@@ -2198,9 +2198,9 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
@@ -2224,9 +2224,9 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="4" t="s">
         <v>14</v>
       </c>
@@ -2250,9 +2250,9 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2276,9 +2276,9 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27" t="s">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -2304,9 +2304,9 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="4" t="s">
         <v>20</v>
       </c>
@@ -2330,9 +2330,9 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="4" t="s">
         <v>21</v>
       </c>
@@ -2356,11 +2356,11 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="27"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="4" t="s">
         <v>24</v>
       </c>
@@ -2384,9 +2384,9 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="4" t="s">
         <v>26</v>
       </c>
@@ -2410,9 +2410,9 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="4" t="s">
         <v>28</v>
       </c>
@@ -2436,9 +2436,9 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="4" t="s">
         <v>30</v>
       </c>
@@ -2462,17 +2462,17 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27" t="s">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="34" t="s">
         <v>33</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -2496,11 +2496,11 @@
     </row>
     <row r="39" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
       <c r="G39" s="2" t="s">
         <v>72</v>
       </c>
@@ -2520,8 +2520,8 @@
       <c r="A40" s="7">
         <v>38</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="18" t="s">
         <v>34</v>
       </c>
@@ -2552,12 +2552,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C14:C25"/>
     <mergeCell ref="C10:C13"/>
@@ -2566,11 +2565,12 @@
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:L38 E40:L40 G39:L39">
     <cfRule type="expression" dxfId="58" priority="4">
@@ -2597,11 +2597,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2616,7 +2616,7 @@
     <col min="8" max="8" width="26.81640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2662,13 +2662,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -2688,9 +2688,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -2708,9 +2708,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -2728,9 +2728,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -2748,9 +2748,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -2766,9 +2766,9 @@
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2786,9 +2786,9 @@
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -2804,9 +2804,9 @@
     </row>
     <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -2824,11 +2824,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -2846,9 +2846,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2866,9 +2866,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -2886,9 +2886,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -2906,11 +2906,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -2938,9 +2938,9 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -2964,9 +2964,9 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -2990,9 +2990,9 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3016,9 +3016,9 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -3044,9 +3044,9 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -3072,9 +3072,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="24" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3102,9 +3102,9 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -3128,9 +3128,9 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -3154,9 +3154,9 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="21" t="s">
         <v>43</v>
       </c>
@@ -3174,9 +3174,9 @@
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -3202,9 +3202,9 @@
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -3230,13 +3230,13 @@
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -3256,9 +3256,9 @@
       <c r="A27" s="7">
         <v>30</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
@@ -3276,9 +3276,9 @@
       <c r="A28" s="7">
         <v>31</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
@@ -3296,9 +3296,9 @@
       <c r="A29" s="7">
         <v>32</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
@@ -3316,9 +3316,9 @@
       <c r="A30" s="7">
         <v>33</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
@@ -3336,9 +3336,9 @@
       <c r="A31" s="7">
         <v>34</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27" t="s">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -3358,9 +3358,9 @@
       <c r="A32" s="7">
         <v>35</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
@@ -3378,9 +3378,9 @@
       <c r="A33" s="7">
         <v>36</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
@@ -3398,9 +3398,9 @@
       <c r="A34" s="7">
         <v>34</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27" t="s">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E34" s="19" t="s">
@@ -3426,9 +3426,9 @@
       <c r="A35" s="7">
         <v>35</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="19" t="s">
         <v>82</v>
       </c>
@@ -3452,11 +3452,11 @@
       <c r="A36" s="7">
         <v>37</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27" t="s">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="27"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="13" t="s">
         <v>24</v>
       </c>
@@ -3474,9 +3474,9 @@
       <c r="A37" s="7">
         <v>38</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="13" t="s">
         <v>26</v>
       </c>
@@ -3494,9 +3494,9 @@
       <c r="A38" s="7">
         <v>39</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="13" t="s">
         <v>28</v>
       </c>
@@ -3514,9 +3514,9 @@
       <c r="A39" s="7">
         <v>40</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="13" t="s">
         <v>30</v>
       </c>
@@ -3534,17 +3534,17 @@
       <c r="A40" s="7">
         <v>41</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27" t="s">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="40" t="s">
         <v>33</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -3559,18 +3559,22 @@
       <c r="J40" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="K40" s="3">
+        <v>42871</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="41" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>42</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
       <c r="G41" s="2" t="s">
         <v>72</v>
       </c>
@@ -3590,15 +3594,15 @@
       <c r="A42" s="7">
         <v>43</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27" t="s">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="40" t="s">
         <v>33</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -3613,18 +3617,22 @@
       <c r="J42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="K42" s="3">
+        <v>42871</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>44</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
       <c r="G43" s="2" t="s">
         <v>72</v>
       </c>
@@ -3642,6 +3650,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B26:B43"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C40:C43"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -3650,21 +3673,6 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B26:B43"/>
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:L6 G7:L9 F40:G40 I40:L40 E34:L39 E10:L30 K41:L43">
     <cfRule type="expression" dxfId="55" priority="48">
@@ -3863,13 +3871,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -3889,9 +3897,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -3909,9 +3917,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -3929,9 +3937,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -3949,9 +3957,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -3969,9 +3977,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -3991,9 +3999,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -4011,9 +4019,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -4031,11 +4039,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -4053,9 +4061,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -4073,9 +4081,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -4093,9 +4101,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -4113,11 +4121,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -4137,9 +4145,9 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -4157,9 +4165,9 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -4177,9 +4185,9 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -4197,9 +4205,9 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -4217,9 +4225,9 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -4237,9 +4245,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="24" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -4259,9 +4267,9 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -4279,9 +4287,9 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -4299,9 +4307,9 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -4319,9 +4327,9 @@
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -4339,9 +4347,9 @@
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -4359,13 +4367,13 @@
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -4385,9 +4393,9 @@
       <c r="A27" s="7">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
@@ -4405,9 +4413,9 @@
       <c r="A28" s="7">
         <v>31</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
@@ -4425,9 +4433,9 @@
       <c r="A29" s="7">
         <v>32</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
@@ -4445,9 +4453,9 @@
       <c r="A30" s="7">
         <v>33</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
@@ -4465,9 +4473,9 @@
       <c r="A31" s="7">
         <v>34</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="24" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -4487,9 +4495,9 @@
       <c r="A32" s="7">
         <v>35</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
@@ -4507,9 +4515,9 @@
       <c r="A33" s="7">
         <v>36</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
@@ -4527,11 +4535,11 @@
       <c r="A34" s="7">
         <v>37</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="24" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="24"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
@@ -4549,9 +4557,9 @@
       <c r="A35" s="7">
         <v>38</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="10" t="s">
         <v>26</v>
       </c>
@@ -4569,9 +4577,9 @@
       <c r="A36" s="7">
         <v>39</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="10" t="s">
         <v>28</v>
       </c>
@@ -4589,9 +4597,9 @@
       <c r="A37" s="7">
         <v>40</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="10" t="s">
         <v>30</v>
       </c>
@@ -4609,11 +4617,11 @@
       <c r="A38" s="7">
         <v>41</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="24" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -4633,9 +4641,9 @@
       <c r="A39" s="7">
         <v>42</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="4" t="s">
         <v>45</v>
       </c>
@@ -4653,9 +4661,9 @@
       <c r="A40" s="7">
         <v>43</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="4" t="s">
         <v>42</v>
       </c>
@@ -4673,9 +4681,9 @@
       <c r="A41" s="7">
         <v>44</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="4" t="s">
         <v>43</v>
       </c>
@@ -4693,9 +4701,9 @@
       <c r="A42" s="7">
         <v>45</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="4" t="s">
         <v>46</v>
       </c>
@@ -4713,9 +4721,9 @@
       <c r="A43" s="7">
         <v>46</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="4" t="s">
         <v>44</v>
       </c>
@@ -4733,9 +4741,9 @@
       <c r="A44" s="7">
         <v>47</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="24" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -4755,9 +4763,9 @@
       <c r="A45" s="7">
         <v>48</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="4" t="s">
         <v>45</v>
       </c>
@@ -4775,9 +4783,9 @@
       <c r="A46" s="7">
         <v>49</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
       <c r="E46" s="4" t="s">
         <v>42</v>
       </c>
@@ -4795,9 +4803,9 @@
       <c r="A47" s="7">
         <v>50</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
       <c r="E47" s="4" t="s">
         <v>43</v>
       </c>
@@ -4815,9 +4823,9 @@
       <c r="A48" s="7">
         <v>51</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
@@ -4835,9 +4843,9 @@
       <c r="A49" s="7">
         <v>52</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="4" t="s">
         <v>44</v>
       </c>
@@ -4853,6 +4861,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="B26:B49"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="D26:D30"/>
@@ -4862,15 +4879,6 @@
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
     <cfRule type="expression" dxfId="22" priority="5">
@@ -4967,13 +4975,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -4993,9 +5001,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -5013,9 +5021,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -5033,9 +5041,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -5053,9 +5061,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -5073,9 +5081,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -5095,9 +5103,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -5115,9 +5123,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -5135,11 +5143,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -5157,9 +5165,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -5177,9 +5185,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -5197,9 +5205,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -5217,9 +5225,9 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="37" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -5239,9 +5247,9 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="15" t="s">
         <v>67</v>
       </c>
@@ -5259,9 +5267,9 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="15" t="s">
         <v>68</v>
       </c>
@@ -5279,9 +5287,9 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="15" t="s">
         <v>69</v>
       </c>
@@ -5299,11 +5307,11 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="24" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -5323,9 +5331,9 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
@@ -5343,9 +5351,9 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
@@ -5363,9 +5371,9 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="4" t="s">
         <v>43</v>
       </c>
@@ -5383,9 +5391,9 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="4" t="s">
         <v>46</v>
       </c>
@@ -5403,9 +5411,9 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="4" t="s">
         <v>44</v>
       </c>
@@ -5423,9 +5431,9 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="24" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -5445,9 +5453,9 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="4" t="s">
         <v>45</v>
       </c>
@@ -5465,9 +5473,9 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="4" t="s">
         <v>42</v>
       </c>
@@ -5485,9 +5493,9 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="4" t="s">
         <v>43</v>
       </c>
@@ -5505,9 +5513,9 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="4" t="s">
         <v>46</v>
       </c>
@@ -5525,9 +5533,9 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="4" t="s">
         <v>44</v>
       </c>
@@ -5545,13 +5553,13 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -5571,9 +5579,9 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="10" t="s">
         <v>11</v>
       </c>
@@ -5591,9 +5599,9 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="10" t="s">
         <v>13</v>
       </c>
@@ -5611,9 +5619,9 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
@@ -5631,9 +5639,9 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="10" t="s">
         <v>17</v>
       </c>
@@ -5651,9 +5659,9 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="24" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -5673,9 +5681,9 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="10" t="s">
         <v>20</v>
       </c>
@@ -5693,9 +5701,9 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="10" t="s">
         <v>21</v>
       </c>
@@ -5713,11 +5721,11 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="24" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="24"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="10" t="s">
         <v>24</v>
       </c>
@@ -5735,9 +5743,9 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="10" t="s">
         <v>26</v>
       </c>
@@ -5755,9 +5763,9 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="10" t="s">
         <v>28</v>
       </c>
@@ -5775,9 +5783,9 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="10" t="s">
         <v>30</v>
       </c>
@@ -5795,9 +5803,9 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="24" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="37" t="s">
         <v>62</v>
       </c>
       <c r="E42" s="13" t="s">
@@ -5817,9 +5825,9 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
       <c r="E43" s="13" t="s">
         <v>67</v>
       </c>
@@ -5837,9 +5845,9 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="13" t="s">
         <v>68</v>
       </c>
@@ -5857,9 +5865,9 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="13" t="s">
         <v>69</v>
       </c>
@@ -5877,11 +5885,11 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="24" t="s">
+      <c r="B46" s="39"/>
+      <c r="C46" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -5901,9 +5909,9 @@
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
       <c r="E47" s="4" t="s">
         <v>45</v>
       </c>
@@ -5921,9 +5929,9 @@
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
       <c r="E48" s="4" t="s">
         <v>42</v>
       </c>
@@ -5941,9 +5949,9 @@
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
       <c r="E49" s="4" t="s">
         <v>43</v>
       </c>
@@ -5961,9 +5969,9 @@
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
       <c r="E50" s="4" t="s">
         <v>46</v>
       </c>
@@ -5981,9 +5989,9 @@
       <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="26"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="4" t="s">
         <v>44</v>
       </c>
@@ -6001,9 +6009,9 @@
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="24" t="s">
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -6023,9 +6031,9 @@
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
       <c r="E53" s="4" t="s">
         <v>45</v>
       </c>
@@ -6043,9 +6051,9 @@
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
       <c r="E54" s="4" t="s">
         <v>42</v>
       </c>
@@ -6063,9 +6071,9 @@
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
       <c r="E55" s="4" t="s">
         <v>43</v>
       </c>
@@ -6083,9 +6091,9 @@
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
       <c r="E56" s="4" t="s">
         <v>46</v>
       </c>
@@ -6103,9 +6111,9 @@
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="4" t="s">
         <v>44</v>
       </c>
@@ -6121,6 +6129,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:B29"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C18:C29"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C10:C17"/>
     <mergeCell ref="B30:B57"/>
     <mergeCell ref="C30:C37"/>
     <mergeCell ref="D30:D34"/>
@@ -6131,16 +6149,6 @@
     <mergeCell ref="D52:D57"/>
     <mergeCell ref="C38:C45"/>
     <mergeCell ref="D42:D45"/>
-    <mergeCell ref="B2:B29"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C18:C29"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="C10:C17"/>
   </mergeCells>
   <conditionalFormatting sqref="C30:D30 C38:D38 D52:D55 C46:D49 D35">
     <cfRule type="expression" dxfId="17" priority="5">
@@ -6186,7 +6194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A40" sqref="A1:L49"/>
     </sheetView>
   </sheetViews>
@@ -6207,1017 +6215,1019 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="35">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="37"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="35">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="36" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="37"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="35">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="35">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="36" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="37"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="35">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="36" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="35">
+      <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="35">
+      <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="36" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35">
+      <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="36" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="35">
+      <c r="A10" s="28">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="39" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="35">
+      <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="39" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="35">
+      <c r="A12" s="28">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="39" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="35">
+      <c r="A13" s="28">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="39" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="35">
+      <c r="A14" s="28">
         <v>17</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
+      <c r="F14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="35">
+      <c r="A15" s="28">
         <v>18</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="32" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
+      <c r="F15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="35">
+      <c r="A16" s="28">
         <v>19</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="32" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
+      <c r="F16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
     </row>
     <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="35">
+      <c r="A17" s="28">
         <v>20</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="32" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
+      <c r="F17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="35">
+      <c r="A18" s="28">
         <v>21</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="32" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
+      <c r="F18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="35">
+      <c r="A19" s="28">
         <v>22</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="32" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
+      <c r="F19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="35">
+      <c r="A20" s="28">
         <v>23</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="24" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
+      <c r="F20" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="35">
+      <c r="A21" s="28">
         <v>24</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="32" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
+      <c r="F21" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
     </row>
     <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="35">
+      <c r="A22" s="28">
         <v>25</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="32" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
+      <c r="F22" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="35">
+      <c r="A23" s="28">
         <v>26</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="32" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+      <c r="F23" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
     </row>
     <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="35">
+      <c r="A24" s="28">
         <v>27</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="32" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="F24" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="35">
+      <c r="A25" s="28">
         <v>28</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="32" t="s">
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
+      <c r="F25" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="35">
+      <c r="A26" s="28">
         <v>29</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="35">
+      <c r="A27" s="28">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="36" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="35">
+      <c r="A28" s="28">
         <v>31</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="36" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
     </row>
     <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="35">
+      <c r="A29" s="28">
         <v>32</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="36" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="35">
-        <v>33</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="36" t="s">
+      <c r="A30" s="28">
+        <v>33</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
     </row>
     <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="35">
+      <c r="A31" s="28">
         <v>34</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="24" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
     </row>
     <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="35">
+      <c r="A32" s="28">
         <v>35</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="36" t="s">
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="35">
+      <c r="A33" s="28">
         <v>36</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="36" t="s">
+      <c r="B33" s="39"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="35">
+      <c r="A34" s="28">
         <v>37</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="24" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="36" t="s">
+      <c r="D34" s="37"/>
+      <c r="E34" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="35">
+      <c r="A35" s="28">
         <v>38</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="36" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F35" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="35">
+      <c r="A36" s="28">
         <v>39</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="36" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="35">
+      <c r="A37" s="28">
         <v>40</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="36" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
     </row>
     <row r="38" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A38" s="35">
+      <c r="A38" s="28">
         <v>41</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="24" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
+      <c r="F38" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="35">
+      <c r="A39" s="28">
         <v>42</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="35">
+      <c r="A40" s="28">
         <v>43</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="35">
+      <c r="A41" s="28">
         <v>44</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="35">
+      <c r="A42" s="28">
         <v>45</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="35">
+      <c r="A43" s="28">
         <v>46</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
     </row>
     <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="35">
+      <c r="A44" s="28">
         <v>47</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="24" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
+      <c r="F44" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
     </row>
     <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="35">
+      <c r="A45" s="28">
         <v>48</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="32" t="s">
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F45" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
+      <c r="F45" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
     </row>
     <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="35">
+      <c r="A46" s="28">
         <v>49</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="32" t="s">
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
+      <c r="F46" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
     </row>
     <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="35">
+      <c r="A47" s="28">
         <v>50</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="32" t="s">
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
+      <c r="F47" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
     </row>
     <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="35">
+      <c r="A48" s="28">
         <v>51</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="32" t="s">
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F48" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
+      <c r="F48" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
     </row>
     <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="35">
+      <c r="A49" s="28">
         <v>52</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="32" t="s">
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F49" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
+      <c r="F49" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C38:C49"/>
+    <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="B2:B25"/>
@@ -7234,8 +7244,6 @@
     <mergeCell ref="D26:D30"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C49"/>
-    <mergeCell ref="D38:D43"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
     <cfRule type="expression" dxfId="9" priority="5">
@@ -7332,13 +7340,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -7358,9 +7366,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -7378,9 +7386,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -7398,9 +7406,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -7418,9 +7426,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -7438,9 +7446,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -7460,9 +7468,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -7480,9 +7488,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -7500,11 +7508,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -7522,9 +7530,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -7542,9 +7550,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -7562,9 +7570,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -7582,11 +7590,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -7606,9 +7614,9 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -7626,9 +7634,9 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -7646,9 +7654,9 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -7666,9 +7674,9 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -7686,9 +7694,9 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -7706,9 +7714,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="24" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -7728,9 +7736,9 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -7748,9 +7756,9 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -7768,9 +7776,9 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -7788,9 +7796,9 @@
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -7808,9 +7816,9 @@
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -7828,13 +7836,13 @@
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -7854,9 +7862,9 @@
       <c r="A27" s="7">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
@@ -7874,9 +7882,9 @@
       <c r="A28" s="7">
         <v>31</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
@@ -7894,9 +7902,9 @@
       <c r="A29" s="7">
         <v>32</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
@@ -7914,9 +7922,9 @@
       <c r="A30" s="7">
         <v>33</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
@@ -7934,9 +7942,9 @@
       <c r="A31" s="7">
         <v>34</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="24" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -7956,9 +7964,9 @@
       <c r="A32" s="7">
         <v>35</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
@@ -7976,9 +7984,9 @@
       <c r="A33" s="7">
         <v>36</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
@@ -7996,11 +8004,11 @@
       <c r="A34" s="7">
         <v>37</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="24" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="24"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
@@ -8018,9 +8026,9 @@
       <c r="A35" s="7">
         <v>38</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="10" t="s">
         <v>26</v>
       </c>
@@ -8038,9 +8046,9 @@
       <c r="A36" s="7">
         <v>39</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="10" t="s">
         <v>28</v>
       </c>
@@ -8058,9 +8066,9 @@
       <c r="A37" s="7">
         <v>40</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="10" t="s">
         <v>30</v>
       </c>
@@ -8078,11 +8086,11 @@
       <c r="A38" s="7">
         <v>41</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="24" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -8102,9 +8110,9 @@
       <c r="A39" s="7">
         <v>42</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="4" t="s">
         <v>45</v>
       </c>
@@ -8122,9 +8130,9 @@
       <c r="A40" s="7">
         <v>43</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="4" t="s">
         <v>42</v>
       </c>
@@ -8142,9 +8150,9 @@
       <c r="A41" s="7">
         <v>44</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="4" t="s">
         <v>43</v>
       </c>
@@ -8162,9 +8170,9 @@
       <c r="A42" s="7">
         <v>45</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="4" t="s">
         <v>46</v>
       </c>
@@ -8182,9 +8190,9 @@
       <c r="A43" s="7">
         <v>46</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="4" t="s">
         <v>44</v>
       </c>
@@ -8202,9 +8210,9 @@
       <c r="A44" s="7">
         <v>47</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="24" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -8224,9 +8232,9 @@
       <c r="A45" s="7">
         <v>48</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="4" t="s">
         <v>45</v>
       </c>
@@ -8244,9 +8252,9 @@
       <c r="A46" s="7">
         <v>49</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
       <c r="E46" s="4" t="s">
         <v>42</v>
       </c>
@@ -8264,9 +8272,9 @@
       <c r="A47" s="7">
         <v>50</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
       <c r="E47" s="4" t="s">
         <v>43</v>
       </c>
@@ -8284,9 +8292,9 @@
       <c r="A48" s="7">
         <v>51</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
@@ -8304,9 +8312,9 @@
       <c r="A49" s="7">
         <v>52</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="4" t="s">
         <v>44</v>
       </c>
@@ -8322,6 +8330,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="B26:B49"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="D26:D30"/>
@@ -8331,15 +8348,6 @@
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
     <cfRule type="expression" dxfId="4" priority="5">

--- a/test/IntegrationTest_Index.xlsx
+++ b/test/IntegrationTest_Index.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Representative" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="93">
   <si>
     <t>design</t>
   </si>
@@ -468,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -561,23 +561,29 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -586,7 +592,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="71">
     <dxf>
       <fill>
         <patternFill>
@@ -710,6 +716,90 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1318,7 +1408,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1432,10 +1522,10 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1496,13 +1586,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1528,9 +1618,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1554,9 +1644,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1580,9 +1670,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1606,8 +1696,8 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
@@ -1632,9 +1722,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1660,9 +1750,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1686,7 +1776,7 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="4" t="s">
@@ -1712,11 +1802,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1740,9 +1830,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1766,9 +1856,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1792,7 +1882,7 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="4" t="s">
@@ -1818,11 +1908,11 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1848,9 +1938,9 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1874,9 +1964,9 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -1902,9 +1992,9 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1928,9 +2018,9 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -1956,8 +2046,8 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="38"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
@@ -1984,9 +2074,9 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="37" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -2008,9 +2098,9 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -2030,9 +2120,9 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -2058,9 +2148,9 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -2084,9 +2174,9 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -2140,13 +2230,13 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -2172,9 +2262,9 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="4" t="s">
         <v>11</v>
       </c>
@@ -2198,9 +2288,9 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
@@ -2224,9 +2314,9 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="4" t="s">
         <v>14</v>
       </c>
@@ -2250,9 +2340,9 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2276,9 +2366,9 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -2304,9 +2394,9 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="4" t="s">
         <v>20</v>
       </c>
@@ -2330,9 +2420,9 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="4" t="s">
         <v>21</v>
       </c>
@@ -2356,11 +2446,11 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="36"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="4" t="s">
         <v>24</v>
       </c>
@@ -2384,9 +2474,9 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="4" t="s">
         <v>26</v>
       </c>
@@ -2410,9 +2500,9 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="4" t="s">
         <v>28</v>
       </c>
@@ -2436,9 +2526,9 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="4" t="s">
         <v>30</v>
       </c>
@@ -2462,17 +2552,17 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="40" t="s">
         <v>33</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -2496,11 +2586,11 @@
     </row>
     <row r="39" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="38"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
       <c r="G39" s="2" t="s">
         <v>72</v>
       </c>
@@ -2520,8 +2610,8 @@
       <c r="A40" s="7">
         <v>38</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="18" t="s">
         <v>34</v>
       </c>
@@ -2552,11 +2642,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D38:D39"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C14:C25"/>
     <mergeCell ref="C10:C13"/>
@@ -2565,21 +2656,20 @@
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:L38 E40:L40 G39:L39">
-    <cfRule type="expression" dxfId="58" priority="4">
+    <cfRule type="expression" dxfId="70" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="8">
+    <cfRule type="expression" dxfId="69" priority="8">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="9">
+    <cfRule type="expression" dxfId="68" priority="9">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2597,11 +2687,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2662,13 +2752,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -2688,9 +2778,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -2708,9 +2798,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -2728,9 +2818,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -2748,8 +2838,8 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
@@ -2766,9 +2856,9 @@
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2786,9 +2876,9 @@
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -2804,8 +2894,8 @@
     </row>
     <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="38"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
@@ -2824,11 +2914,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -2846,9 +2936,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2866,9 +2956,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -2886,8 +2976,8 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
@@ -2906,11 +2996,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -2938,9 +3028,9 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -2964,9 +3054,9 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -2990,9 +3080,9 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3016,9 +3106,9 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -3044,8 +3134,8 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="38"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
@@ -3072,9 +3162,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="37" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3102,9 +3192,9 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -3128,9 +3218,9 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -3154,9 +3244,9 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="21" t="s">
         <v>43</v>
       </c>
@@ -3174,9 +3264,9 @@
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -3230,13 +3320,13 @@
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -3256,9 +3346,9 @@
       <c r="A27" s="7">
         <v>30</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
@@ -3276,9 +3366,9 @@
       <c r="A28" s="7">
         <v>31</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
@@ -3296,9 +3386,9 @@
       <c r="A29" s="7">
         <v>32</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
@@ -3316,9 +3406,9 @@
       <c r="A30" s="7">
         <v>33</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
@@ -3336,9 +3426,9 @@
       <c r="A31" s="7">
         <v>34</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -3358,9 +3448,9 @@
       <c r="A32" s="7">
         <v>35</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
@@ -3378,9 +3468,9 @@
       <c r="A33" s="7">
         <v>36</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
@@ -3398,9 +3488,9 @@
       <c r="A34" s="7">
         <v>34</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39" t="s">
         <v>79</v>
       </c>
       <c r="E34" s="19" t="s">
@@ -3426,9 +3516,9 @@
       <c r="A35" s="7">
         <v>35</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="19" t="s">
         <v>82</v>
       </c>
@@ -3452,11 +3542,11 @@
       <c r="A36" s="7">
         <v>37</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="36"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="13" t="s">
         <v>24</v>
       </c>
@@ -3474,9 +3564,9 @@
       <c r="A37" s="7">
         <v>38</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="13" t="s">
         <v>26</v>
       </c>
@@ -3494,9 +3584,9 @@
       <c r="A38" s="7">
         <v>39</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="13" t="s">
         <v>28</v>
       </c>
@@ -3514,9 +3604,9 @@
       <c r="A39" s="7">
         <v>40</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="13" t="s">
         <v>30</v>
       </c>
@@ -3534,17 +3624,17 @@
       <c r="A40" s="7">
         <v>41</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="40" t="s">
+      <c r="F40" s="42" t="s">
         <v>33</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -3570,11 +3660,11 @@
       <c r="A41" s="7">
         <v>42</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="2" t="s">
         <v>72</v>
       </c>
@@ -3594,15 +3684,15 @@
       <c r="A42" s="7">
         <v>43</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="42" t="s">
         <v>33</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -3628,11 +3718,11 @@
       <c r="A43" s="7">
         <v>44</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
       <c r="G43" s="2" t="s">
         <v>72</v>
       </c>
@@ -3650,6 +3740,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B26:B43"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C40:C43"/>
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="F42:F43"/>
     <mergeCell ref="E42:E43"/>
@@ -3658,140 +3763,125 @@
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B26:B43"/>
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:L6 G7:L9 F40:G40 I40:L40 E34:L39 E10:L30 K41:L43">
-    <cfRule type="expression" dxfId="55" priority="48">
+    <cfRule type="expression" dxfId="67" priority="48">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="51">
+    <cfRule type="expression" dxfId="66" priority="51">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="52">
+    <cfRule type="expression" dxfId="65" priority="52">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="expression" dxfId="52" priority="37">
+    <cfRule type="expression" dxfId="64" priority="37">
       <formula>$K40 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="38">
+    <cfRule type="expression" dxfId="63" priority="38">
       <formula>$G40="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="39">
+    <cfRule type="expression" dxfId="62" priority="39">
       <formula>$G40="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:F9">
-    <cfRule type="expression" dxfId="49" priority="31">
+    <cfRule type="expression" dxfId="61" priority="31">
       <formula>$K7 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="32">
+    <cfRule type="expression" dxfId="60" priority="32">
       <formula>$G7="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="33">
+    <cfRule type="expression" dxfId="59" priority="33">
       <formula>$G7="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:L33">
-    <cfRule type="expression" dxfId="46" priority="28">
+    <cfRule type="expression" dxfId="58" priority="28">
       <formula>$K31 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="29">
+    <cfRule type="expression" dxfId="57" priority="29">
       <formula>$G31="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="30">
+    <cfRule type="expression" dxfId="56" priority="30">
       <formula>$G31="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="expression" dxfId="43" priority="25">
+    <cfRule type="expression" dxfId="55" priority="25">
       <formula>$K40 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="26">
+    <cfRule type="expression" dxfId="54" priority="26">
       <formula>$G40="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="27">
+    <cfRule type="expression" dxfId="53" priority="27">
       <formula>$G40="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:J41">
-    <cfRule type="expression" dxfId="40" priority="16">
+    <cfRule type="expression" dxfId="52" priority="16">
       <formula>$K41 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="17">
+    <cfRule type="expression" dxfId="51" priority="17">
       <formula>$G41="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="18">
+    <cfRule type="expression" dxfId="50" priority="18">
       <formula>$G41="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42 I42:J42">
-    <cfRule type="expression" dxfId="37" priority="13">
+    <cfRule type="expression" dxfId="49" priority="13">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="14">
+    <cfRule type="expression" dxfId="48" priority="14">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="15">
+    <cfRule type="expression" dxfId="47" priority="15">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="34" priority="10">
+    <cfRule type="expression" dxfId="46" priority="10">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="11">
+    <cfRule type="expression" dxfId="45" priority="11">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="44" priority="12">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:J43">
-    <cfRule type="expression" dxfId="31" priority="7">
+    <cfRule type="expression" dxfId="43" priority="7">
       <formula>$K43 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="8">
+    <cfRule type="expression" dxfId="42" priority="8">
       <formula>$G43="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="41" priority="9">
       <formula>$G43="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="5">
+    <cfRule type="expression" dxfId="39" priority="5">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="38" priority="6">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="35" priority="3">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3807,10 +3897,1013 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39:J39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>17</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>18</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>19</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>20</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="24"/>
+      <c r="I17" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>21</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>22</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>23</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>24</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>25</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>26</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>27</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="24"/>
+      <c r="I24" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>28</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="28">
+        <v>29</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="30"/>
+    </row>
+    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="28">
+        <v>30</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="30"/>
+    </row>
+    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="28">
+        <v>31</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+    </row>
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="28">
+        <v>32</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="30"/>
+    </row>
+    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="28">
+        <v>33</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+    </row>
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="28">
+        <v>34</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+    </row>
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="28">
+        <v>35</v>
+      </c>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="28">
+        <v>36</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="28">
+        <v>37</v>
+      </c>
+      <c r="B34" s="37"/>
+      <c r="C34" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="28">
+        <v>38</v>
+      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="28">
+        <v>39</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="28">
+        <v>40</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+    </row>
+    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="28">
+        <v>41</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="24"/>
+      <c r="I38" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+    </row>
+    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="28">
+        <v>42</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="24"/>
+      <c r="I39" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C10:C13"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E2:L37 F38:L39">
+    <cfRule type="expression" dxfId="32" priority="19">
+      <formula>$K2 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="22">
+      <formula>$G2="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="23">
+      <formula>$G2="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" dxfId="23" priority="4">
+      <formula>$K39 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="5">
+      <formula>$G39="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="6">
+      <formula>$G39="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" dxfId="20" priority="1">
+      <formula>$K38 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="2">
+      <formula>$G38="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="3">
+      <formula>$G38="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G39">
+      <formula1>"OK, NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3871,13 +4964,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -3897,9 +4990,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -3917,9 +5010,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -3937,9 +5030,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -3957,8 +5050,8 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
@@ -3977,9 +5070,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -3999,9 +5092,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -4019,7 +5112,7 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="10" t="s">
@@ -4039,11 +5132,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -4061,9 +5154,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -4081,9 +5174,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -4101,8 +5194,8 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
@@ -4117,99 +5210,101 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
-        <v>17</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
-        <v>18</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
-        <v>19</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
-        <v>20</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
-        <v>21</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>32</v>
+      </c>
       <c r="E18" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>33</v>
@@ -4223,13 +5318,13 @@
     </row>
     <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
-        <v>22</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="38"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>33</v>
@@ -4243,15 +5338,13 @@
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
-        <v>23</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="37" t="s">
-        <v>34</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>33</v>
@@ -4265,13 +5358,13 @@
     </row>
     <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
-        <v>24</v>
-      </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>33</v>
@@ -4285,13 +5378,13 @@
     </row>
     <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
-        <v>25</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>33</v>
@@ -4305,13 +5398,13 @@
     </row>
     <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
-        <v>26</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>33</v>
@@ -4325,13 +5418,15 @@
     </row>
     <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
-        <v>27</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="E24" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>33</v>
@@ -4345,13 +5440,13 @@
     </row>
     <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
-        <v>28</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>33</v>
@@ -4365,102 +5460,102 @@
     </row>
     <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
-        <v>29</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
-        <v>30</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
-        <v>31</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
-        <v>32</v>
-      </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
-        <v>33</v>
-      </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="38"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>5</v>
+      </c>
       <c r="E30" s="10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -4471,15 +5566,13 @@
     </row>
     <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
-        <v>34</v>
-      </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="37" t="s">
-        <v>6</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>16</v>
@@ -4493,16 +5586,16 @@
     </row>
     <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
-        <v>35</v>
-      </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -4511,18 +5604,18 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
-        <v>36</v>
-      </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -4531,20 +5624,18 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
-        <v>37</v>
-      </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -4553,18 +5644,20 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
-        <v>38</v>
-      </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="36" t="s">
+        <v>6</v>
+      </c>
       <c r="E35" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -4573,18 +5666,18 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
-        <v>39</v>
-      </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -4593,18 +5686,18 @@
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
-        <v>40</v>
-      </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -4613,181 +5706,183 @@
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
     </row>
-    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="36"/>
+      <c r="E38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
-        <v>45</v>
-      </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="7">
-        <v>46</v>
-      </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="7">
-        <v>47</v>
-      </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="7">
-        <v>48</v>
-      </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
     </row>
     <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
-        <v>49</v>
-      </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="37"/>
+      <c r="C46" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>32</v>
+      </c>
       <c r="E46" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>33</v>
@@ -4801,13 +5896,15 @@
     </row>
     <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
-        <v>50</v>
-      </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+        <v>51</v>
+      </c>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="E47" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>33</v>
@@ -4821,13 +5918,13 @@
     </row>
     <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
-        <v>51</v>
-      </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
+        <v>52</v>
+      </c>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>33</v>
@@ -4841,13 +5938,13 @@
     </row>
     <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
-        <v>52</v>
-      </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
+        <v>53</v>
+      </c>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
       <c r="E49" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>33</v>
@@ -4859,1121 +5956,15 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B26:B49"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C49"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="C34:C37"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="22" priority="5">
-      <formula>$G26="NG"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6">
-      <formula>$G26="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="20" priority="4">
-      <formula>$K2 &lt;&gt; ""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="7">
-      <formula>$G2="NG"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="8">
-      <formula>$G2="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G49">
-      <formula1>"OK, NG"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L57"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-    </row>
-    <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
     <row r="50" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
-        <v>49</v>
-      </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
+        <v>54</v>
+      </c>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
       <c r="E50" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>33</v>
@@ -5987,13 +5978,13 @@
     </row>
     <row r="51" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
-        <v>50</v>
-      </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="38"/>
+        <v>55</v>
+      </c>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
       <c r="E51" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>33</v>
@@ -6007,15 +5998,13 @@
     </row>
     <row r="52" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
-        <v>51</v>
-      </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="37" t="s">
-        <v>34</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
       <c r="E52" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>33</v>
@@ -6027,108 +6016,17 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="7">
-        <v>53</v>
-      </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="7">
-        <v>55</v>
-      </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
+    <mergeCell ref="B30:B52"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="D42:D45"/>
     <mergeCell ref="B2:B29"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -6139,18 +6037,8 @@
     <mergeCell ref="D24:D29"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="C10:C17"/>
-    <mergeCell ref="B30:B57"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C46:C57"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="D42:D45"/>
   </mergeCells>
-  <conditionalFormatting sqref="C30:D30 C38:D38 D52:D55 C46:D49 D35">
+  <conditionalFormatting sqref="C30:D30 C38:D38 D47:D50 D35 C46:D46">
     <cfRule type="expression" dxfId="17" priority="5">
       <formula>$G30="NG"</formula>
     </cfRule>
@@ -6158,7 +6046,7 @@
       <formula>$G30="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:L41 E46:L57 G42:L45">
+  <conditionalFormatting sqref="E2:L41 G42:L45 E46:L52">
     <cfRule type="expression" dxfId="15" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
@@ -6181,7 +6069,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G52">
       <formula1>"OK, NG"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6256,13 +6144,13 @@
       <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="29" t="s">
@@ -6282,9 +6170,9 @@
       <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="29" t="s">
         <v>11</v>
       </c>
@@ -6302,9 +6190,9 @@
       <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="29" t="s">
         <v>13</v>
       </c>
@@ -6322,9 +6210,9 @@
       <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="29" t="s">
         <v>14</v>
       </c>
@@ -6342,8 +6230,8 @@
       <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="29" t="s">
         <v>17</v>
@@ -6362,9 +6250,9 @@
       <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="29" t="s">
@@ -6384,9 +6272,9 @@
       <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="29" t="s">
         <v>20</v>
       </c>
@@ -6404,7 +6292,7 @@
       <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="29" t="s">
@@ -6424,11 +6312,11 @@
       <c r="A10" s="28">
         <v>9</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="32" t="s">
         <v>24</v>
       </c>
@@ -6446,9 +6334,9 @@
       <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="32" t="s">
         <v>26</v>
       </c>
@@ -6466,9 +6354,9 @@
       <c r="A12" s="28">
         <v>11</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="32" t="s">
         <v>28</v>
       </c>
@@ -6486,8 +6374,8 @@
       <c r="A13" s="28">
         <v>12</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="32" t="s">
         <v>30</v>
@@ -6506,11 +6394,11 @@
       <c r="A14" s="28">
         <v>17</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -6530,9 +6418,9 @@
       <c r="A15" s="28">
         <v>18</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="25" t="s">
         <v>87</v>
       </c>
@@ -6550,9 +6438,9 @@
       <c r="A16" s="28">
         <v>19</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="25" t="s">
         <v>88</v>
       </c>
@@ -6570,9 +6458,9 @@
       <c r="A17" s="28">
         <v>20</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="25" t="s">
         <v>89</v>
       </c>
@@ -6590,9 +6478,9 @@
       <c r="A18" s="28">
         <v>21</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="25" t="s">
         <v>90</v>
       </c>
@@ -6610,8 +6498,8 @@
       <c r="A19" s="28">
         <v>22</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="38"/>
       <c r="E19" s="25" t="s">
         <v>91</v>
@@ -6630,9 +6518,9 @@
       <c r="A20" s="28">
         <v>23</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="37" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="25" t="s">
@@ -6652,9 +6540,9 @@
       <c r="A21" s="28">
         <v>24</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="25" t="s">
         <v>87</v>
       </c>
@@ -6672,9 +6560,9 @@
       <c r="A22" s="28">
         <v>25</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="25" t="s">
         <v>88</v>
       </c>
@@ -6692,9 +6580,9 @@
       <c r="A23" s="28">
         <v>26</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="25" t="s">
         <v>89</v>
       </c>
@@ -6712,9 +6600,9 @@
       <c r="A24" s="28">
         <v>27</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="25" t="s">
         <v>90</v>
       </c>
@@ -6752,13 +6640,13 @@
       <c r="A26" s="28">
         <v>29</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="29" t="s">
@@ -6778,9 +6666,9 @@
       <c r="A27" s="28">
         <v>30</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="29" t="s">
         <v>11</v>
       </c>
@@ -6798,9 +6686,9 @@
       <c r="A28" s="28">
         <v>31</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="29" t="s">
         <v>13</v>
       </c>
@@ -6818,9 +6706,9 @@
       <c r="A29" s="28">
         <v>32</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="29" t="s">
         <v>14</v>
       </c>
@@ -6838,8 +6726,8 @@
       <c r="A30" s="28">
         <v>33</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="38"/>
       <c r="E30" s="29" t="s">
         <v>17</v>
@@ -6858,9 +6746,9 @@
       <c r="A31" s="28">
         <v>34</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="37" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="29" t="s">
@@ -6880,9 +6768,9 @@
       <c r="A32" s="28">
         <v>35</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="29" t="s">
         <v>20</v>
       </c>
@@ -6900,7 +6788,7 @@
       <c r="A33" s="28">
         <v>36</v>
       </c>
-      <c r="B33" s="39"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="29" t="s">
@@ -6920,11 +6808,11 @@
       <c r="A34" s="28">
         <v>37</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="37" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="37"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="29" t="s">
         <v>24</v>
       </c>
@@ -6942,9 +6830,9 @@
       <c r="A35" s="28">
         <v>38</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="29" t="s">
         <v>26</v>
       </c>
@@ -6962,9 +6850,9 @@
       <c r="A36" s="28">
         <v>39</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="29" t="s">
         <v>28</v>
       </c>
@@ -6982,8 +6870,8 @@
       <c r="A37" s="28">
         <v>40</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="38"/>
       <c r="E37" s="29" t="s">
         <v>30</v>
@@ -7002,11 +6890,11 @@
       <c r="A38" s="28">
         <v>41</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="37" t="s">
+      <c r="B38" s="37"/>
+      <c r="C38" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="25" t="s">
@@ -7026,9 +6914,9 @@
       <c r="A39" s="28">
         <v>42</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
       <c r="G39" s="24"/>
@@ -7042,9 +6930,9 @@
       <c r="A40" s="28">
         <v>43</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
       <c r="G40" s="24"/>
@@ -7058,9 +6946,9 @@
       <c r="A41" s="28">
         <v>44</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
       <c r="G41" s="24"/>
@@ -7074,9 +6962,9 @@
       <c r="A42" s="28">
         <v>45</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
       <c r="G42" s="24"/>
@@ -7090,8 +6978,8 @@
       <c r="A43" s="28">
         <v>46</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="38"/>
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
@@ -7106,9 +6994,9 @@
       <c r="A44" s="28">
         <v>47</v>
       </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="37" t="s">
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="36" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="25" t="s">
@@ -7128,9 +7016,9 @@
       <c r="A45" s="28">
         <v>48</v>
       </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="25" t="s">
         <v>87</v>
       </c>
@@ -7148,9 +7036,9 @@
       <c r="A46" s="28">
         <v>49</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
       <c r="E46" s="25" t="s">
         <v>88</v>
       </c>
@@ -7168,9 +7056,9 @@
       <c r="A47" s="28">
         <v>50</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="25" t="s">
         <v>89</v>
       </c>
@@ -7188,9 +7076,9 @@
       <c r="A48" s="28">
         <v>51</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="25" t="s">
         <v>90</v>
       </c>
@@ -7226,6 +7114,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
     <mergeCell ref="C38:C49"/>
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
@@ -7242,8 +7132,6 @@
     <mergeCell ref="B26:B49"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
     <cfRule type="expression" dxfId="9" priority="5">
@@ -7278,8 +7166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7340,13 +7228,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -7366,9 +7254,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -7386,9 +7274,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -7406,9 +7294,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -7426,8 +7314,8 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
@@ -7446,9 +7334,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -7468,9 +7356,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -7488,7 +7376,7 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="10" t="s">
@@ -7508,11 +7396,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -7530,9 +7418,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -7550,9 +7438,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -7570,8 +7458,8 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
@@ -7590,11 +7478,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -7614,9 +7502,9 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -7634,9 +7522,9 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -7654,9 +7542,9 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -7674,9 +7562,9 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -7694,8 +7582,8 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="38"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
@@ -7714,9 +7602,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="37" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -7736,9 +7624,9 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -7756,9 +7644,9 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -7776,9 +7664,9 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -7796,9 +7684,9 @@
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -7836,13 +7724,13 @@
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -7862,9 +7750,9 @@
       <c r="A27" s="7">
         <v>30</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
@@ -7882,9 +7770,9 @@
       <c r="A28" s="7">
         <v>31</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
@@ -7902,9 +7790,9 @@
       <c r="A29" s="7">
         <v>32</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
@@ -7922,8 +7810,8 @@
       <c r="A30" s="7">
         <v>33</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="38"/>
       <c r="E30" s="10" t="s">
         <v>17</v>
@@ -7942,9 +7830,9 @@
       <c r="A31" s="7">
         <v>34</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="37" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -7964,9 +7852,9 @@
       <c r="A32" s="7">
         <v>35</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
@@ -7984,7 +7872,7 @@
       <c r="A33" s="7">
         <v>36</v>
       </c>
-      <c r="B33" s="39"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="10" t="s">
@@ -8004,11 +7892,11 @@
       <c r="A34" s="7">
         <v>37</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="37" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="37"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
@@ -8026,9 +7914,9 @@
       <c r="A35" s="7">
         <v>38</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="10" t="s">
         <v>26</v>
       </c>
@@ -8046,9 +7934,9 @@
       <c r="A36" s="7">
         <v>39</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="10" t="s">
         <v>28</v>
       </c>
@@ -8066,8 +7954,8 @@
       <c r="A37" s="7">
         <v>40</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="38"/>
       <c r="E37" s="10" t="s">
         <v>30</v>
@@ -8086,11 +7974,11 @@
       <c r="A38" s="7">
         <v>41</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="37" t="s">
+      <c r="B38" s="37"/>
+      <c r="C38" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -8110,9 +7998,9 @@
       <c r="A39" s="7">
         <v>42</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="4" t="s">
         <v>45</v>
       </c>
@@ -8130,9 +8018,9 @@
       <c r="A40" s="7">
         <v>43</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="4" t="s">
         <v>42</v>
       </c>
@@ -8150,9 +8038,9 @@
       <c r="A41" s="7">
         <v>44</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="4" t="s">
         <v>43</v>
       </c>
@@ -8170,9 +8058,9 @@
       <c r="A42" s="7">
         <v>45</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="4" t="s">
         <v>46</v>
       </c>
@@ -8190,8 +8078,8 @@
       <c r="A43" s="7">
         <v>46</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="38"/>
       <c r="E43" s="4" t="s">
         <v>44</v>
@@ -8210,9 +8098,9 @@
       <c r="A44" s="7">
         <v>47</v>
       </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="37" t="s">
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="36" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -8232,9 +8120,9 @@
       <c r="A45" s="7">
         <v>48</v>
       </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="4" t="s">
         <v>45</v>
       </c>
@@ -8252,9 +8140,9 @@
       <c r="A46" s="7">
         <v>49</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
       <c r="E46" s="4" t="s">
         <v>42</v>
       </c>
@@ -8272,9 +8160,9 @@
       <c r="A47" s="7">
         <v>50</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="4" t="s">
         <v>43</v>
       </c>
@@ -8292,9 +8180,9 @@
       <c r="A48" s="7">
         <v>51</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
@@ -8330,6 +8218,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B26:B49"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C49"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -8339,15 +8236,6 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B26:B49"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C49"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="C34:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
     <cfRule type="expression" dxfId="4" priority="5">

--- a/test/IntegrationTest_Index.xlsx
+++ b/test/IntegrationTest_Index.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakit\Desktop\web\Panda\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haruna Doranecoco\comp2910\Panda\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Representative" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="99">
   <si>
     <t>design</t>
   </si>
@@ -324,7 +324,25 @@
     <t>1. change page size to small of PC verticality</t>
   </si>
   <si>
-    <t>1. change page size to mobile screen size, and it will automatically change to mobile design</t>
+    <t>1. press submit button without filling out name field</t>
+  </si>
+  <si>
+    <t>1. press submit button without filling out e-mail field</t>
+  </si>
+  <si>
+    <t>1. press submit button without filling out comment field</t>
+  </si>
+  <si>
+    <t>1. press submit button after filling out all fields.</t>
+  </si>
+  <si>
+    <t>Inputed values  have  been sent to serever.</t>
+  </si>
+  <si>
+    <t>Contact form</t>
+  </si>
+  <si>
+    <t>Input fields</t>
   </si>
 </sst>
 </file>
@@ -567,23 +585,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -592,7 +610,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="66">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -779,62 +818,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE8972"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE8972"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE8972"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1413,6 +1396,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1522,7 +1507,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
@@ -1586,13 +1571,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1618,9 +1603,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1644,9 +1629,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1670,9 +1655,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1696,9 +1681,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1722,9 +1707,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="36" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1750,9 +1735,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1776,9 +1761,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1802,11 +1787,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1830,9 +1815,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1856,9 +1841,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1882,9 +1867,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1908,11 +1893,11 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1938,9 +1923,9 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1964,9 +1949,9 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -1992,9 +1977,9 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -2018,9 +2003,9 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -2046,9 +2031,9 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -2074,9 +2059,9 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -2098,9 +2083,9 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -2120,9 +2105,9 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -2148,9 +2133,9 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -2174,9 +2159,9 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -2202,9 +2187,9 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -2230,13 +2215,13 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -2262,9 +2247,9 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="4" t="s">
         <v>11</v>
       </c>
@@ -2288,9 +2273,9 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
@@ -2314,9 +2299,9 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="4" t="s">
         <v>14</v>
       </c>
@@ -2340,9 +2325,9 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2366,9 +2351,9 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -2394,9 +2379,9 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="4" t="s">
         <v>20</v>
       </c>
@@ -2420,9 +2405,9 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="4" t="s">
         <v>21</v>
       </c>
@@ -2446,11 +2431,11 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="4" t="s">
         <v>24</v>
       </c>
@@ -2474,9 +2459,9 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="4" t="s">
         <v>26</v>
       </c>
@@ -2500,9 +2485,9 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="4" t="s">
         <v>28</v>
       </c>
@@ -2526,9 +2511,9 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="4" t="s">
         <v>30</v>
       </c>
@@ -2552,17 +2537,17 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39" t="s">
+      <c r="B38" s="38"/>
+      <c r="C38" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="40" t="s">
+      <c r="F38" s="36" t="s">
         <v>33</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -2586,11 +2571,11 @@
     </row>
     <row r="39" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
       <c r="G39" s="2" t="s">
         <v>72</v>
       </c>
@@ -2610,8 +2595,8 @@
       <c r="A40" s="7">
         <v>38</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="18" t="s">
         <v>34</v>
       </c>
@@ -2642,12 +2627,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C14:C25"/>
     <mergeCell ref="C10:C13"/>
@@ -2656,20 +2640,21 @@
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:L38 E40:L40 G39:L39">
-    <cfRule type="expression" dxfId="70" priority="4">
+    <cfRule type="expression" dxfId="65" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="8">
+    <cfRule type="expression" dxfId="64" priority="8">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="9">
+    <cfRule type="expression" dxfId="63" priority="9">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2688,7 +2673,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
@@ -2752,13 +2737,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -2778,9 +2763,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -2798,9 +2783,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -2818,9 +2803,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -2838,9 +2823,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -2856,9 +2841,9 @@
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="36" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2876,9 +2861,9 @@
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -2894,9 +2879,9 @@
     </row>
     <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -2914,11 +2899,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -2936,9 +2921,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2956,9 +2941,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -2976,9 +2961,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -2996,11 +2981,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -3028,9 +3013,9 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -3054,9 +3039,9 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -3080,9 +3065,9 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3106,9 +3091,9 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -3134,9 +3119,9 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -3162,9 +3147,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3192,9 +3177,9 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -3218,9 +3203,9 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -3244,9 +3229,9 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="21" t="s">
         <v>43</v>
       </c>
@@ -3264,9 +3249,9 @@
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -3292,9 +3277,9 @@
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -3320,13 +3305,13 @@
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -3346,9 +3331,9 @@
       <c r="A27" s="7">
         <v>30</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
@@ -3366,9 +3351,9 @@
       <c r="A28" s="7">
         <v>31</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
@@ -3386,9 +3371,9 @@
       <c r="A29" s="7">
         <v>32</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
@@ -3406,9 +3391,9 @@
       <c r="A30" s="7">
         <v>33</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
@@ -3426,9 +3411,9 @@
       <c r="A31" s="7">
         <v>34</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -3448,9 +3433,9 @@
       <c r="A32" s="7">
         <v>35</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
@@ -3468,9 +3453,9 @@
       <c r="A33" s="7">
         <v>36</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
@@ -3488,9 +3473,9 @@
       <c r="A34" s="7">
         <v>34</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38" t="s">
         <v>79</v>
       </c>
       <c r="E34" s="19" t="s">
@@ -3516,9 +3501,9 @@
       <c r="A35" s="7">
         <v>35</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="19" t="s">
         <v>82</v>
       </c>
@@ -3542,11 +3527,11 @@
       <c r="A36" s="7">
         <v>37</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39" t="s">
+      <c r="B36" s="38"/>
+      <c r="C36" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="13" t="s">
         <v>24</v>
       </c>
@@ -3564,9 +3549,9 @@
       <c r="A37" s="7">
         <v>38</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="13" t="s">
         <v>26</v>
       </c>
@@ -3584,9 +3569,9 @@
       <c r="A38" s="7">
         <v>39</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="13" t="s">
         <v>28</v>
       </c>
@@ -3604,9 +3589,9 @@
       <c r="A39" s="7">
         <v>40</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="13" t="s">
         <v>30</v>
       </c>
@@ -3624,11 +3609,11 @@
       <c r="A40" s="7">
         <v>41</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39" t="s">
+      <c r="B40" s="38"/>
+      <c r="C40" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="38" t="s">
         <v>32</v>
       </c>
       <c r="E40" s="42" t="s">
@@ -3660,9 +3645,9 @@
       <c r="A41" s="7">
         <v>42</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
       <c r="G41" s="2" t="s">
@@ -3684,9 +3669,9 @@
       <c r="A42" s="7">
         <v>43</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39" t="s">
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="42" t="s">
@@ -3718,9 +3703,9 @@
       <c r="A43" s="7">
         <v>44</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="42"/>
       <c r="F43" s="42"/>
       <c r="G43" s="2" t="s">
@@ -3740,6 +3725,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B26:B43"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C40:C43"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -3748,140 +3748,125 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B26:B43"/>
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:L6 G7:L9 F40:G40 I40:L40 E34:L39 E10:L30 K41:L43">
-    <cfRule type="expression" dxfId="67" priority="48">
+    <cfRule type="expression" dxfId="62" priority="48">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="51">
+    <cfRule type="expression" dxfId="61" priority="51">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="52">
+    <cfRule type="expression" dxfId="60" priority="52">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="expression" dxfId="64" priority="37">
+    <cfRule type="expression" dxfId="59" priority="37">
       <formula>$K40 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="38">
+    <cfRule type="expression" dxfId="58" priority="38">
       <formula>$G40="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="39">
+    <cfRule type="expression" dxfId="57" priority="39">
       <formula>$G40="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:F9">
-    <cfRule type="expression" dxfId="61" priority="31">
+    <cfRule type="expression" dxfId="56" priority="31">
       <formula>$K7 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="32">
+    <cfRule type="expression" dxfId="55" priority="32">
       <formula>$G7="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="33">
+    <cfRule type="expression" dxfId="54" priority="33">
       <formula>$G7="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:L33">
-    <cfRule type="expression" dxfId="58" priority="28">
+    <cfRule type="expression" dxfId="53" priority="28">
       <formula>$K31 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="29">
+    <cfRule type="expression" dxfId="52" priority="29">
       <formula>$G31="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="30">
+    <cfRule type="expression" dxfId="51" priority="30">
       <formula>$G31="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="expression" dxfId="55" priority="25">
+    <cfRule type="expression" dxfId="50" priority="25">
       <formula>$K40 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="26">
+    <cfRule type="expression" dxfId="49" priority="26">
       <formula>$G40="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="27">
+    <cfRule type="expression" dxfId="48" priority="27">
       <formula>$G40="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:J41">
-    <cfRule type="expression" dxfId="52" priority="16">
+    <cfRule type="expression" dxfId="47" priority="16">
       <formula>$K41 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="17">
+    <cfRule type="expression" dxfId="46" priority="17">
       <formula>$G41="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="18">
+    <cfRule type="expression" dxfId="45" priority="18">
       <formula>$G41="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42 I42:J42">
-    <cfRule type="expression" dxfId="49" priority="13">
+    <cfRule type="expression" dxfId="44" priority="13">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="14">
+    <cfRule type="expression" dxfId="43" priority="14">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="15">
+    <cfRule type="expression" dxfId="42" priority="15">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="46" priority="10">
+    <cfRule type="expression" dxfId="41" priority="10">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="11">
+    <cfRule type="expression" dxfId="40" priority="11">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="12">
+    <cfRule type="expression" dxfId="39" priority="12">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:J43">
-    <cfRule type="expression" dxfId="43" priority="7">
+    <cfRule type="expression" dxfId="38" priority="7">
       <formula>$K43 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="8">
+    <cfRule type="expression" dxfId="37" priority="8">
       <formula>$G43="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="9">
+    <cfRule type="expression" dxfId="36" priority="9">
       <formula>$G43="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="35" priority="4">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="5">
+    <cfRule type="expression" dxfId="34" priority="5">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="6">
+    <cfRule type="expression" dxfId="33" priority="6">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3899,8 +3884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G39" sqref="G39:J39"/>
@@ -3964,13 +3949,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -3990,9 +3975,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -4010,9 +3995,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -4030,9 +4015,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -4050,9 +4035,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -4070,9 +4055,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="36" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -4092,9 +4077,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -4112,9 +4097,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -4132,11 +4117,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -4154,9 +4139,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -4174,9 +4159,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -4194,9 +4179,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -4214,11 +4199,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -4244,9 +4229,9 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -4270,9 +4255,9 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -4296,9 +4281,9 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -4322,9 +4307,9 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -4348,9 +4333,9 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -4374,9 +4359,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -4402,9 +4387,9 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -4428,9 +4413,9 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -4454,9 +4439,9 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -4480,9 +4465,9 @@
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -4506,9 +4491,9 @@
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -4532,13 +4517,13 @@
       <c r="A26" s="28">
         <v>29</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="29" t="s">
@@ -4558,9 +4543,9 @@
       <c r="A27" s="28">
         <v>30</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="29" t="s">
         <v>11</v>
       </c>
@@ -4578,9 +4563,9 @@
       <c r="A28" s="28">
         <v>31</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="29" t="s">
         <v>13</v>
       </c>
@@ -4598,9 +4583,9 @@
       <c r="A29" s="28">
         <v>32</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="29" t="s">
         <v>14</v>
       </c>
@@ -4618,9 +4603,9 @@
       <c r="A30" s="28">
         <v>33</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="29" t="s">
         <v>17</v>
       </c>
@@ -4638,9 +4623,9 @@
       <c r="A31" s="28">
         <v>34</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="36" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="29" t="s">
@@ -4660,9 +4645,9 @@
       <c r="A32" s="28">
         <v>35</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="29" t="s">
         <v>20</v>
       </c>
@@ -4680,9 +4665,9 @@
       <c r="A33" s="28">
         <v>36</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="29" t="s">
         <v>21</v>
       </c>
@@ -4700,11 +4685,11 @@
       <c r="A34" s="28">
         <v>37</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="36" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="36"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="32" t="s">
         <v>24</v>
       </c>
@@ -4722,9 +4707,9 @@
       <c r="A35" s="28">
         <v>38</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="32" t="s">
         <v>26</v>
       </c>
@@ -4742,9 +4727,9 @@
       <c r="A36" s="28">
         <v>39</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="32" t="s">
         <v>28</v>
       </c>
@@ -4762,9 +4747,9 @@
       <c r="A37" s="28">
         <v>40</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="32" t="s">
         <v>30</v>
       </c>
@@ -4782,8 +4767,8 @@
       <c r="A38" s="28">
         <v>41</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="36" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="39" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="35" t="s">
@@ -4812,8 +4797,8 @@
       <c r="A39" s="28">
         <v>42</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="34" t="s">
         <v>34</v>
       </c>
@@ -4838,13 +4823,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C39"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -4854,37 +4832,44 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:L37 F38:L39">
-    <cfRule type="expression" dxfId="32" priority="19">
+    <cfRule type="expression" dxfId="29" priority="19">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="22">
+    <cfRule type="expression" dxfId="28" priority="22">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="23">
+    <cfRule type="expression" dxfId="27" priority="23">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>$K39 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>$G39="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>$G39="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>$K38 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>$G38="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>$G38="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4902,7 +4887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -4964,13 +4949,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -4990,9 +4975,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -5010,9 +4995,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -5030,9 +5015,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -5050,9 +5035,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -5070,9 +5055,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="36" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -5092,9 +5077,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -5112,9 +5097,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -5132,11 +5117,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -5154,9 +5139,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -5174,9 +5159,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -5194,9 +5179,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -5214,9 +5199,9 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="36" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="39" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -5236,9 +5221,9 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="15" t="s">
         <v>67</v>
       </c>
@@ -5256,9 +5241,9 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="15" t="s">
         <v>68</v>
       </c>
@@ -5276,9 +5261,9 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="15" t="s">
         <v>69</v>
       </c>
@@ -5296,11 +5281,11 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="36" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -5320,9 +5305,9 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
@@ -5340,9 +5325,9 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
@@ -5360,9 +5345,9 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="4" t="s">
         <v>43</v>
       </c>
@@ -5380,9 +5365,9 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="4" t="s">
         <v>46</v>
       </c>
@@ -5400,9 +5385,9 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="4" t="s">
         <v>44</v>
       </c>
@@ -5420,9 +5405,9 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="36" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -5442,9 +5427,9 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="4" t="s">
         <v>45</v>
       </c>
@@ -5462,9 +5447,9 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="4" t="s">
         <v>42</v>
       </c>
@@ -5482,9 +5467,9 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="4" t="s">
         <v>43</v>
       </c>
@@ -5502,9 +5487,9 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="4" t="s">
         <v>46</v>
       </c>
@@ -5522,9 +5507,9 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="4" t="s">
         <v>44</v>
       </c>
@@ -5542,13 +5527,13 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -5568,9 +5553,9 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="10" t="s">
         <v>11</v>
       </c>
@@ -5588,9 +5573,9 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="10" t="s">
         <v>13</v>
       </c>
@@ -5608,9 +5593,9 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
@@ -5628,9 +5613,9 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="10" t="s">
         <v>17</v>
       </c>
@@ -5648,9 +5633,9 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="36" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -5670,9 +5655,9 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="10" t="s">
         <v>20</v>
       </c>
@@ -5690,9 +5675,9 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="10" t="s">
         <v>21</v>
       </c>
@@ -5710,11 +5695,11 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="36" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="36"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="10" t="s">
         <v>24</v>
       </c>
@@ -5732,9 +5717,9 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="10" t="s">
         <v>26</v>
       </c>
@@ -5752,9 +5737,9 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
       <c r="E40" s="10" t="s">
         <v>28</v>
       </c>
@@ -5772,9 +5757,9 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="40"/>
       <c r="E41" s="10" t="s">
         <v>30</v>
       </c>
@@ -5792,9 +5777,9 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="36" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="39" t="s">
         <v>62</v>
       </c>
       <c r="E42" s="13" t="s">
@@ -5814,9 +5799,9 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
       <c r="E43" s="13" t="s">
         <v>67</v>
       </c>
@@ -5834,9 +5819,9 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
       <c r="E44" s="13" t="s">
         <v>68</v>
       </c>
@@ -5854,9 +5839,9 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
       <c r="E45" s="13" t="s">
         <v>69</v>
       </c>
@@ -5874,8 +5859,8 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="36" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="39" t="s">
         <v>0</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -5898,9 +5883,9 @@
       <c r="A47" s="7">
         <v>51</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="36" t="s">
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -5920,9 +5905,9 @@
       <c r="A48" s="7">
         <v>52</v>
       </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="4" t="s">
         <v>45</v>
       </c>
@@ -5940,9 +5925,9 @@
       <c r="A49" s="7">
         <v>53</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="4" t="s">
         <v>42</v>
       </c>
@@ -5960,9 +5945,9 @@
       <c r="A50" s="7">
         <v>54</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
       <c r="E50" s="4" t="s">
         <v>43</v>
       </c>
@@ -5980,9 +5965,9 @@
       <c r="A51" s="7">
         <v>55</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
       <c r="E51" s="4" t="s">
         <v>46</v>
       </c>
@@ -6000,9 +5985,9 @@
       <c r="A52" s="7">
         <v>56</v>
       </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
       <c r="E52" s="4" t="s">
         <v>44</v>
       </c>
@@ -6018,15 +6003,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B30:B52"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="D42:D45"/>
     <mergeCell ref="B2:B29"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -6037,34 +6013,43 @@
     <mergeCell ref="D24:D29"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="C10:C17"/>
+    <mergeCell ref="B30:B52"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="D42:D45"/>
   </mergeCells>
   <conditionalFormatting sqref="C30:D30 C38:D38 D47:D50 D35 C46:D46">
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>$G30="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>$G30="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L41 G42:L45 E46:L52">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F45">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6080,10 +6065,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A1:L49"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6144,13 +6129,13 @@
       <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="29" t="s">
@@ -6170,9 +6155,9 @@
       <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="29" t="s">
         <v>11</v>
       </c>
@@ -6190,9 +6175,9 @@
       <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="29" t="s">
         <v>13</v>
       </c>
@@ -6210,9 +6195,9 @@
       <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="29" t="s">
         <v>14</v>
       </c>
@@ -6230,9 +6215,9 @@
       <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="29" t="s">
         <v>17</v>
       </c>
@@ -6250,9 +6235,9 @@
       <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="36" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="29" t="s">
@@ -6272,9 +6257,9 @@
       <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="29" t="s">
         <v>20</v>
       </c>
@@ -6292,9 +6277,9 @@
       <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="29" t="s">
         <v>21</v>
       </c>
@@ -6312,11 +6297,11 @@
       <c r="A10" s="28">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="32" t="s">
         <v>24</v>
       </c>
@@ -6334,9 +6319,9 @@
       <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="32" t="s">
         <v>26</v>
       </c>
@@ -6354,9 +6339,9 @@
       <c r="A12" s="28">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="32" t="s">
         <v>28</v>
       </c>
@@ -6374,9 +6359,9 @@
       <c r="A13" s="28">
         <v>12</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="32" t="s">
         <v>30</v>
       </c>
@@ -6392,13 +6377,13 @@
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
-        <v>17</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -6416,11 +6401,11 @@
     </row>
     <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="28">
-        <v>18</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+        <v>16</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="25" t="s">
         <v>87</v>
       </c>
@@ -6436,11 +6421,11 @@
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="28">
-        <v>19</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+        <v>17</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="25" t="s">
         <v>88</v>
       </c>
@@ -6456,11 +6441,11 @@
     </row>
     <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="28">
-        <v>20</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+        <v>18</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="25" t="s">
         <v>89</v>
       </c>
@@ -6476,11 +6461,11 @@
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="28">
-        <v>21</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+        <v>19</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="25" t="s">
         <v>90</v>
       </c>
@@ -6496,11 +6481,11 @@
     </row>
     <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
-        <v>22</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+        <v>20</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="25" t="s">
         <v>91</v>
       </c>
@@ -6516,11 +6501,11 @@
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="28">
-        <v>23</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="25" t="s">
@@ -6538,11 +6523,11 @@
     </row>
     <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="28">
-        <v>24</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+        <v>22</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="25" t="s">
         <v>87</v>
       </c>
@@ -6558,11 +6543,11 @@
     </row>
     <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="28">
-        <v>25</v>
-      </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+        <v>23</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="25" t="s">
         <v>88</v>
       </c>
@@ -6578,11 +6563,11 @@
     </row>
     <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="28">
-        <v>26</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+        <v>24</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="25" t="s">
         <v>89</v>
       </c>
@@ -6598,11 +6583,11 @@
     </row>
     <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="28">
-        <v>27</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+        <v>25</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="25" t="s">
         <v>90</v>
       </c>
@@ -6618,11 +6603,11 @@
     </row>
     <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="28">
-        <v>28</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+        <v>26</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="25" t="s">
         <v>91</v>
       </c>
@@ -6638,15 +6623,15 @@
     </row>
     <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="28">
-        <v>29</v>
-      </c>
-      <c r="B26" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="29" t="s">
@@ -6664,11 +6649,11 @@
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
-        <v>30</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+        <v>28</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="29" t="s">
         <v>11</v>
       </c>
@@ -6684,11 +6669,11 @@
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="28">
-        <v>31</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+        <v>29</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="29" t="s">
         <v>13</v>
       </c>
@@ -6704,11 +6689,11 @@
     </row>
     <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="28">
-        <v>32</v>
-      </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+        <v>30</v>
+      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="29" t="s">
         <v>14</v>
       </c>
@@ -6724,11 +6709,11 @@
     </row>
     <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="28">
-        <v>33</v>
-      </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
+        <v>31</v>
+      </c>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="29" t="s">
         <v>17</v>
       </c>
@@ -6744,11 +6729,11 @@
     </row>
     <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="28">
-        <v>34</v>
-      </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="29" t="s">
@@ -6766,11 +6751,11 @@
     </row>
     <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="28">
-        <v>35</v>
-      </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="29" t="s">
         <v>20</v>
       </c>
@@ -6786,11 +6771,11 @@
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="28">
-        <v>36</v>
-      </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+        <v>34</v>
+      </c>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="29" t="s">
         <v>21</v>
       </c>
@@ -6806,13 +6791,13 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="28">
-        <v>37</v>
-      </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="41"/>
+      <c r="C34" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="36"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="29" t="s">
         <v>24</v>
       </c>
@@ -6828,11 +6813,11 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="28">
-        <v>38</v>
-      </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+        <v>36</v>
+      </c>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="29" t="s">
         <v>26</v>
       </c>
@@ -6848,11 +6833,11 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="28">
-        <v>39</v>
-      </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
+        <v>37</v>
+      </c>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="29" t="s">
         <v>28</v>
       </c>
@@ -6868,11 +6853,11 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="28">
-        <v>40</v>
-      </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
+        <v>38</v>
+      </c>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="29" t="s">
         <v>30</v>
       </c>
@@ -6886,19 +6871,15 @@
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
     </row>
-    <row r="38" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="28">
-        <v>41</v>
-      </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>32</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
       <c r="E38" s="25" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F38" s="25" t="s">
         <v>33</v>
@@ -6910,15 +6891,19 @@
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="28">
-        <v>42</v>
-      </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>33</v>
+      </c>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -6926,15 +6911,19 @@
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="28">
-        <v>43</v>
-      </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>33</v>
+      </c>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -6942,15 +6931,19 @@
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="28">
-        <v>44</v>
-      </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
+        <v>42</v>
+      </c>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>33</v>
+      </c>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
@@ -6958,15 +6951,19 @@
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="28">
-        <v>45</v>
-      </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>33</v>
+      </c>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
@@ -6974,15 +6971,21 @@
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="28">
-        <v>46</v>
-      </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>33</v>
+      </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
@@ -6992,15 +6995,13 @@
     </row>
     <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="28">
-        <v>47</v>
-      </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="36" t="s">
-        <v>34</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
       <c r="E44" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>33</v>
@@ -7014,13 +7015,13 @@
     </row>
     <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="28">
-        <v>48</v>
-      </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
+        <v>46</v>
+      </c>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
       <c r="E45" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>33</v>
@@ -7034,13 +7035,13 @@
     </row>
     <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="28">
-        <v>49</v>
-      </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
+        <v>47</v>
+      </c>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
       <c r="E46" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F46" s="25" t="s">
         <v>33</v>
@@ -7054,13 +7055,13 @@
     </row>
     <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="28">
-        <v>50</v>
-      </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
+        <v>48</v>
+      </c>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
       <c r="E47" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>33</v>
@@ -7074,13 +7075,13 @@
     </row>
     <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="28">
-        <v>51</v>
-      </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
+        <v>49</v>
+      </c>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
       <c r="E48" s="25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>33</v>
@@ -7092,34 +7093,11 @@
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
     </row>
-    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="28">
-        <v>52</v>
-      </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C49"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B26:B48"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -7129,31 +7107,34 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B26:B49"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C48"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="C34:C37"/>
   </mergeCells>
-  <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="9" priority="5">
+  <conditionalFormatting sqref="C26:D26 C34:D34 D43:D46 D31 C38:D40">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>$G26="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>$G26="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="7" priority="4">
+  <conditionalFormatting sqref="E2:L48">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G48">
       <formula1>"OK, NG"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7164,10 +7145,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7228,13 +7209,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -7254,9 +7235,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -7274,9 +7255,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -7294,9 +7275,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -7314,9 +7295,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -7334,9 +7315,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="36" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -7356,9 +7337,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -7376,9 +7357,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -7396,11 +7377,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -7418,9 +7399,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -7438,9 +7419,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -7458,9 +7439,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -7475,98 +7456,102 @@
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
+      <c r="A14" s="28">
+        <v>13</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="28">
+        <v>14</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="28">
+        <v>15</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="28">
+        <v>16</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="28">
         <v>17</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="36" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D18" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
-        <v>18</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
-        <v>19</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
-        <v>20</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>21</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>33</v>
@@ -7579,14 +7564,14 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
-        <v>22</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="A19" s="28">
+        <v>18</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>33</v>
@@ -7599,16 +7584,14 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
-        <v>23</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="A20" s="28">
+        <v>19</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>33</v>
@@ -7621,14 +7604,14 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
-        <v>24</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="A21" s="28">
+        <v>20</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>33</v>
@@ -7641,14 +7624,14 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
-        <v>25</v>
-      </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="A22" s="28">
+        <v>21</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>33</v>
@@ -7661,14 +7644,14 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
-        <v>26</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="A23" s="28">
+        <v>22</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>33</v>
@@ -7681,14 +7664,16 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
-        <v>27</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="A24" s="28">
+        <v>23</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="39" t="s">
+        <v>34</v>
+      </c>
       <c r="E24" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>33</v>
@@ -7701,14 +7686,14 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
-        <v>28</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="A25" s="28">
+        <v>24</v>
+      </c>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>33</v>
@@ -7721,103 +7706,103 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
+      <c r="A26" s="28">
+        <v>25</v>
+      </c>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="28">
+        <v>26</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="28">
+        <v>28</v>
+      </c>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="28">
         <v>29</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B30" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C30" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D30" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
-        <v>30</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
-        <v>31</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
-        <v>32</v>
-      </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
-        <v>33</v>
-      </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -7827,16 +7812,14 @@
       <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="7">
-        <v>34</v>
-      </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="36" t="s">
-        <v>6</v>
-      </c>
+      <c r="A31" s="28">
+        <v>30</v>
+      </c>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>16</v>
@@ -7849,17 +7832,17 @@
       <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
-        <v>35</v>
-      </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
+      <c r="A32" s="28">
+        <v>31</v>
+      </c>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -7868,18 +7851,18 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
-        <v>36</v>
-      </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="28">
+        <v>32</v>
+      </c>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -7888,20 +7871,18 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
-        <v>37</v>
-      </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="36"/>
+    <row r="34" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="28">
+        <v>33</v>
+      </c>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -7910,18 +7891,20 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
-        <v>38</v>
-      </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+    <row r="35" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="28">
+        <v>34</v>
+      </c>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="39" t="s">
+        <v>6</v>
+      </c>
       <c r="E35" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -7930,18 +7913,18 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
-        <v>39</v>
-      </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
+    <row r="36" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="28">
+        <v>35</v>
+      </c>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -7950,18 +7933,18 @@
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
-        <v>40</v>
-      </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="28">
+        <v>36</v>
+      </c>
+      <c r="B37" s="41"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -7970,181 +7953,185 @@
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
     </row>
-    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="28">
+        <v>37</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="28">
+        <v>38</v>
+      </c>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="28">
+        <v>39</v>
+      </c>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="28">
+        <v>40</v>
+      </c>
+      <c r="B41" s="41"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="28">
         <v>41</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="36" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+    </row>
+    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="28">
+        <v>42</v>
+      </c>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+    </row>
+    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="28">
+        <v>43</v>
+      </c>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+    </row>
+    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="28">
+        <v>44</v>
+      </c>
+      <c r="B45" s="41"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+    </row>
+    <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="28">
+        <v>45</v>
+      </c>
+      <c r="B46" s="41"/>
+      <c r="C46" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D46" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
-        <v>42</v>
-      </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
-        <v>43</v>
-      </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
-        <v>44</v>
-      </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
-        <v>45</v>
-      </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="7">
-        <v>46</v>
-      </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="7">
-        <v>47</v>
-      </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="7">
-        <v>48</v>
-      </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="7">
-        <v>49</v>
-      </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>33</v>
@@ -8157,14 +8144,14 @@
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="7">
-        <v>50</v>
-      </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
+      <c r="A47" s="28">
+        <v>46</v>
+      </c>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
       <c r="E47" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>33</v>
@@ -8177,14 +8164,14 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="7">
-        <v>51</v>
-      </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
+      <c r="A48" s="28">
+        <v>47</v>
+      </c>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>33</v>
@@ -8197,14 +8184,14 @@
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="7">
-        <v>52</v>
-      </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
+      <c r="A49" s="28">
+        <v>48</v>
+      </c>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>33</v>
@@ -8216,48 +8203,225 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
+    <row r="50" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="28">
+        <v>49</v>
+      </c>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="28">
+        <v>50</v>
+      </c>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="28">
+        <v>51</v>
+      </c>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="28">
+        <v>52</v>
+      </c>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="28">
+        <v>53</v>
+      </c>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="28">
+        <v>54</v>
+      </c>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="28">
+        <v>55</v>
+      </c>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="28">
+        <v>56</v>
+      </c>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B26:B49"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C49"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B2:B25"/>
+  <mergeCells count="22">
+    <mergeCell ref="B2:B29"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C18:C29"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="D24:D29"/>
     <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B30:B57"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C46:C57"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C42:C45"/>
   </mergeCells>
-  <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$G26="NG"</formula>
+  <conditionalFormatting sqref="C30:D30 C38:D38 D52:D55 C46:D49 D35">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$G30="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>$G26="OK"</formula>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>$G30="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:L49">
-    <cfRule type="expression" dxfId="2" priority="4">
+  <conditionalFormatting sqref="E2:L41 E46:L57 G42:L45">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E42:F45">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$K42 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$G42="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$G42="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G57">
       <formula1>"OK, NG"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test/IntegrationTest_Index.xlsx
+++ b/test/IntegrationTest_Index.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakit\Desktop\web\Panda\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitStar\Panda\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6225" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Representative" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="about us" sheetId="7" r:id="rId6"/>
     <sheet name="contact us" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="93">
   <si>
     <t>design</t>
   </si>
@@ -567,23 +567,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -592,7 +592,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="63">
     <dxf>
       <fill>
         <patternFill>
@@ -779,62 +779,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE8972"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE8972"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE8972"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1411,12 +1355,12 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>50</v>
@@ -1428,7 +1372,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
@@ -1442,7 +1386,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>57</v>
       </c>
@@ -1456,7 +1400,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>58</v>
       </c>
@@ -1470,7 +1414,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>59</v>
       </c>
@@ -1484,7 +1428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>60</v>
       </c>
@@ -1498,7 +1442,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>61</v>
       </c>
@@ -1528,23 +1472,23 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -1582,17 +1526,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1614,13 +1558,13 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1640,13 +1584,13 @@
       <c r="K3" s="3"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1666,13 +1610,13 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1692,13 +1636,13 @@
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1718,13 +1662,13 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="36" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1746,13 +1690,13 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1772,13 +1716,13 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1798,15 +1742,15 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1826,13 +1770,13 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1852,13 +1796,13 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1878,13 +1822,13 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1904,15 +1848,15 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1934,13 +1878,13 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1960,13 +1904,13 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -1988,13 +1932,13 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -2014,13 +1958,13 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -2042,13 +1986,13 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -2070,13 +2014,13 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -2094,13 +2038,13 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -2116,13 +2060,13 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -2144,13 +2088,13 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -2170,13 +2114,13 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -2198,13 +2142,13 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -2226,17 +2170,17 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -2258,13 +2202,13 @@
       <c r="K26" s="3"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="4" t="s">
         <v>11</v>
       </c>
@@ -2284,13 +2228,13 @@
       <c r="K27" s="3"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
@@ -2310,13 +2254,13 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="4" t="s">
         <v>14</v>
       </c>
@@ -2336,13 +2280,13 @@
       <c r="K29" s="3"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2362,13 +2306,13 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -2390,13 +2334,13 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="4" t="s">
         <v>20</v>
       </c>
@@ -2416,13 +2360,13 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="4" t="s">
         <v>21</v>
       </c>
@@ -2442,15 +2386,15 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="4" t="s">
         <v>24</v>
       </c>
@@ -2470,13 +2414,13 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="4" t="s">
         <v>26</v>
       </c>
@@ -2496,13 +2440,13 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="4" t="s">
         <v>28</v>
       </c>
@@ -2522,13 +2466,13 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="4" t="s">
         <v>30</v>
       </c>
@@ -2548,21 +2492,21 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39" t="s">
+      <c r="B38" s="38"/>
+      <c r="C38" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="40" t="s">
+      <c r="F38" s="36" t="s">
         <v>33</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -2584,13 +2528,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
       <c r="G39" s="2" t="s">
         <v>72</v>
       </c>
@@ -2606,12 +2550,12 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>38</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="18" t="s">
         <v>34</v>
       </c>
@@ -2642,12 +2586,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C14:C25"/>
     <mergeCell ref="C10:C13"/>
@@ -2656,20 +2599,21 @@
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:L38 E40:L40 G39:L39">
-    <cfRule type="expression" dxfId="70" priority="4">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="8">
+    <cfRule type="expression" dxfId="61" priority="8">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="9">
+    <cfRule type="expression" dxfId="60" priority="9">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2687,30 +2631,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -2748,17 +2692,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -2774,13 +2718,13 @@
       <c r="K2" s="12"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -2794,13 +2738,13 @@
       <c r="K3" s="12"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -2814,13 +2758,13 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -2834,13 +2778,13 @@
       <c r="K5" s="12"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -2854,11 +2798,11 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="36" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2874,11 +2818,11 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -2892,11 +2836,11 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -2910,15 +2854,15 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -2932,13 +2876,13 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2952,13 +2896,13 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -2972,13 +2916,13 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -2992,15 +2936,15 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -3021,16 +2965,20 @@
       <c r="J14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="K14" s="3">
+        <v>42871</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -3047,16 +2995,18 @@
       <c r="J15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="3">
+        <v>42871</v>
+      </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -3073,16 +3023,18 @@
       <c r="J16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="3">
+        <v>42871</v>
+      </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3099,16 +3051,18 @@
       <c r="J17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="3">
+        <v>42871</v>
+      </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -3127,16 +3081,20 @@
       <c r="J18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K18" s="3">
+        <v>42871</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -3155,16 +3113,20 @@
       <c r="J19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="K19" s="3">
+        <v>42871</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3185,16 +3147,20 @@
       <c r="J20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="K20" s="3">
+        <v>42871</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -3214,13 +3180,13 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -3240,13 +3206,13 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="21" t="s">
         <v>43</v>
       </c>
@@ -3260,13 +3226,13 @@
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -3288,13 +3254,13 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -3316,17 +3282,17 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -3342,13 +3308,13 @@
       <c r="K26" s="12"/>
       <c r="L26" s="11"/>
     </row>
-    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>30</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
@@ -3362,13 +3328,13 @@
       <c r="K27" s="12"/>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>31</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
@@ -3382,13 +3348,13 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>32</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
@@ -3402,13 +3368,13 @@
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
     </row>
-    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>33</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
@@ -3422,13 +3388,13 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>34</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -3444,13 +3410,13 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
     </row>
-    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>35</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
@@ -3464,13 +3430,13 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
     </row>
-    <row r="33" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>36</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
@@ -3484,13 +3450,13 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>34</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38" t="s">
         <v>79</v>
       </c>
       <c r="E34" s="19" t="s">
@@ -3512,13 +3478,13 @@
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
     </row>
-    <row r="35" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>35</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="19" t="s">
         <v>82</v>
       </c>
@@ -3538,15 +3504,15 @@
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>37</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39" t="s">
+      <c r="B36" s="38"/>
+      <c r="C36" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="13" t="s">
         <v>24</v>
       </c>
@@ -3560,13 +3526,13 @@
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>38</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="13" t="s">
         <v>26</v>
       </c>
@@ -3580,13 +3546,13 @@
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>39</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="13" t="s">
         <v>28</v>
       </c>
@@ -3600,13 +3566,13 @@
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>40</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="13" t="s">
         <v>30</v>
       </c>
@@ -3620,15 +3586,15 @@
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>41</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39" t="s">
+      <c r="B40" s="38"/>
+      <c r="C40" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="38" t="s">
         <v>32</v>
       </c>
       <c r="E40" s="42" t="s">
@@ -3656,13 +3622,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>42</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
       <c r="G41" s="2" t="s">
@@ -3677,16 +3643,20 @@
       <c r="J41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="K41" s="3">
+        <v>42871</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>43</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39" t="s">
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="42" t="s">
@@ -3714,13 +3684,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>44</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="42"/>
       <c r="F43" s="42"/>
       <c r="G43" s="2" t="s">
@@ -3740,6 +3710,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B26:B43"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C40:C43"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -3748,140 +3733,125 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B26:B43"/>
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:L6 G7:L9 F40:G40 I40:L40 E34:L39 E10:L30 K41:L43">
-    <cfRule type="expression" dxfId="67" priority="48">
+    <cfRule type="expression" dxfId="59" priority="48">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="51">
+    <cfRule type="expression" dxfId="58" priority="51">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="52">
+    <cfRule type="expression" dxfId="57" priority="52">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="expression" dxfId="64" priority="37">
+    <cfRule type="expression" dxfId="56" priority="37">
       <formula>$K40 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="38">
+    <cfRule type="expression" dxfId="55" priority="38">
       <formula>$G40="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="39">
+    <cfRule type="expression" dxfId="54" priority="39">
       <formula>$G40="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:F9">
-    <cfRule type="expression" dxfId="61" priority="31">
+    <cfRule type="expression" dxfId="53" priority="31">
       <formula>$K7 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="32">
+    <cfRule type="expression" dxfId="52" priority="32">
       <formula>$G7="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="33">
+    <cfRule type="expression" dxfId="51" priority="33">
       <formula>$G7="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:L33">
-    <cfRule type="expression" dxfId="58" priority="28">
+    <cfRule type="expression" dxfId="50" priority="28">
       <formula>$K31 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="29">
+    <cfRule type="expression" dxfId="49" priority="29">
       <formula>$G31="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="30">
+    <cfRule type="expression" dxfId="48" priority="30">
       <formula>$G31="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="expression" dxfId="55" priority="25">
+    <cfRule type="expression" dxfId="47" priority="25">
       <formula>$K40 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="26">
+    <cfRule type="expression" dxfId="46" priority="26">
       <formula>$G40="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="27">
+    <cfRule type="expression" dxfId="45" priority="27">
       <formula>$G40="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:J41">
-    <cfRule type="expression" dxfId="52" priority="16">
+    <cfRule type="expression" dxfId="44" priority="16">
       <formula>$K41 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="17">
+    <cfRule type="expression" dxfId="43" priority="17">
       <formula>$G41="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="18">
+    <cfRule type="expression" dxfId="42" priority="18">
       <formula>$G41="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42 I42:J42">
-    <cfRule type="expression" dxfId="49" priority="13">
+    <cfRule type="expression" dxfId="41" priority="13">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="14">
+    <cfRule type="expression" dxfId="40" priority="14">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="15">
+    <cfRule type="expression" dxfId="39" priority="15">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="46" priority="10">
+    <cfRule type="expression" dxfId="38" priority="10">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="11">
+    <cfRule type="expression" dxfId="37" priority="11">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="12">
+    <cfRule type="expression" dxfId="36" priority="12">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:J43">
-    <cfRule type="expression" dxfId="43" priority="7">
+    <cfRule type="expression" dxfId="35" priority="7">
       <formula>$K43 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="8">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>$G43="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="9">
+    <cfRule type="expression" dxfId="33" priority="9">
       <formula>$G43="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3899,30 +3869,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G39" sqref="G39:J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -3960,17 +3930,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -3986,13 +3956,13 @@
       <c r="K2" s="12"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -4006,13 +3976,13 @@
       <c r="K3" s="12"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -4026,13 +3996,13 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -4046,13 +4016,13 @@
       <c r="K5" s="12"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -4066,13 +4036,13 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="36" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -4088,13 +4058,13 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -4108,13 +4078,13 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -4128,15 +4098,15 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -4150,13 +4120,13 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -4170,13 +4140,13 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -4190,13 +4160,13 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -4210,15 +4180,15 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -4240,13 +4210,13 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -4266,13 +4236,13 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -4292,13 +4262,13 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -4318,13 +4288,13 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -4344,13 +4314,13 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -4370,13 +4340,13 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -4398,13 +4368,13 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -4424,13 +4394,13 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -4450,13 +4420,13 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -4476,13 +4446,13 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -4502,13 +4472,13 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -4528,17 +4498,17 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>29</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="29" t="s">
@@ -4554,13 +4524,13 @@
       <c r="K26" s="31"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>30</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="29" t="s">
         <v>11</v>
       </c>
@@ -4574,13 +4544,13 @@
       <c r="K27" s="31"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>31</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="29" t="s">
         <v>13</v>
       </c>
@@ -4594,13 +4564,13 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>32</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="29" t="s">
         <v>14</v>
       </c>
@@ -4614,13 +4584,13 @@
       <c r="K29" s="31"/>
       <c r="L29" s="30"/>
     </row>
-    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="28">
         <v>33</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="29" t="s">
         <v>17</v>
       </c>
@@ -4634,13 +4604,13 @@
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
     </row>
-    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>34</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="36" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="29" t="s">
@@ -4656,13 +4626,13 @@
       <c r="K31" s="30"/>
       <c r="L31" s="30"/>
     </row>
-    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>35</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="29" t="s">
         <v>20</v>
       </c>
@@ -4676,13 +4646,13 @@
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
     </row>
-    <row r="33" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>36</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="29" t="s">
         <v>21</v>
       </c>
@@ -4696,15 +4666,15 @@
       <c r="K33" s="30"/>
       <c r="L33" s="30"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>37</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="36" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="36"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="32" t="s">
         <v>24</v>
       </c>
@@ -4718,13 +4688,13 @@
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>38</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="32" t="s">
         <v>26</v>
       </c>
@@ -4738,13 +4708,13 @@
       <c r="K35" s="33"/>
       <c r="L35" s="33"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>39</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="32" t="s">
         <v>28</v>
       </c>
@@ -4758,13 +4728,13 @@
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>40</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="32" t="s">
         <v>30</v>
       </c>
@@ -4778,12 +4748,12 @@
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
     </row>
-    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="28">
         <v>41</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="36" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="39" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="35" t="s">
@@ -4808,12 +4778,12 @@
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
     </row>
-    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>42</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="34" t="s">
         <v>34</v>
       </c>
@@ -4838,13 +4808,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C39"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -4854,15 +4817,22 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:L37 F38:L39">
-    <cfRule type="expression" dxfId="32" priority="19">
+    <cfRule type="expression" dxfId="26" priority="19">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="22">
+    <cfRule type="expression" dxfId="25" priority="22">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="23">
+    <cfRule type="expression" dxfId="24" priority="23">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4906,23 +4876,23 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -4960,17 +4930,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -4986,13 +4956,13 @@
       <c r="K2" s="12"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -5006,13 +4976,13 @@
       <c r="K3" s="12"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -5026,13 +4996,13 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -5046,13 +5016,13 @@
       <c r="K5" s="12"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -5066,13 +5036,13 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="36" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -5088,13 +5058,13 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -5108,13 +5078,13 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -5128,15 +5098,15 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -5150,13 +5120,13 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -5170,13 +5140,13 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -5190,13 +5160,13 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -5210,13 +5180,13 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="36" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="39" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -5232,13 +5202,13 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="15" t="s">
         <v>67</v>
       </c>
@@ -5252,13 +5222,13 @@
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="15" t="s">
         <v>68</v>
       </c>
@@ -5272,13 +5242,13 @@
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="15" t="s">
         <v>69</v>
       </c>
@@ -5292,15 +5262,15 @@
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
     </row>
-    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="36" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -5316,13 +5286,13 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
@@ -5336,13 +5306,13 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
@@ -5356,13 +5326,13 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="4" t="s">
         <v>43</v>
       </c>
@@ -5376,13 +5346,13 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="4" t="s">
         <v>46</v>
       </c>
@@ -5396,13 +5366,13 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="4" t="s">
         <v>44</v>
       </c>
@@ -5416,13 +5386,13 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="36" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -5438,13 +5408,13 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="4" t="s">
         <v>45</v>
       </c>
@@ -5458,13 +5428,13 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="4" t="s">
         <v>42</v>
       </c>
@@ -5478,13 +5448,13 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="4" t="s">
         <v>43</v>
       </c>
@@ -5498,13 +5468,13 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="4" t="s">
         <v>46</v>
       </c>
@@ -5518,13 +5488,13 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="4" t="s">
         <v>44</v>
       </c>
@@ -5538,17 +5508,17 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -5564,13 +5534,13 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="10" t="s">
         <v>11</v>
       </c>
@@ -5584,13 +5554,13 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
     </row>
-    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="10" t="s">
         <v>13</v>
       </c>
@@ -5604,13 +5574,13 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
     </row>
-    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
@@ -5624,13 +5594,13 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="10" t="s">
         <v>17</v>
       </c>
@@ -5644,13 +5614,13 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="36" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -5666,13 +5636,13 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
     </row>
-    <row r="36" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="10" t="s">
         <v>20</v>
       </c>
@@ -5686,13 +5656,13 @@
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
     </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="10" t="s">
         <v>21</v>
       </c>
@@ -5706,15 +5676,15 @@
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="36" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="36"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="10" t="s">
         <v>24</v>
       </c>
@@ -5728,13 +5698,13 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="10" t="s">
         <v>26</v>
       </c>
@@ -5748,13 +5718,13 @@
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
       <c r="E40" s="10" t="s">
         <v>28</v>
       </c>
@@ -5768,13 +5738,13 @@
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="40"/>
       <c r="E41" s="10" t="s">
         <v>30</v>
       </c>
@@ -5788,13 +5758,13 @@
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="36" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="39" t="s">
         <v>62</v>
       </c>
       <c r="E42" s="13" t="s">
@@ -5810,13 +5780,13 @@
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
       <c r="E43" s="13" t="s">
         <v>67</v>
       </c>
@@ -5830,13 +5800,13 @@
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
       <c r="E44" s="13" t="s">
         <v>68</v>
       </c>
@@ -5850,13 +5820,13 @@
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
       <c r="E45" s="13" t="s">
         <v>69</v>
       </c>
@@ -5870,12 +5840,12 @@
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
     </row>
-    <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="36" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="39" t="s">
         <v>0</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -5894,13 +5864,13 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>51</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="36" t="s">
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -5916,13 +5886,13 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>52</v>
       </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="4" t="s">
         <v>45</v>
       </c>
@@ -5936,13 +5906,13 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>53</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="4" t="s">
         <v>42</v>
       </c>
@@ -5956,13 +5926,13 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>54</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
       <c r="E50" s="4" t="s">
         <v>43</v>
       </c>
@@ -5976,13 +5946,13 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>55</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
       <c r="E51" s="4" t="s">
         <v>46</v>
       </c>
@@ -5996,13 +5966,13 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>56</v>
       </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
       <c r="E52" s="4" t="s">
         <v>44</v>
       </c>
@@ -6018,15 +5988,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B30:B52"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="D42:D45"/>
     <mergeCell ref="B2:B29"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -6037,6 +5998,15 @@
     <mergeCell ref="D24:D29"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="C10:C17"/>
+    <mergeCell ref="B30:B52"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="D42:D45"/>
   </mergeCells>
   <conditionalFormatting sqref="C30:D30 C38:D38 D47:D50 D35 C46:D46">
     <cfRule type="expression" dxfId="17" priority="5">
@@ -6086,23 +6056,23 @@
       <selection activeCell="A40" sqref="A1:L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>47</v>
       </c>
@@ -6140,17 +6110,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="29" t="s">
@@ -6166,13 +6136,13 @@
       <c r="K2" s="31"/>
       <c r="L2" s="30"/>
     </row>
-    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="29" t="s">
         <v>11</v>
       </c>
@@ -6186,13 +6156,13 @@
       <c r="K3" s="31"/>
       <c r="L3" s="30"/>
     </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="29" t="s">
         <v>13</v>
       </c>
@@ -6206,13 +6176,13 @@
       <c r="K4" s="30"/>
       <c r="L4" s="30"/>
     </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="29" t="s">
         <v>14</v>
       </c>
@@ -6226,13 +6196,13 @@
       <c r="K5" s="31"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="29" t="s">
         <v>17</v>
       </c>
@@ -6246,13 +6216,13 @@
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
     </row>
-    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="36" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="29" t="s">
@@ -6268,13 +6238,13 @@
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
     </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="29" t="s">
         <v>20</v>
       </c>
@@ -6288,13 +6258,13 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="29" t="s">
         <v>21</v>
       </c>
@@ -6308,15 +6278,15 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="32" t="s">
         <v>24</v>
       </c>
@@ -6330,13 +6300,13 @@
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="32" t="s">
         <v>26</v>
       </c>
@@ -6350,13 +6320,13 @@
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="32" t="s">
         <v>28</v>
       </c>
@@ -6370,13 +6340,13 @@
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>12</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="32" t="s">
         <v>30</v>
       </c>
@@ -6390,15 +6360,15 @@
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
     </row>
-    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>17</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -6414,13 +6384,13 @@
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
     </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>18</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="25" t="s">
         <v>87</v>
       </c>
@@ -6434,13 +6404,13 @@
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
     </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>19</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="25" t="s">
         <v>88</v>
       </c>
@@ -6454,13 +6424,13 @@
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
     </row>
-    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>20</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="25" t="s">
         <v>89</v>
       </c>
@@ -6474,13 +6444,13 @@
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
     </row>
-    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>21</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="25" t="s">
         <v>90</v>
       </c>
@@ -6494,13 +6464,13 @@
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
     </row>
-    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>22</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="25" t="s">
         <v>91</v>
       </c>
@@ -6514,13 +6484,13 @@
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
-    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>23</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="25" t="s">
@@ -6536,13 +6506,13 @@
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
     </row>
-    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>24</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="25" t="s">
         <v>87</v>
       </c>
@@ -6556,13 +6526,13 @@
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
     </row>
-    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>25</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="25" t="s">
         <v>88</v>
       </c>
@@ -6576,13 +6546,13 @@
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
     </row>
-    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>26</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="25" t="s">
         <v>89</v>
       </c>
@@ -6596,13 +6566,13 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
     </row>
-    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>27</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="25" t="s">
         <v>90</v>
       </c>
@@ -6616,13 +6586,13 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
     </row>
-    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>28</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="25" t="s">
         <v>91</v>
       </c>
@@ -6636,17 +6606,17 @@
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
     </row>
-    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>29</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="29" t="s">
@@ -6662,13 +6632,13 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>30</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="29" t="s">
         <v>11</v>
       </c>
@@ -6682,13 +6652,13 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>31</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="29" t="s">
         <v>13</v>
       </c>
@@ -6702,13 +6672,13 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>32</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="29" t="s">
         <v>14</v>
       </c>
@@ -6722,13 +6692,13 @@
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
     </row>
-    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="28">
         <v>33</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="29" t="s">
         <v>17</v>
       </c>
@@ -6742,13 +6712,13 @@
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
     </row>
-    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>34</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="36" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="29" t="s">
@@ -6764,13 +6734,13 @@
       <c r="K31" s="30"/>
       <c r="L31" s="30"/>
     </row>
-    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>35</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="29" t="s">
         <v>20</v>
       </c>
@@ -6784,13 +6754,13 @@
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>36</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="29" t="s">
         <v>21</v>
       </c>
@@ -6804,15 +6774,15 @@
       <c r="K33" s="30"/>
       <c r="L33" s="30"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>37</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="36" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="36"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="29" t="s">
         <v>24</v>
       </c>
@@ -6826,13 +6796,13 @@
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>38</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="29" t="s">
         <v>26</v>
       </c>
@@ -6846,13 +6816,13 @@
       <c r="K35" s="30"/>
       <c r="L35" s="30"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>39</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="29" t="s">
         <v>28</v>
       </c>
@@ -6866,13 +6836,13 @@
       <c r="K36" s="30"/>
       <c r="L36" s="30"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>40</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="29" t="s">
         <v>30</v>
       </c>
@@ -6886,15 +6856,15 @@
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
     </row>
-    <row r="38" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="28">
         <v>41</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="36" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="25" t="s">
@@ -6910,13 +6880,13 @@
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>42</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
       <c r="G39" s="24"/>
@@ -6926,13 +6896,13 @@
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>43</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
       <c r="G40" s="24"/>
@@ -6942,13 +6912,13 @@
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>44</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
       <c r="G41" s="24"/>
@@ -6958,13 +6928,13 @@
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>45</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
       <c r="G42" s="24"/>
@@ -6974,13 +6944,13 @@
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>46</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="38"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="40"/>
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="24"/>
@@ -6990,13 +6960,13 @@
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
     </row>
-    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>47</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="36" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="25" t="s">
@@ -7012,13 +6982,13 @@
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
     </row>
-    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>48</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
       <c r="E45" s="25" t="s">
         <v>87</v>
       </c>
@@ -7032,13 +7002,13 @@
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
     </row>
-    <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="28">
         <v>49</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
       <c r="E46" s="25" t="s">
         <v>88</v>
       </c>
@@ -7052,13 +7022,13 @@
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
     </row>
-    <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
         <v>50</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
       <c r="E47" s="25" t="s">
         <v>89</v>
       </c>
@@ -7072,13 +7042,13 @@
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
     </row>
-    <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>51</v>
       </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="25" t="s">
         <v>90</v>
       </c>
@@ -7092,13 +7062,13 @@
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
     </row>
-    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>52</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
       <c r="E49" s="25" t="s">
         <v>91</v>
       </c>
@@ -7114,12 +7084,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C49"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B26:B49"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -7129,9 +7096,12 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B26:B49"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C49"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="C34:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
     <cfRule type="expression" dxfId="9" priority="5">
@@ -7170,23 +7140,23 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -7224,17 +7194,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -7250,13 +7220,13 @@
       <c r="K2" s="12"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -7270,13 +7240,13 @@
       <c r="K3" s="12"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -7290,13 +7260,13 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -7310,13 +7280,13 @@
       <c r="K5" s="12"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -7330,13 +7300,13 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="36" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -7352,13 +7322,13 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -7372,13 +7342,13 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -7392,15 +7362,15 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -7414,13 +7384,13 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -7434,13 +7404,13 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -7454,13 +7424,13 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -7474,15 +7444,15 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -7498,13 +7468,13 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -7518,13 +7488,13 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -7538,13 +7508,13 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -7558,13 +7528,13 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -7578,13 +7548,13 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -7598,13 +7568,13 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -7620,13 +7590,13 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -7640,13 +7610,13 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -7660,13 +7630,13 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -7680,13 +7650,13 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -7700,13 +7670,13 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -7720,17 +7690,17 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -7746,13 +7716,13 @@
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
     </row>
-    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>30</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
@@ -7766,13 +7736,13 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>31</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
@@ -7786,13 +7756,13 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>32</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
@@ -7806,13 +7776,13 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
     </row>
-    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>33</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
@@ -7826,13 +7796,13 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>34</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="36" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -7848,13 +7818,13 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
     </row>
-    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>35</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
@@ -7868,13 +7838,13 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>36</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
@@ -7888,15 +7858,15 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>37</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="36" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="36"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
@@ -7910,13 +7880,13 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>38</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="10" t="s">
         <v>26</v>
       </c>
@@ -7930,13 +7900,13 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>39</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="10" t="s">
         <v>28</v>
       </c>
@@ -7950,13 +7920,13 @@
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>40</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="10" t="s">
         <v>30</v>
       </c>
@@ -7970,15 +7940,15 @@
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
     </row>
-    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>41</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="36" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -7994,13 +7964,13 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>42</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="4" t="s">
         <v>45</v>
       </c>
@@ -8014,13 +7984,13 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>43</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
       <c r="E40" s="4" t="s">
         <v>42</v>
       </c>
@@ -8034,13 +8004,13 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>44</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
       <c r="E41" s="4" t="s">
         <v>43</v>
       </c>
@@ -8054,13 +8024,13 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>45</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
       <c r="E42" s="4" t="s">
         <v>46</v>
       </c>
@@ -8074,13 +8044,13 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>46</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="38"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="40"/>
       <c r="E43" s="4" t="s">
         <v>44</v>
       </c>
@@ -8094,13 +8064,13 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>47</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="36" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -8116,13 +8086,13 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>48</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
       <c r="E45" s="4" t="s">
         <v>45</v>
       </c>
@@ -8136,13 +8106,13 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>49</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
       <c r="E46" s="4" t="s">
         <v>42</v>
       </c>
@@ -8156,13 +8126,13 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>50</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
       <c r="E47" s="4" t="s">
         <v>43</v>
       </c>
@@ -8176,13 +8146,13 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>51</v>
       </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
@@ -8196,13 +8166,13 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>52</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
       <c r="E49" s="4" t="s">
         <v>44</v>
       </c>
@@ -8218,6 +8188,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="B26:B49"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="D26:D30"/>
@@ -8227,15 +8206,6 @@
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D44:D47 C38:D41 D31">
     <cfRule type="expression" dxfId="4" priority="5">

--- a/test/IntegrationTest_Index.xlsx
+++ b/test/IntegrationTest_Index.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haruna Doranecoco\comp2910\Panda\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakit\Desktop\web\Panda\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Representative" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="101">
   <si>
     <t>design</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>Input fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In category panel, search button should be right place </t>
+  </si>
+  <si>
+    <t>category panel looks different from firefox, and content page</t>
   </si>
 </sst>
 </file>
@@ -486,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -579,10 +585,25 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -591,18 +612,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -610,7 +619,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="69">
     <dxf>
       <fill>
         <patternFill>
@@ -755,6 +764,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1571,13 +1601,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1603,9 +1633,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1629,9 +1659,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1655,9 +1685,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1681,9 +1711,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1707,9 +1737,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1735,9 +1765,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1761,9 +1791,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1787,11 +1817,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1815,9 +1845,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1841,9 +1871,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1867,9 +1897,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1893,11 +1923,11 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1923,9 +1953,9 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1949,9 +1979,9 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -1977,9 +2007,9 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -2003,9 +2033,9 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -2031,9 +2061,9 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -2059,9 +2089,9 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="39" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -2083,9 +2113,9 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -2105,9 +2135,9 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -2133,9 +2163,9 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -2159,9 +2189,9 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -2187,9 +2217,9 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -2215,13 +2245,13 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -2247,9 +2277,9 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="4" t="s">
         <v>11</v>
       </c>
@@ -2273,9 +2303,9 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
@@ -2299,9 +2329,9 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="4" t="s">
         <v>14</v>
       </c>
@@ -2325,9 +2355,9 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2351,9 +2381,9 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -2379,9 +2409,9 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="4" t="s">
         <v>20</v>
       </c>
@@ -2405,9 +2435,9 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="4" t="s">
         <v>21</v>
       </c>
@@ -2431,11 +2461,11 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="38"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="4" t="s">
         <v>24</v>
       </c>
@@ -2459,9 +2489,9 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="4" t="s">
         <v>26</v>
       </c>
@@ -2485,9 +2515,9 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="4" t="s">
         <v>28</v>
       </c>
@@ -2511,9 +2541,9 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="4" t="s">
         <v>30</v>
       </c>
@@ -2537,17 +2567,17 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="41" t="s">
         <v>33</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -2571,11 +2601,11 @@
     </row>
     <row r="39" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
       <c r="G39" s="2" t="s">
         <v>72</v>
       </c>
@@ -2595,8 +2625,8 @@
       <c r="A40" s="7">
         <v>38</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
       <c r="D40" s="18" t="s">
         <v>34</v>
       </c>
@@ -2627,11 +2657,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D38:D39"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C14:C25"/>
     <mergeCell ref="C10:C13"/>
@@ -2640,21 +2671,20 @@
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:L38 E40:L40 G39:L39">
-    <cfRule type="expression" dxfId="65" priority="4">
+    <cfRule type="expression" dxfId="68" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="8">
+    <cfRule type="expression" dxfId="67" priority="8">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="9">
+    <cfRule type="expression" dxfId="66" priority="9">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2670,13 +2700,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2737,13 +2767,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -2763,9 +2793,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -2783,9 +2813,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -2803,9 +2833,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -2823,9 +2853,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -2841,9 +2871,9 @@
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2861,9 +2891,9 @@
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -2879,9 +2909,9 @@
     </row>
     <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -2899,11 +2929,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -2921,9 +2951,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2941,9 +2971,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -2961,9 +2991,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -2981,11 +3011,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -3013,9 +3043,9 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -3039,9 +3069,9 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -3065,9 +3095,9 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3091,9 +3121,9 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -3119,9 +3149,9 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -3147,9 +3177,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="39" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3177,9 +3207,9 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -3203,9 +3233,9 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -3229,9 +3259,9 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="21" t="s">
         <v>43</v>
       </c>
@@ -3249,9 +3279,9 @@
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -3277,9 +3307,9 @@
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -3305,13 +3335,13 @@
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -3331,9 +3361,9 @@
       <c r="A27" s="7">
         <v>30</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
@@ -3351,9 +3381,9 @@
       <c r="A28" s="7">
         <v>31</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
@@ -3371,9 +3401,9 @@
       <c r="A29" s="7">
         <v>32</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
@@ -3391,9 +3421,9 @@
       <c r="A30" s="7">
         <v>33</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
@@ -3411,9 +3441,9 @@
       <c r="A31" s="7">
         <v>34</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -3433,9 +3463,9 @@
       <c r="A32" s="7">
         <v>35</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
@@ -3453,9 +3483,9 @@
       <c r="A33" s="7">
         <v>36</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
@@ -3473,9 +3503,9 @@
       <c r="A34" s="7">
         <v>34</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40" t="s">
         <v>79</v>
       </c>
       <c r="E34" s="19" t="s">
@@ -3501,9 +3531,9 @@
       <c r="A35" s="7">
         <v>35</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="19" t="s">
         <v>82</v>
       </c>
@@ -3527,11 +3557,11 @@
       <c r="A36" s="7">
         <v>37</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="38"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="13" t="s">
         <v>24</v>
       </c>
@@ -3549,9 +3579,9 @@
       <c r="A37" s="7">
         <v>38</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="13" t="s">
         <v>26</v>
       </c>
@@ -3569,9 +3599,9 @@
       <c r="A38" s="7">
         <v>39</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="13" t="s">
         <v>28</v>
       </c>
@@ -3589,9 +3619,9 @@
       <c r="A39" s="7">
         <v>40</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="13" t="s">
         <v>30</v>
       </c>
@@ -3609,17 +3639,17 @@
       <c r="A40" s="7">
         <v>41</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38" t="s">
+      <c r="B40" s="40"/>
+      <c r="C40" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="42" t="s">
+      <c r="F40" s="43" t="s">
         <v>33</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -3642,55 +3672,47 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
-        <v>42</v>
-      </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="2" t="s">
+      <c r="A41" s="28"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="24" t="s">
         <v>85</v>
       </c>
       <c r="I41" s="3">
         <v>42871</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="24"/>
     </row>
     <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
-        <v>43</v>
-      </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="42" t="s">
-        <v>33</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
       <c r="G42" s="2" t="s">
         <v>72</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="I42" s="3">
         <v>42871</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="K42" s="3">
         <v>42871</v>
@@ -3699,47 +3721,66 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
-        <v>44</v>
-      </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
+        <v>43</v>
+      </c>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>33</v>
+      </c>
       <c r="G43" s="2" t="s">
         <v>72</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I43" s="3">
         <v>42871</v>
       </c>
       <c r="J43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" s="3">
+        <v>42871</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="7">
+        <v>44</v>
+      </c>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I44" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B26:B43"/>
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C40:C43"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -3748,130 +3789,134 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B26:B44"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:L6 G7:L9 F40:G40 I40:L40 E34:L39 E10:L30 K41:L43">
-    <cfRule type="expression" dxfId="62" priority="48">
+  <conditionalFormatting sqref="E2:L6 G7:L9 F40:G40 I40:L40 E34:L39 E10:L30 E43:F43 K41:L44 F41">
+    <cfRule type="expression" dxfId="65" priority="54">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="51">
+    <cfRule type="expression" dxfId="64" priority="57">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="52">
+    <cfRule type="expression" dxfId="63" priority="58">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="expression" dxfId="59" priority="37">
+  <conditionalFormatting sqref="E40:E41">
+    <cfRule type="expression" dxfId="62" priority="43">
       <formula>$K40 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="38">
+    <cfRule type="expression" dxfId="61" priority="44">
       <formula>$G40="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="39">
+    <cfRule type="expression" dxfId="60" priority="45">
       <formula>$G40="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:F9">
-    <cfRule type="expression" dxfId="56" priority="31">
+    <cfRule type="expression" dxfId="59" priority="37">
       <formula>$K7 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="32">
+    <cfRule type="expression" dxfId="58" priority="38">
       <formula>$G7="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="33">
+    <cfRule type="expression" dxfId="57" priority="39">
       <formula>$G7="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:L33">
-    <cfRule type="expression" dxfId="53" priority="28">
+    <cfRule type="expression" dxfId="56" priority="34">
       <formula>$K31 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="29">
+    <cfRule type="expression" dxfId="55" priority="35">
       <formula>$G31="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="30">
+    <cfRule type="expression" dxfId="54" priority="36">
       <formula>$G31="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="expression" dxfId="50" priority="25">
+    <cfRule type="expression" dxfId="53" priority="31">
       <formula>$K40 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="26">
+    <cfRule type="expression" dxfId="52" priority="32">
       <formula>$G40="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="27">
+    <cfRule type="expression" dxfId="51" priority="33">
       <formula>$G40="OK"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G42:J42">
+    <cfRule type="expression" dxfId="50" priority="22">
+      <formula>$K42 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="23">
+      <formula>$G42="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="24">
+      <formula>$G42="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43 I43:J43">
+    <cfRule type="expression" dxfId="47" priority="19">
+      <formula>$K43 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="20">
+      <formula>$G43="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="21">
+      <formula>$G43="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" dxfId="44" priority="16">
+      <formula>$K43 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="17">
+      <formula>$G43="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="18">
+      <formula>$G43="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:J44">
+    <cfRule type="expression" dxfId="41" priority="13">
+      <formula>$K44 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="14">
+      <formula>$G44="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="15">
+      <formula>$G44="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G41:J41">
-    <cfRule type="expression" dxfId="47" priority="16">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>$K41 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="17">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>$G41="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="18">
+    <cfRule type="expression" dxfId="36" priority="3">
       <formula>$G41="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42 I42:J42">
-    <cfRule type="expression" dxfId="44" priority="13">
-      <formula>$K42 &lt;&gt; ""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="14">
-      <formula>$G42="NG"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="15">
-      <formula>$G42="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="41" priority="10">
-      <formula>$K42 &lt;&gt; ""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="11">
-      <formula>$G42="NG"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="12">
-      <formula>$G42="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43:J43">
-    <cfRule type="expression" dxfId="38" priority="7">
-      <formula>$K43 &lt;&gt; ""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="8">
-      <formula>$G43="NG"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="9">
-      <formula>$G43="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="expression" dxfId="35" priority="4">
-      <formula>$K42 &lt;&gt; ""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="5">
-      <formula>$G42="NG"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="6">
-      <formula>$G42="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="32" priority="1">
-      <formula>$K42 &lt;&gt; ""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
-      <formula>$G42="NG"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
-      <formula>$G42="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G44">
       <formula1>"OK, NG"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3884,11 +3929,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G39" sqref="G39:J39"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3949,13 +3994,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -3975,9 +4020,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -3995,9 +4040,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -4015,9 +4060,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -4035,9 +4080,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -4055,9 +4100,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -4077,9 +4122,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -4097,9 +4142,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -4117,11 +4162,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -4139,9 +4184,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -4159,9 +4204,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -4179,9 +4224,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -4199,11 +4244,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -4229,9 +4274,9 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -4255,9 +4300,9 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -4281,9 +4326,9 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -4307,9 +4352,9 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -4333,9 +4378,9 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -4359,9 +4404,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="39" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -4387,9 +4432,9 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -4413,9 +4458,9 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -4439,9 +4484,9 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -4465,9 +4510,9 @@
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -4491,9 +4536,9 @@
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -4517,13 +4562,13 @@
       <c r="A26" s="28">
         <v>29</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="29" t="s">
@@ -4543,9 +4588,9 @@
       <c r="A27" s="28">
         <v>30</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="29" t="s">
         <v>11</v>
       </c>
@@ -4563,9 +4608,9 @@
       <c r="A28" s="28">
         <v>31</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="29" t="s">
         <v>13</v>
       </c>
@@ -4583,9 +4628,9 @@
       <c r="A29" s="28">
         <v>32</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="29" t="s">
         <v>14</v>
       </c>
@@ -4603,9 +4648,9 @@
       <c r="A30" s="28">
         <v>33</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="40"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="29" t="s">
         <v>17</v>
       </c>
@@ -4623,9 +4668,9 @@
       <c r="A31" s="28">
         <v>34</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="29" t="s">
@@ -4645,9 +4690,9 @@
       <c r="A32" s="28">
         <v>35</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="29" t="s">
         <v>20</v>
       </c>
@@ -4665,9 +4710,9 @@
       <c r="A33" s="28">
         <v>36</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="29" t="s">
         <v>21</v>
       </c>
@@ -4685,11 +4730,11 @@
       <c r="A34" s="28">
         <v>37</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="39" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="32" t="s">
         <v>24</v>
       </c>
@@ -4707,9 +4752,9 @@
       <c r="A35" s="28">
         <v>38</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="32" t="s">
         <v>26</v>
       </c>
@@ -4727,9 +4772,9 @@
       <c r="A36" s="28">
         <v>39</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="32" t="s">
         <v>28</v>
       </c>
@@ -4747,9 +4792,9 @@
       <c r="A37" s="28">
         <v>40</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="40"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="32" t="s">
         <v>30</v>
       </c>
@@ -4763,15 +4808,15 @@
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
     </row>
-    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="28">
         <v>41</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="39" t="s">
+      <c r="B38" s="38"/>
+      <c r="C38" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="25" t="s">
@@ -4781,25 +4826,25 @@
         <v>33</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="24"/>
+        <v>72</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>99</v>
+      </c>
       <c r="I38" s="3">
         <v>42871</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
     </row>
-    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="28">
-        <v>42</v>
-      </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="34" t="s">
+    <row r="39" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A39" s="28"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="35" t="s">
         <v>34</v>
       </c>
       <c r="E39" s="25" t="s">
@@ -4809,20 +4854,29 @@
         <v>33</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="24"/>
+        <v>72</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>99</v>
+      </c>
       <c r="I39" s="3">
         <v>42871</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -4832,23 +4886,27 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:L37 F38:L39">
-    <cfRule type="expression" dxfId="29" priority="19">
+  <conditionalFormatting sqref="K39:L39 E2:L38">
+    <cfRule type="expression" dxfId="35" priority="28">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="22">
+    <cfRule type="expression" dxfId="34" priority="31">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="23">
+    <cfRule type="expression" dxfId="33" priority="32">
       <formula>$G2="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:G39">
+    <cfRule type="expression" dxfId="29" priority="7">
+      <formula>$K39 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="8">
+      <formula>$G39="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="9">
+      <formula>$G39="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
@@ -4862,15 +4920,15 @@
       <formula>$G39="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
+  <conditionalFormatting sqref="H39:J39">
     <cfRule type="expression" dxfId="23" priority="1">
-      <formula>$K38 &lt;&gt; ""</formula>
+      <formula>$K39 &lt;&gt; ""</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="2">
-      <formula>$G38="NG"</formula>
+      <formula>$G39="NG"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="3">
-      <formula>$G38="OK"</formula>
+      <formula>$G39="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4949,13 +5007,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -4975,9 +5033,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -4995,9 +5053,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -5015,9 +5073,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -5035,9 +5093,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -5055,9 +5113,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -5077,9 +5135,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -5097,9 +5155,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -5117,11 +5175,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -5139,9 +5197,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -5159,9 +5217,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -5179,9 +5237,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -5199,9 +5257,9 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="39" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -5221,9 +5279,9 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="15" t="s">
         <v>67</v>
       </c>
@@ -5241,9 +5299,9 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="15" t="s">
         <v>68</v>
       </c>
@@ -5261,9 +5319,9 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="15" t="s">
         <v>69</v>
       </c>
@@ -5281,11 +5339,11 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -5305,9 +5363,9 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
@@ -5325,9 +5383,9 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
@@ -5345,9 +5403,9 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="4" t="s">
         <v>43</v>
       </c>
@@ -5365,9 +5423,9 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="4" t="s">
         <v>46</v>
       </c>
@@ -5385,9 +5443,9 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="40"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="4" t="s">
         <v>44</v>
       </c>
@@ -5405,9 +5463,9 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="39" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -5427,9 +5485,9 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="4" t="s">
         <v>45</v>
       </c>
@@ -5447,9 +5505,9 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="4" t="s">
         <v>42</v>
       </c>
@@ -5467,9 +5525,9 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="4" t="s">
         <v>43</v>
       </c>
@@ -5487,9 +5545,9 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="4" t="s">
         <v>46</v>
       </c>
@@ -5507,9 +5565,9 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="4" t="s">
         <v>44</v>
       </c>
@@ -5527,13 +5585,13 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -5553,9 +5611,9 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="10" t="s">
         <v>11</v>
       </c>
@@ -5573,9 +5631,9 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="10" t="s">
         <v>13</v>
       </c>
@@ -5593,9 +5651,9 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
@@ -5613,9 +5671,9 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="40"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="10" t="s">
         <v>17</v>
       </c>
@@ -5633,9 +5691,9 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="39" t="s">
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -5655,9 +5713,9 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="10" t="s">
         <v>20</v>
       </c>
@@ -5675,9 +5733,9 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="10" t="s">
         <v>21</v>
       </c>
@@ -5695,11 +5753,11 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="39" t="s">
+      <c r="B38" s="38"/>
+      <c r="C38" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="39"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="10" t="s">
         <v>24</v>
       </c>
@@ -5717,9 +5775,9 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="10" t="s">
         <v>26</v>
       </c>
@@ -5737,9 +5795,9 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="10" t="s">
         <v>28</v>
       </c>
@@ -5757,9 +5815,9 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="40"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="10" t="s">
         <v>30</v>
       </c>
@@ -5777,9 +5835,9 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="39" t="s">
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="37" t="s">
         <v>62</v>
       </c>
       <c r="E42" s="13" t="s">
@@ -5799,9 +5857,9 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="13" t="s">
         <v>67</v>
       </c>
@@ -5819,9 +5877,9 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="13" t="s">
         <v>68</v>
       </c>
@@ -5839,9 +5897,9 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="13" t="s">
         <v>69</v>
       </c>
@@ -5859,11 +5917,11 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="39" t="s">
+      <c r="B46" s="38"/>
+      <c r="C46" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="34" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -5883,9 +5941,9 @@
       <c r="A47" s="7">
         <v>51</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="39" t="s">
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -5905,9 +5963,9 @@
       <c r="A48" s="7">
         <v>52</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="4" t="s">
         <v>45</v>
       </c>
@@ -5925,9 +5983,9 @@
       <c r="A49" s="7">
         <v>53</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="4" t="s">
         <v>42</v>
       </c>
@@ -5945,9 +6003,9 @@
       <c r="A50" s="7">
         <v>54</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="4" t="s">
         <v>43</v>
       </c>
@@ -5965,9 +6023,9 @@
       <c r="A51" s="7">
         <v>55</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="4" t="s">
         <v>46</v>
       </c>
@@ -5985,9 +6043,9 @@
       <c r="A52" s="7">
         <v>56</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
       <c r="E52" s="4" t="s">
         <v>44</v>
       </c>
@@ -6003,6 +6061,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B30:B52"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="D42:D45"/>
     <mergeCell ref="B2:B29"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -6013,15 +6080,6 @@
     <mergeCell ref="D24:D29"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="C10:C17"/>
-    <mergeCell ref="B30:B52"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="D42:D45"/>
   </mergeCells>
   <conditionalFormatting sqref="C30:D30 C38:D38 D47:D50 D35 C46:D46">
     <cfRule type="expression" dxfId="20" priority="5">
@@ -6129,13 +6187,13 @@
       <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="29" t="s">
@@ -6155,9 +6213,9 @@
       <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="29" t="s">
         <v>11</v>
       </c>
@@ -6175,9 +6233,9 @@
       <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="29" t="s">
         <v>13</v>
       </c>
@@ -6195,9 +6253,9 @@
       <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="29" t="s">
         <v>14</v>
       </c>
@@ -6215,9 +6273,9 @@
       <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="29" t="s">
         <v>17</v>
       </c>
@@ -6235,9 +6293,9 @@
       <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="29" t="s">
@@ -6257,9 +6315,9 @@
       <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="29" t="s">
         <v>20</v>
       </c>
@@ -6277,9 +6335,9 @@
       <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="29" t="s">
         <v>21</v>
       </c>
@@ -6297,11 +6355,11 @@
       <c r="A10" s="28">
         <v>9</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="32" t="s">
         <v>24</v>
       </c>
@@ -6319,9 +6377,9 @@
       <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="32" t="s">
         <v>26</v>
       </c>
@@ -6339,9 +6397,9 @@
       <c r="A12" s="28">
         <v>11</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="32" t="s">
         <v>28</v>
       </c>
@@ -6359,9 +6417,9 @@
       <c r="A13" s="28">
         <v>12</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="32" t="s">
         <v>30</v>
       </c>
@@ -6379,11 +6437,11 @@
       <c r="A14" s="28">
         <v>15</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -6403,9 +6461,9 @@
       <c r="A15" s="28">
         <v>16</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="25" t="s">
         <v>87</v>
       </c>
@@ -6423,9 +6481,9 @@
       <c r="A16" s="28">
         <v>17</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="25" t="s">
         <v>88</v>
       </c>
@@ -6443,9 +6501,9 @@
       <c r="A17" s="28">
         <v>18</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="25" t="s">
         <v>89</v>
       </c>
@@ -6463,9 +6521,9 @@
       <c r="A18" s="28">
         <v>19</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="25" t="s">
         <v>90</v>
       </c>
@@ -6483,9 +6541,9 @@
       <c r="A19" s="28">
         <v>20</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="25" t="s">
         <v>91</v>
       </c>
@@ -6503,9 +6561,9 @@
       <c r="A20" s="28">
         <v>21</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="39" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="25" t="s">
@@ -6525,9 +6583,9 @@
       <c r="A21" s="28">
         <v>22</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="25" t="s">
         <v>87</v>
       </c>
@@ -6545,9 +6603,9 @@
       <c r="A22" s="28">
         <v>23</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="25" t="s">
         <v>88</v>
       </c>
@@ -6565,9 +6623,9 @@
       <c r="A23" s="28">
         <v>24</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="25" t="s">
         <v>89</v>
       </c>
@@ -6585,9 +6643,9 @@
       <c r="A24" s="28">
         <v>25</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="25" t="s">
         <v>90</v>
       </c>
@@ -6605,9 +6663,9 @@
       <c r="A25" s="28">
         <v>26</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="25" t="s">
         <v>91</v>
       </c>
@@ -6625,13 +6683,13 @@
       <c r="A26" s="28">
         <v>27</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="29" t="s">
@@ -6651,9 +6709,9 @@
       <c r="A27" s="28">
         <v>28</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="29" t="s">
         <v>11</v>
       </c>
@@ -6671,9 +6729,9 @@
       <c r="A28" s="28">
         <v>29</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="29" t="s">
         <v>13</v>
       </c>
@@ -6691,9 +6749,9 @@
       <c r="A29" s="28">
         <v>30</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="29" t="s">
         <v>14</v>
       </c>
@@ -6711,9 +6769,9 @@
       <c r="A30" s="28">
         <v>31</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="40"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="29" t="s">
         <v>17</v>
       </c>
@@ -6731,9 +6789,9 @@
       <c r="A31" s="28">
         <v>32</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="29" t="s">
@@ -6753,9 +6811,9 @@
       <c r="A32" s="28">
         <v>33</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="29" t="s">
         <v>20</v>
       </c>
@@ -6773,9 +6831,9 @@
       <c r="A33" s="28">
         <v>34</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="29" t="s">
         <v>21</v>
       </c>
@@ -6793,11 +6851,11 @@
       <c r="A34" s="28">
         <v>35</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="39" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="29" t="s">
         <v>24</v>
       </c>
@@ -6815,9 +6873,9 @@
       <c r="A35" s="28">
         <v>36</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="29" t="s">
         <v>26</v>
       </c>
@@ -6835,9 +6893,9 @@
       <c r="A36" s="28">
         <v>37</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="29" t="s">
         <v>28</v>
       </c>
@@ -6855,9 +6913,9 @@
       <c r="A37" s="28">
         <v>38</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="40"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="29" t="s">
         <v>30</v>
       </c>
@@ -6875,9 +6933,9 @@
       <c r="A38" s="28">
         <v>39</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="25" t="s">
         <v>86</v>
       </c>
@@ -6895,9 +6953,9 @@
       <c r="A39" s="28">
         <v>40</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="25" t="s">
         <v>87</v>
       </c>
@@ -6915,9 +6973,9 @@
       <c r="A40" s="28">
         <v>41</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="25" t="s">
         <v>88</v>
       </c>
@@ -6935,9 +6993,9 @@
       <c r="A41" s="28">
         <v>42</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="25" t="s">
         <v>89</v>
       </c>
@@ -6955,9 +7013,9 @@
       <c r="A42" s="28">
         <v>43</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="40"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="25" t="s">
         <v>90</v>
       </c>
@@ -6975,9 +7033,9 @@
       <c r="A43" s="28">
         <v>44</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="39" t="s">
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="25" t="s">
@@ -6997,9 +7055,9 @@
       <c r="A44" s="28">
         <v>45</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="25" t="s">
         <v>87</v>
       </c>
@@ -7017,9 +7075,9 @@
       <c r="A45" s="28">
         <v>46</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="25" t="s">
         <v>88</v>
       </c>
@@ -7037,9 +7095,9 @@
       <c r="A46" s="28">
         <v>47</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
       <c r="E46" s="25" t="s">
         <v>89</v>
       </c>
@@ -7057,9 +7115,9 @@
       <c r="A47" s="28">
         <v>48</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="25" t="s">
         <v>90</v>
       </c>
@@ -7077,9 +7135,9 @@
       <c r="A48" s="28">
         <v>49</v>
       </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
       <c r="E48" s="25" t="s">
         <v>91</v>
       </c>
@@ -7095,6 +7153,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="B26:B48"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="D26:D30"/>
@@ -7111,8 +7171,6 @@
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="C38:C48"/>
     <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="C34:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D43:D46 D31 C38:D40">
     <cfRule type="expression" dxfId="12" priority="5">
@@ -7147,7 +7205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
@@ -7209,13 +7267,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -7235,9 +7293,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -7255,9 +7313,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -7275,9 +7333,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -7295,9 +7353,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -7315,9 +7373,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -7337,9 +7395,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -7357,9 +7415,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -7377,11 +7435,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -7399,9 +7457,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -7419,9 +7477,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -7439,9 +7497,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -7459,11 +7517,11 @@
       <c r="A14" s="28">
         <v>13</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="37" t="s">
         <v>98</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -7483,9 +7541,9 @@
       <c r="A15" s="28">
         <v>14</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="15" t="s">
         <v>93</v>
       </c>
@@ -7503,9 +7561,9 @@
       <c r="A16" s="28">
         <v>15</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="15" t="s">
         <v>94</v>
       </c>
@@ -7523,9 +7581,9 @@
       <c r="A17" s="28">
         <v>16</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="15" t="s">
         <v>95</v>
       </c>
@@ -7543,11 +7601,11 @@
       <c r="A18" s="28">
         <v>17</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -7567,9 +7625,9 @@
       <c r="A19" s="28">
         <v>18</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
@@ -7587,9 +7645,9 @@
       <c r="A20" s="28">
         <v>19</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
@@ -7607,9 +7665,9 @@
       <c r="A21" s="28">
         <v>20</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="4" t="s">
         <v>43</v>
       </c>
@@ -7627,9 +7685,9 @@
       <c r="A22" s="28">
         <v>21</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="4" t="s">
         <v>46</v>
       </c>
@@ -7647,9 +7705,9 @@
       <c r="A23" s="28">
         <v>22</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="40"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="4" t="s">
         <v>44</v>
       </c>
@@ -7667,9 +7725,9 @@
       <c r="A24" s="28">
         <v>23</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="39" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -7689,9 +7747,9 @@
       <c r="A25" s="28">
         <v>24</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="4" t="s">
         <v>45</v>
       </c>
@@ -7709,9 +7767,9 @@
       <c r="A26" s="28">
         <v>25</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="4" t="s">
         <v>42</v>
       </c>
@@ -7729,9 +7787,9 @@
       <c r="A27" s="28">
         <v>26</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="4" t="s">
         <v>43</v>
       </c>
@@ -7749,9 +7807,9 @@
       <c r="A28" s="28">
         <v>27</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="4" t="s">
         <v>46</v>
       </c>
@@ -7769,9 +7827,9 @@
       <c r="A29" s="28">
         <v>28</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="4" t="s">
         <v>44</v>
       </c>
@@ -7789,13 +7847,13 @@
       <c r="A30" s="28">
         <v>29</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -7815,9 +7873,9 @@
       <c r="A31" s="28">
         <v>30</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="10" t="s">
         <v>11</v>
       </c>
@@ -7835,9 +7893,9 @@
       <c r="A32" s="28">
         <v>31</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="10" t="s">
         <v>13</v>
       </c>
@@ -7855,9 +7913,9 @@
       <c r="A33" s="28">
         <v>32</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
@@ -7875,9 +7933,9 @@
       <c r="A34" s="28">
         <v>33</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="40"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="10" t="s">
         <v>17</v>
       </c>
@@ -7895,9 +7953,9 @@
       <c r="A35" s="28">
         <v>34</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="39" t="s">
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -7917,9 +7975,9 @@
       <c r="A36" s="28">
         <v>35</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="10" t="s">
         <v>20</v>
       </c>
@@ -7937,9 +7995,9 @@
       <c r="A37" s="28">
         <v>36</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="10" t="s">
         <v>21</v>
       </c>
@@ -7957,11 +8015,11 @@
       <c r="A38" s="28">
         <v>37</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="39" t="s">
+      <c r="B38" s="38"/>
+      <c r="C38" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="39"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="10" t="s">
         <v>24</v>
       </c>
@@ -7979,9 +8037,9 @@
       <c r="A39" s="28">
         <v>38</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="10" t="s">
         <v>26</v>
       </c>
@@ -7999,9 +8057,9 @@
       <c r="A40" s="28">
         <v>39</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="10" t="s">
         <v>28</v>
       </c>
@@ -8019,9 +8077,9 @@
       <c r="A41" s="28">
         <v>40</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="10" t="s">
         <v>30</v>
       </c>
@@ -8039,11 +8097,11 @@
       <c r="A42" s="28">
         <v>41</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41" t="s">
+      <c r="B42" s="38"/>
+      <c r="C42" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="37" t="s">
         <v>98</v>
       </c>
       <c r="E42" s="32" t="s">
@@ -8063,9 +8121,9 @@
       <c r="A43" s="28">
         <v>42</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="32" t="s">
         <v>93</v>
       </c>
@@ -8083,9 +8141,9 @@
       <c r="A44" s="28">
         <v>43</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="32" t="s">
         <v>94</v>
       </c>
@@ -8103,9 +8161,9 @@
       <c r="A45" s="28">
         <v>44</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="32" t="s">
         <v>95</v>
       </c>
@@ -8123,11 +8181,11 @@
       <c r="A46" s="28">
         <v>45</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="39" t="s">
+      <c r="B46" s="38"/>
+      <c r="C46" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -8147,9 +8205,9 @@
       <c r="A47" s="28">
         <v>46</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="4" t="s">
         <v>45</v>
       </c>
@@ -8167,9 +8225,9 @@
       <c r="A48" s="28">
         <v>47</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="4" t="s">
         <v>42</v>
       </c>
@@ -8187,9 +8245,9 @@
       <c r="A49" s="28">
         <v>48</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="4" t="s">
         <v>43</v>
       </c>
@@ -8207,9 +8265,9 @@
       <c r="A50" s="28">
         <v>49</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="4" t="s">
         <v>46</v>
       </c>
@@ -8227,9 +8285,9 @@
       <c r="A51" s="28">
         <v>50</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="40"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
       <c r="E51" s="4" t="s">
         <v>44</v>
       </c>
@@ -8247,9 +8305,9 @@
       <c r="A52" s="28">
         <v>51</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="39" t="s">
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -8269,9 +8327,9 @@
       <c r="A53" s="28">
         <v>52</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
       <c r="E53" s="4" t="s">
         <v>45</v>
       </c>
@@ -8289,9 +8347,9 @@
       <c r="A54" s="28">
         <v>53</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
       <c r="E54" s="4" t="s">
         <v>42</v>
       </c>
@@ -8309,9 +8367,9 @@
       <c r="A55" s="28">
         <v>54</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="4" t="s">
         <v>43</v>
       </c>
@@ -8329,9 +8387,9 @@
       <c r="A56" s="28">
         <v>55</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="4" t="s">
         <v>46</v>
       </c>
@@ -8349,9 +8407,9 @@
       <c r="A57" s="28">
         <v>56</v>
       </c>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
       <c r="E57" s="4" t="s">
         <v>44</v>
       </c>
@@ -8367,6 +8425,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B30:B57"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C46:C57"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C42:C45"/>
     <mergeCell ref="B2:B29"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -8378,17 +8447,6 @@
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B30:B57"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C46:C57"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="C42:C45"/>
   </mergeCells>
   <conditionalFormatting sqref="C30:D30 C38:D38 D52:D55 C46:D49 D35">
     <cfRule type="expression" dxfId="7" priority="8">

--- a/test/IntegrationTest_Index.xlsx
+++ b/test/IntegrationTest_Index.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Representative" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="102">
   <si>
     <t>design</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>category panel looks different from firefox, and content page</t>
+  </si>
+  <si>
+    <t>Vegitable category button's animation text can not be read clearly</t>
   </si>
 </sst>
 </file>
@@ -539,9 +542,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -594,25 +594,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -620,6 +623,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="69">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -764,27 +788,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFE8972"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE8972"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1534,13 +1537,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1601,13 +1604,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1633,9 +1636,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1659,9 +1662,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1685,9 +1688,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1711,9 +1714,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1737,9 +1740,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1765,9 +1768,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1791,9 +1794,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1817,11 +1820,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1845,9 +1848,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1871,9 +1874,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1897,9 +1900,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1923,11 +1926,11 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1953,9 +1956,9 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1976,22 +1979,20 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="4" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="23" t="s">
         <v>73</v>
       </c>
       <c r="I16" s="3">
@@ -2000,72 +2001,68 @@
       <c r="J16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="I17" s="3">
-        <v>42870</v>
+        <v>42871</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H18" s="2"/>
       <c r="I18" s="3">
-        <v>42871</v>
+        <v>42870</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>33</v>
@@ -2087,37 +2084,43 @@
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="37" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="39" t="s">
+        <v>34</v>
+      </c>
       <c r="E21" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>33</v>
@@ -2133,49 +2136,45 @@
     </row>
     <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" s="3">
-        <v>42871</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I23" s="3">
         <v>42871</v>
       </c>
@@ -2187,23 +2186,21 @@
     </row>
     <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H24" s="2"/>
       <c r="I24" s="3">
         <v>42871</v>
       </c>
@@ -2215,13 +2212,13 @@
     </row>
     <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>33</v>
@@ -2243,53 +2240,55 @@
     </row>
     <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>5</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="4" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="I26" s="3">
-        <v>42870</v>
+        <v>42871</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>5</v>
+      </c>
       <c r="E27" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3">
         <v>42870</v>
       </c>
@@ -2301,16 +2300,16 @@
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>71</v>
@@ -2322,21 +2321,21 @@
       <c r="J28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K28" s="2"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>71</v>
@@ -2348,18 +2347,18 @@
       <c r="J29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K29" s="3"/>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>18</v>
@@ -2374,23 +2373,21 @@
       <c r="J30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K30" s="2"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40" t="s">
-        <v>6</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>71</v>
@@ -2407,16 +2404,18 @@
     </row>
     <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="E32" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>71</v>
@@ -2431,18 +2430,18 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>71</v>
@@ -2457,20 +2456,18 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="40"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>71</v>
@@ -2487,16 +2484,18 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="38"/>
       <c r="E35" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>71</v>
@@ -2513,16 +2512,16 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>71</v>
@@ -2539,16 +2538,16 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>71</v>
@@ -2563,54 +2562,54 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="3">
+        <v>42870</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40" t="s">
+      <c r="B39" s="38"/>
+      <c r="C39" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D39" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E39" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="I38" s="3">
-        <v>42871</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="3">
-        <v>42871</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
+      <c r="F39" s="36" t="s">
+        <v>33</v>
+      </c>
       <c r="G39" s="2" t="s">
         <v>72</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I39" s="3">
         <v>42871</v>
@@ -2618,29 +2617,25 @@
       <c r="J39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
-        <v>38</v>
-      </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="K39" s="3">
+        <v>42871</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="27"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>76</v>
+      <c r="H40" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="I40" s="3">
         <v>42871</v>
@@ -2648,48 +2643,138 @@
       <c r="J40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+    </row>
+    <row r="41" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" s="3">
         <v>42871</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="J41" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="27"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42" s="3">
+        <v>42871</v>
+      </c>
+      <c r="L42" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
+        <v>38</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" s="3">
+        <v>42871</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="B26:B40"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C40"/>
+  <mergeCells count="24">
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="D42:D43"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="B2:B26"/>
+    <mergeCell ref="C14:C26"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="B27:B43"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D39:D41"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:L38 E40:L40 G39:L39">
-    <cfRule type="expression" dxfId="68" priority="4">
+  <conditionalFormatting sqref="E2:L16 G17:L17 E18:L40 G41:L43">
+    <cfRule type="expression" dxfId="68" priority="7">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="8">
+    <cfRule type="expression" dxfId="67" priority="11">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="9">
+    <cfRule type="expression" dxfId="66" priority="12">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E42:F42">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$K42 &lt;&gt; ""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$G42="NG"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$G42="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G43">
       <formula1>"OK, NG"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2767,13 +2852,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -2793,9 +2878,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -2813,9 +2898,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -2833,9 +2918,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -2853,9 +2938,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -2871,9 +2956,9 @@
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2891,9 +2976,9 @@
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -2909,9 +2994,9 @@
     </row>
     <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -2929,11 +3014,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -2951,9 +3036,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2971,9 +3056,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -2991,9 +3076,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -3011,11 +3096,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -3043,9 +3128,9 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -3069,9 +3154,9 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -3095,9 +3180,9 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3121,9 +3206,9 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -3149,9 +3234,9 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -3177,9 +3262,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="37" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3207,9 +3292,9 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -3233,9 +3318,9 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -3259,29 +3344,29 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="21" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
+      <c r="F23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -3307,9 +3392,9 @@
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -3335,13 +3420,13 @@
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -3361,9 +3446,9 @@
       <c r="A27" s="7">
         <v>30</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
@@ -3381,9 +3466,9 @@
       <c r="A28" s="7">
         <v>31</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
@@ -3401,9 +3486,9 @@
       <c r="A29" s="7">
         <v>32</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
@@ -3421,9 +3506,9 @@
       <c r="A30" s="7">
         <v>33</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
@@ -3441,9 +3526,9 @@
       <c r="A31" s="7">
         <v>34</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -3463,9 +3548,9 @@
       <c r="A32" s="7">
         <v>35</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
@@ -3483,9 +3568,9 @@
       <c r="A33" s="7">
         <v>36</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
@@ -3503,65 +3588,65 @@
       <c r="A34" s="7">
         <v>34</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="23">
+      <c r="H34" s="19"/>
+      <c r="I34" s="22">
         <v>42871</v>
       </c>
-      <c r="J34" s="20" t="s">
+      <c r="J34" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
     </row>
     <row r="35" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>35</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="19" t="s">
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="23">
+      <c r="H35" s="19"/>
+      <c r="I35" s="22">
         <v>42871</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>37</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40" t="s">
+      <c r="B36" s="38"/>
+      <c r="C36" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="40"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="13" t="s">
         <v>24</v>
       </c>
@@ -3579,9 +3664,9 @@
       <c r="A37" s="7">
         <v>38</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="13" t="s">
         <v>26</v>
       </c>
@@ -3599,9 +3684,9 @@
       <c r="A38" s="7">
         <v>39</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="13" t="s">
         <v>28</v>
       </c>
@@ -3619,9 +3704,9 @@
       <c r="A39" s="7">
         <v>40</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="13" t="s">
         <v>30</v>
       </c>
@@ -3639,17 +3724,17 @@
       <c r="A40" s="7">
         <v>41</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40" t="s">
+      <c r="B40" s="38"/>
+      <c r="C40" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="42" t="s">
         <v>33</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -3672,36 +3757,36 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="28"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="24" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="23" t="s">
         <v>85</v>
       </c>
       <c r="I41" s="3">
         <v>42871</v>
       </c>
-      <c r="J41" s="24" t="s">
+      <c r="J41" s="23" t="s">
         <v>84</v>
       </c>
       <c r="K41" s="3"/>
-      <c r="L41" s="24"/>
+      <c r="L41" s="23"/>
     </row>
     <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>42</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
       <c r="G42" s="2" t="s">
         <v>72</v>
       </c>
@@ -3725,15 +3810,15 @@
       <c r="A43" s="7">
         <v>43</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40" t="s">
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="42" t="s">
         <v>33</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -3759,11 +3844,11 @@
       <c r="A44" s="7">
         <v>44</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
       <c r="G44" s="2" t="s">
         <v>72</v>
       </c>
@@ -3781,6 +3866,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="B26:B44"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C40:C44"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -3789,21 +3889,6 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B26:B44"/>
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:L6 G7:L9 F40:G40 I40:L40 E34:L39 E10:L30 E43:F43 K41:L44 F41">
     <cfRule type="expression" dxfId="65" priority="54">
@@ -3929,7 +4014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3994,13 +4079,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -4020,9 +4105,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -4040,9 +4125,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -4060,9 +4145,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -4080,9 +4165,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -4100,9 +4185,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -4122,9 +4207,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -4142,9 +4227,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -4162,11 +4247,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -4184,9 +4269,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -4204,9 +4289,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -4224,9 +4309,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -4244,11 +4329,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -4274,23 +4359,23 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="24"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="3">
         <v>42871</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="23" t="s">
         <v>84</v>
       </c>
       <c r="K15" s="2"/>
@@ -4300,23 +4385,23 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="24"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="3">
         <v>42871</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="23" t="s">
         <v>84</v>
       </c>
       <c r="K16" s="2"/>
@@ -4326,23 +4411,23 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="24"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="3">
         <v>42871</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="23" t="s">
         <v>84</v>
       </c>
       <c r="K17" s="2"/>
@@ -4352,23 +4437,23 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="24"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="3">
         <v>42871</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="23" t="s">
         <v>84</v>
       </c>
       <c r="K18" s="2"/>
@@ -4378,23 +4463,23 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="24"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="3">
         <v>42871</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="23" t="s">
         <v>84</v>
       </c>
       <c r="K19" s="2"/>
@@ -4404,9 +4489,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="37" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -4415,14 +4500,14 @@
       <c r="F20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="24"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="3">
         <v>42871</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="23" t="s">
         <v>84</v>
       </c>
       <c r="K20" s="2"/>
@@ -4432,23 +4517,23 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="24"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="3">
         <v>42871</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="23" t="s">
         <v>84</v>
       </c>
       <c r="K21" s="2"/>
@@ -4458,23 +4543,23 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="24"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="3">
         <v>42871</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="23" t="s">
         <v>84</v>
       </c>
       <c r="K22" s="2"/>
@@ -4484,23 +4569,23 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="24"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="3">
         <v>42871</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="23" t="s">
         <v>84</v>
       </c>
       <c r="K23" s="2"/>
@@ -4510,23 +4595,23 @@
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="24"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="3">
         <v>42871</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="23" t="s">
         <v>84</v>
       </c>
       <c r="K24" s="2"/>
@@ -4536,347 +4621,340 @@
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="24"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="3">
         <v>42871</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="23" t="s">
         <v>84</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="28">
+      <c r="A26" s="27">
         <v>29</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="30"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="28">
+      <c r="A27" s="27">
         <v>30</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="29" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="30"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="28">
+      <c r="A28" s="27">
         <v>31</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="29" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="28">
+      <c r="A29" s="27">
         <v>32</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="29" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="30"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="28">
-        <v>33</v>
-      </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="29" t="s">
+      <c r="A30" s="27">
+        <v>33</v>
+      </c>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="28">
+      <c r="A31" s="27">
         <v>34</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="37" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="28">
+      <c r="A32" s="27">
         <v>35</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="29" t="s">
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
     </row>
     <row r="33" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="28">
+      <c r="A33" s="27">
         <v>36</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="29" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="28">
+      <c r="A34" s="27">
         <v>37</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="37" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="32" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="28">
+      <c r="A35" s="27">
         <v>38</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="32" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="28">
+      <c r="A36" s="27">
         <v>39</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="32" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="28">
+      <c r="A37" s="27">
         <v>40</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="32" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
     </row>
     <row r="38" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A38" s="28">
+      <c r="A38" s="27">
         <v>41</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="37" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="24" t="s">
+      <c r="F38" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="23" t="s">
         <v>99</v>
       </c>
       <c r="I38" s="3">
         <v>42871</v>
       </c>
-      <c r="J38" s="24" t="s">
+      <c r="J38" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A39" s="28"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="35" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="24" t="s">
+      <c r="F39" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="23" t="s">
         <v>99</v>
       </c>
       <c r="I39" s="3">
         <v>42871</v>
       </c>
-      <c r="J39" s="24" t="s">
+      <c r="J39" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C39"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -4886,6 +4964,13 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <conditionalFormatting sqref="K39:L39 E2:L38">
     <cfRule type="expression" dxfId="35" priority="28">
@@ -4899,35 +4984,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:G39">
-    <cfRule type="expression" dxfId="29" priority="7">
+    <cfRule type="expression" dxfId="32" priority="7">
       <formula>$K39 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" dxfId="31" priority="8">
       <formula>$G39="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="30" priority="9">
       <formula>$G39="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>$K39 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="28" priority="5">
       <formula>$G39="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="6">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>$G39="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:J39">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>$K39 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>$G39="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>$G39="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5007,13 +5092,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -5033,9 +5118,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -5053,9 +5138,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -5073,9 +5158,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -5093,9 +5178,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -5113,9 +5198,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -5135,9 +5220,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -5155,9 +5240,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -5175,11 +5260,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -5197,9 +5282,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -5217,9 +5302,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -5237,9 +5322,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -5257,9 +5342,9 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="39" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -5279,9 +5364,9 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="15" t="s">
         <v>67</v>
       </c>
@@ -5299,9 +5384,9 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="15" t="s">
         <v>68</v>
       </c>
@@ -5319,9 +5404,9 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="15" t="s">
         <v>69</v>
       </c>
@@ -5339,11 +5424,11 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="37" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -5363,9 +5448,9 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
@@ -5383,9 +5468,9 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
@@ -5403,9 +5488,9 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="4" t="s">
         <v>43</v>
       </c>
@@ -5423,9 +5508,9 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="4" t="s">
         <v>46</v>
       </c>
@@ -5443,9 +5528,9 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="4" t="s">
         <v>44</v>
       </c>
@@ -5463,9 +5548,9 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="37" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -5485,9 +5570,9 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="4" t="s">
         <v>45</v>
       </c>
@@ -5505,9 +5590,9 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="4" t="s">
         <v>42</v>
       </c>
@@ -5525,9 +5610,9 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="4" t="s">
         <v>43</v>
       </c>
@@ -5545,9 +5630,9 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="4" t="s">
         <v>46</v>
       </c>
@@ -5565,9 +5650,9 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="4" t="s">
         <v>44</v>
       </c>
@@ -5585,13 +5670,13 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -5611,9 +5696,9 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="10" t="s">
         <v>11</v>
       </c>
@@ -5631,9 +5716,9 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="10" t="s">
         <v>13</v>
       </c>
@@ -5651,9 +5736,9 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
@@ -5671,9 +5756,9 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="10" t="s">
         <v>17</v>
       </c>
@@ -5691,9 +5776,9 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="37" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -5713,9 +5798,9 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="10" t="s">
         <v>20</v>
       </c>
@@ -5733,9 +5818,9 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="10" t="s">
         <v>21</v>
       </c>
@@ -5753,11 +5838,11 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="37" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="37"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="10" t="s">
         <v>24</v>
       </c>
@@ -5775,9 +5860,9 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="10" t="s">
         <v>26</v>
       </c>
@@ -5795,9 +5880,9 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
       <c r="E40" s="10" t="s">
         <v>28</v>
       </c>
@@ -5815,9 +5900,9 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="39"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="40"/>
       <c r="E41" s="10" t="s">
         <v>30</v>
       </c>
@@ -5835,9 +5920,9 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="37" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="39" t="s">
         <v>62</v>
       </c>
       <c r="E42" s="13" t="s">
@@ -5857,9 +5942,9 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
       <c r="E43" s="13" t="s">
         <v>67</v>
       </c>
@@ -5877,9 +5962,9 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
       <c r="E44" s="13" t="s">
         <v>68</v>
       </c>
@@ -5897,9 +5982,9 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
       <c r="E45" s="13" t="s">
         <v>69</v>
       </c>
@@ -5917,11 +6002,11 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="37" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -5941,9 +6026,9 @@
       <c r="A47" s="7">
         <v>51</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="37" t="s">
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -5963,9 +6048,9 @@
       <c r="A48" s="7">
         <v>52</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="4" t="s">
         <v>45</v>
       </c>
@@ -5983,9 +6068,9 @@
       <c r="A49" s="7">
         <v>53</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="4" t="s">
         <v>42</v>
       </c>
@@ -6003,9 +6088,9 @@
       <c r="A50" s="7">
         <v>54</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
       <c r="E50" s="4" t="s">
         <v>43</v>
       </c>
@@ -6023,9 +6108,9 @@
       <c r="A51" s="7">
         <v>55</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
       <c r="E51" s="4" t="s">
         <v>46</v>
       </c>
@@ -6043,9 +6128,9 @@
       <c r="A52" s="7">
         <v>56</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
       <c r="E52" s="4" t="s">
         <v>44</v>
       </c>
@@ -6061,15 +6146,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B30:B52"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="D42:D45"/>
     <mergeCell ref="B2:B29"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -6080,34 +6156,43 @@
     <mergeCell ref="D24:D29"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="C10:C17"/>
+    <mergeCell ref="B30:B52"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="D42:D45"/>
   </mergeCells>
   <conditionalFormatting sqref="C30:D30 C38:D38 D47:D50 D35 C46:D46">
-    <cfRule type="expression" dxfId="20" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>$G30="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>$G30="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L41 G42:L45 E46:L52">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="20" priority="7">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="19" priority="8">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F45">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6146,1018 +6231,1013 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="28">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="28">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="29" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="28">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="29" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="28">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="29" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="28">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="29" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="28">
+      <c r="A7" s="27">
         <v>6</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="28">
+      <c r="A8" s="27">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="29" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28">
+      <c r="A9" s="27">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="29" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="28">
+      <c r="A10" s="27">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="32" t="s">
+      <c r="D10" s="39"/>
+      <c r="E10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="28">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="32" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="28">
+      <c r="A12" s="27">
         <v>11</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="32" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="28">
+      <c r="A13" s="27">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="32" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="28">
+      <c r="A14" s="27">
         <v>15</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="F14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="28">
+      <c r="A15" s="27">
         <v>16</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="25" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
+      <c r="F15" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="28">
+      <c r="A16" s="27">
         <v>17</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="25" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="F16" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="28">
+      <c r="A17" s="27">
         <v>18</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="25" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
+      <c r="F17" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="28">
+      <c r="A18" s="27">
         <v>19</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="25" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+      <c r="F18" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="28">
+      <c r="A19" s="27">
         <v>20</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="25" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
+      <c r="F19" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="28">
+      <c r="A20" s="27">
         <v>21</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="37" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
+      <c r="F20" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="28">
+      <c r="A21" s="27">
         <v>22</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="25" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
+      <c r="F21" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="28">
+      <c r="A22" s="27">
         <v>23</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="25" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="F22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="28">
+      <c r="A23" s="27">
         <v>24</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="25" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
+      <c r="F23" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="28">
+      <c r="A24" s="27">
         <v>25</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="25" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="F24" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="28">
+      <c r="A25" s="27">
         <v>26</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="25" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
+      <c r="F25" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
     </row>
     <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="28">
+      <c r="A26" s="27">
         <v>27</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="28">
+      <c r="A27" s="27">
         <v>28</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="29" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="28">
+      <c r="A28" s="27">
         <v>29</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="29" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="28">
+      <c r="A29" s="27">
         <v>30</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="29" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="28">
+      <c r="A30" s="27">
         <v>31</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="29" t="s">
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="28">
+      <c r="A31" s="27">
         <v>32</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="37" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="28">
-        <v>33</v>
-      </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="29" t="s">
+      <c r="A32" s="27">
+        <v>33</v>
+      </c>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="28">
+      <c r="A33" s="27">
         <v>34</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="29" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="28">
+      <c r="A34" s="27">
         <v>35</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="37" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="29" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="28">
+      <c r="A35" s="27">
         <v>36</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="29" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="28">
+      <c r="A36" s="27">
         <v>37</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="29" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="28">
+      <c r="A37" s="27">
         <v>38</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="29" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
     </row>
     <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="28">
+      <c r="A38" s="27">
         <v>39</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="25" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
+      <c r="F38" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="28">
+      <c r="A39" s="27">
         <v>40</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="25" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="F39" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="28">
+      <c r="A40" s="27">
         <v>41</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="25" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
+      <c r="F40" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="28">
+      <c r="A41" s="27">
         <v>42</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="25" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="F41" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
+      <c r="F41" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
     </row>
     <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="28">
+      <c r="A42" s="27">
         <v>43</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="25" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
+      <c r="F42" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="28">
+      <c r="A43" s="27">
         <v>44</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="37" t="s">
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
+      <c r="F43" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="28">
+      <c r="A44" s="27">
         <v>45</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="25" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
+      <c r="F44" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
     </row>
     <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="28">
+      <c r="A45" s="27">
         <v>46</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="25" t="s">
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F45" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
+      <c r="F45" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
     </row>
     <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="28">
+      <c r="A46" s="27">
         <v>47</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="25" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="F46" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
+      <c r="F46" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
     </row>
     <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="28">
+      <c r="A47" s="27">
         <v>48</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="25" t="s">
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
+      <c r="F47" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
     </row>
     <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="28">
+      <c r="A48" s="27">
         <v>49</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="25" t="s">
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F48" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
+      <c r="F48" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B26:B48"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -7167,27 +7247,32 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B26:B48"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="C38:C48"/>
     <mergeCell ref="D38:D42"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D43:D46 D31 C38:D40">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>$G26="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>$G26="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L48">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7267,13 +7352,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -7293,9 +7378,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -7313,9 +7398,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -7333,9 +7418,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -7353,9 +7438,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -7373,9 +7458,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -7395,9 +7480,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -7415,9 +7500,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -7435,11 +7520,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -7457,9 +7542,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -7477,9 +7562,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -7497,9 +7582,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -7514,14 +7599,14 @@
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="28">
+      <c r="A14" s="27">
         <v>13</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="39" t="s">
         <v>98</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -7538,12 +7623,12 @@
       <c r="L14" s="16"/>
     </row>
     <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="28">
+      <c r="A15" s="27">
         <v>14</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="15" t="s">
         <v>93</v>
       </c>
@@ -7558,12 +7643,12 @@
       <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="28">
+      <c r="A16" s="27">
         <v>15</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="15" t="s">
         <v>94</v>
       </c>
@@ -7578,12 +7663,12 @@
       <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="28">
+      <c r="A17" s="27">
         <v>16</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="15" t="s">
         <v>95</v>
       </c>
@@ -7598,14 +7683,14 @@
       <c r="L17" s="16"/>
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="28">
+      <c r="A18" s="27">
         <v>17</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="37" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -7622,12 +7707,12 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="28">
+      <c r="A19" s="27">
         <v>18</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
@@ -7642,12 +7727,12 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="28">
+      <c r="A20" s="27">
         <v>19</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
@@ -7662,12 +7747,12 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="28">
+      <c r="A21" s="27">
         <v>20</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="4" t="s">
         <v>43</v>
       </c>
@@ -7682,12 +7767,12 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="28">
+      <c r="A22" s="27">
         <v>21</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="4" t="s">
         <v>46</v>
       </c>
@@ -7702,12 +7787,12 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="28">
+      <c r="A23" s="27">
         <v>22</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="4" t="s">
         <v>44</v>
       </c>
@@ -7722,12 +7807,12 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="28">
+      <c r="A24" s="27">
         <v>23</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="37" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -7744,12 +7829,12 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="28">
+      <c r="A25" s="27">
         <v>24</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="4" t="s">
         <v>45</v>
       </c>
@@ -7764,12 +7849,12 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="28">
+      <c r="A26" s="27">
         <v>25</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="4" t="s">
         <v>42</v>
       </c>
@@ -7784,12 +7869,12 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="28">
+      <c r="A27" s="27">
         <v>26</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="4" t="s">
         <v>43</v>
       </c>
@@ -7804,12 +7889,12 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="28">
+      <c r="A28" s="27">
         <v>27</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="4" t="s">
         <v>46</v>
       </c>
@@ -7824,12 +7909,12 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="28">
+      <c r="A29" s="27">
         <v>28</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="4" t="s">
         <v>44</v>
       </c>
@@ -7844,16 +7929,16 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="28">
+      <c r="A30" s="27">
         <v>29</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -7870,12 +7955,12 @@
       <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="28">
+      <c r="A31" s="27">
         <v>30</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="10" t="s">
         <v>11</v>
       </c>
@@ -7890,12 +7975,12 @@
       <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="28">
+      <c r="A32" s="27">
         <v>31</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="10" t="s">
         <v>13</v>
       </c>
@@ -7910,12 +7995,12 @@
       <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="28">
+      <c r="A33" s="27">
         <v>32</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
@@ -7930,12 +8015,12 @@
       <c r="L33" s="11"/>
     </row>
     <row r="34" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="28">
-        <v>33</v>
-      </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
+      <c r="A34" s="27">
+        <v>33</v>
+      </c>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="10" t="s">
         <v>17</v>
       </c>
@@ -7950,12 +8035,12 @@
       <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="28">
+      <c r="A35" s="27">
         <v>34</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="37" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -7972,12 +8057,12 @@
       <c r="L35" s="11"/>
     </row>
     <row r="36" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="28">
+      <c r="A36" s="27">
         <v>35</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="10" t="s">
         <v>20</v>
       </c>
@@ -7992,12 +8077,12 @@
       <c r="L36" s="11"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="28">
+      <c r="A37" s="27">
         <v>36</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="10" t="s">
         <v>21</v>
       </c>
@@ -8012,14 +8097,14 @@
       <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="28">
+      <c r="A38" s="27">
         <v>37</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="37" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="37"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="10" t="s">
         <v>24</v>
       </c>
@@ -8034,12 +8119,12 @@
       <c r="L38" s="11"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="28">
+      <c r="A39" s="27">
         <v>38</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="10" t="s">
         <v>26</v>
       </c>
@@ -8054,12 +8139,12 @@
       <c r="L39" s="11"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="28">
+      <c r="A40" s="27">
         <v>39</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
       <c r="E40" s="10" t="s">
         <v>28</v>
       </c>
@@ -8074,12 +8159,12 @@
       <c r="L40" s="11"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="28">
+      <c r="A41" s="27">
         <v>40</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
       <c r="E41" s="10" t="s">
         <v>30</v>
       </c>
@@ -8094,98 +8179,98 @@
       <c r="L41" s="11"/>
     </row>
     <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="28">
+      <c r="A42" s="27">
         <v>41</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="F42" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
     </row>
     <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="28">
+      <c r="A43" s="27">
         <v>42</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="32" t="s">
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="F43" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
     </row>
     <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="28">
+      <c r="A44" s="27">
         <v>43</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="32" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="F44" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
     </row>
     <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="28">
+      <c r="A45" s="27">
         <v>44</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="32" t="s">
+      <c r="B45" s="41"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
     </row>
     <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="28">
+      <c r="A46" s="27">
         <v>45</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="37" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -8202,12 +8287,12 @@
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="28">
+      <c r="A47" s="27">
         <v>46</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
       <c r="E47" s="4" t="s">
         <v>45</v>
       </c>
@@ -8222,12 +8307,12 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="28">
+      <c r="A48" s="27">
         <v>47</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="4" t="s">
         <v>42</v>
       </c>
@@ -8242,12 +8327,12 @@
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="28">
+      <c r="A49" s="27">
         <v>48</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="4" t="s">
         <v>43</v>
       </c>
@@ -8262,12 +8347,12 @@
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="28">
+      <c r="A50" s="27">
         <v>49</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
       <c r="E50" s="4" t="s">
         <v>46</v>
       </c>
@@ -8282,12 +8367,12 @@
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="28">
+      <c r="A51" s="27">
         <v>50</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="40"/>
       <c r="E51" s="4" t="s">
         <v>44</v>
       </c>
@@ -8302,12 +8387,12 @@
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="28">
+      <c r="A52" s="27">
         <v>51</v>
       </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="37" t="s">
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -8324,12 +8409,12 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="28">
+      <c r="A53" s="27">
         <v>52</v>
       </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
       <c r="E53" s="4" t="s">
         <v>45</v>
       </c>
@@ -8344,12 +8429,12 @@
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="28">
+      <c r="A54" s="27">
         <v>53</v>
       </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
       <c r="E54" s="4" t="s">
         <v>42</v>
       </c>
@@ -8364,12 +8449,12 @@
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="28">
+      <c r="A55" s="27">
         <v>54</v>
       </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
       <c r="E55" s="4" t="s">
         <v>43</v>
       </c>
@@ -8384,12 +8469,12 @@
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="28">
+      <c r="A56" s="27">
         <v>55</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
       <c r="E56" s="4" t="s">
         <v>46</v>
       </c>
@@ -8404,12 +8489,12 @@
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="28">
+      <c r="A57" s="27">
         <v>56</v>
       </c>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
       <c r="E57" s="4" t="s">
         <v>44</v>
       </c>
@@ -8425,6 +8510,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:B29"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C18:C29"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C14:C17"/>
     <mergeCell ref="B30:B57"/>
     <mergeCell ref="C30:C37"/>
     <mergeCell ref="D30:D34"/>
@@ -8436,45 +8532,34 @@
     <mergeCell ref="C38:C41"/>
     <mergeCell ref="D42:D45"/>
     <mergeCell ref="C42:C45"/>
-    <mergeCell ref="B2:B29"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C18:C29"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="C14:C17"/>
   </mergeCells>
   <conditionalFormatting sqref="C30:D30 C38:D38 D52:D55 C46:D49 D35">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>$G30="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$G30="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L41 E46:L57 G42:L45">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F45">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/IntegrationTest_Index.xlsx
+++ b/test/IntegrationTest_Index.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230"/>
   </bookViews>
   <sheets>
     <sheet name="Representative" sheetId="9" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -600,9 +600,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -612,38 +609,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="69">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE8972"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -788,6 +768,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE8972"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1423,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1453,8 +1454,8 @@
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>55</v>
+      <c r="C2" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>56</v>
@@ -1468,7 +1469,7 @@
         <v>55</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>55</v>
@@ -1481,8 +1482,8 @@
       <c r="B4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>55</v>
+      <c r="C4" s="44" t="s">
+        <v>84</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>56</v>
@@ -1539,7 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1604,13 +1605,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1636,9 +1637,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1662,9 +1663,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1688,9 +1689,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1714,9 +1715,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1740,9 +1741,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1768,9 +1769,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1794,9 +1795,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1820,11 +1821,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1848,9 +1849,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1874,9 +1875,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1900,9 +1901,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1926,11 +1927,11 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1956,9 +1957,9 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1980,9 +1981,9 @@
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="27"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="36" t="s">
         <v>42</v>
       </c>
@@ -2008,9 +2009,9 @@
       <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
       <c r="G17" s="2" t="s">
@@ -2032,9 +2033,9 @@
       <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="4" t="s">
         <v>43</v>
       </c>
@@ -2058,9 +2059,9 @@
       <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="4" t="s">
         <v>46</v>
       </c>
@@ -2086,9 +2087,9 @@
       <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="4" t="s">
         <v>44</v>
       </c>
@@ -2114,9 +2115,9 @@
       <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="39" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="38" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -2138,9 +2139,9 @@
       <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="4" t="s">
         <v>45</v>
       </c>
@@ -2160,9 +2161,9 @@
       <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="4" t="s">
         <v>42</v>
       </c>
@@ -2188,9 +2189,9 @@
       <c r="A24" s="7">
         <v>22</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="4" t="s">
         <v>43</v>
       </c>
@@ -2214,9 +2215,9 @@
       <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="4" t="s">
         <v>46</v>
       </c>
@@ -2242,9 +2243,9 @@
       <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="4" t="s">
         <v>44</v>
       </c>
@@ -2270,13 +2271,13 @@
       <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="41" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -2302,9 +2303,9 @@
       <c r="A28" s="7">
         <v>26</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="4" t="s">
         <v>11</v>
       </c>
@@ -2328,9 +2329,9 @@
       <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
@@ -2354,9 +2355,9 @@
       <c r="A30" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="4" t="s">
         <v>14</v>
       </c>
@@ -2380,9 +2381,9 @@
       <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="4" t="s">
         <v>17</v>
       </c>
@@ -2406,9 +2407,9 @@
       <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38" t="s">
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -2434,9 +2435,9 @@
       <c r="A33" s="7">
         <v>31</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="4" t="s">
         <v>20</v>
       </c>
@@ -2460,9 +2461,9 @@
       <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
       <c r="E34" s="4" t="s">
         <v>21</v>
       </c>
@@ -2486,11 +2487,11 @@
       <c r="A35" s="7">
         <v>33</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="38"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="4" t="s">
         <v>24</v>
       </c>
@@ -2514,9 +2515,9 @@
       <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="4" t="s">
         <v>26</v>
       </c>
@@ -2540,9 +2541,9 @@
       <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
       <c r="E37" s="4" t="s">
         <v>28</v>
       </c>
@@ -2566,9 +2567,9 @@
       <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
       <c r="E38" s="4" t="s">
         <v>30</v>
       </c>
@@ -2592,11 +2593,11 @@
       <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="38" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="36" t="s">
@@ -2626,11 +2627,11 @@
     </row>
     <row r="40" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="27"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
       <c r="G40" s="23" t="s">
         <v>72</v>
       </c>
@@ -2648,9 +2649,9 @@
     </row>
     <row r="41" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="40"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="37"/>
       <c r="F41" s="37"/>
       <c r="G41" s="2" t="s">
@@ -2670,9 +2671,9 @@
     </row>
     <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="27"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="39" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="38" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="36" t="s">
@@ -2704,9 +2705,9 @@
       <c r="A43" s="7">
         <v>38</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="40"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="39"/>
       <c r="E43" s="37"/>
       <c r="F43" s="37"/>
       <c r="G43" s="23" t="s">
@@ -2726,16 +2727,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="D21:D26"/>
     <mergeCell ref="B2:B26"/>
     <mergeCell ref="C14:C26"/>
     <mergeCell ref="C10:C13"/>
@@ -2744,6 +2735,16 @@
     <mergeCell ref="C27:C34"/>
     <mergeCell ref="C35:C38"/>
     <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="D42:D43"/>
     <mergeCell ref="E39:E41"/>
     <mergeCell ref="F39:F41"/>
     <mergeCell ref="D27:D31"/>
@@ -2763,13 +2764,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F42">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="65" priority="1">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="64" priority="2">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="63" priority="3">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2852,13 +2853,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -2878,9 +2879,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -2898,9 +2899,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -2918,9 +2919,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -2938,9 +2939,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -2956,9 +2957,9 @@
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2976,9 +2977,9 @@
     </row>
     <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -2994,9 +2995,9 @@
     </row>
     <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -3014,11 +3015,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -3036,9 +3037,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -3056,9 +3057,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -3076,9 +3077,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -3096,11 +3097,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -3128,9 +3129,9 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -3154,9 +3155,9 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -3180,9 +3181,9 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3206,9 +3207,9 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -3234,9 +3235,9 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -3262,9 +3263,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="39" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="38" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3292,9 +3293,9 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -3318,9 +3319,9 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -3344,9 +3345,9 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="20" t="s">
         <v>43</v>
       </c>
@@ -3364,9 +3365,9 @@
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -3392,9 +3393,9 @@
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -3420,13 +3421,13 @@
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="41" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -3446,9 +3447,9 @@
       <c r="A27" s="7">
         <v>30</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
@@ -3466,9 +3467,9 @@
       <c r="A28" s="7">
         <v>31</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
@@ -3486,9 +3487,9 @@
       <c r="A29" s="7">
         <v>32</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
@@ -3506,9 +3507,9 @@
       <c r="A30" s="7">
         <v>33</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
@@ -3526,9 +3527,9 @@
       <c r="A31" s="7">
         <v>34</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -3548,9 +3549,9 @@
       <c r="A32" s="7">
         <v>35</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
@@ -3568,9 +3569,9 @@
       <c r="A33" s="7">
         <v>36</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
@@ -3588,9 +3589,9 @@
       <c r="A34" s="7">
         <v>34</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41" t="s">
         <v>79</v>
       </c>
       <c r="E34" s="18" t="s">
@@ -3616,9 +3617,9 @@
       <c r="A35" s="7">
         <v>35</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="18" t="s">
         <v>82</v>
       </c>
@@ -3642,11 +3643,11 @@
       <c r="A36" s="7">
         <v>37</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="38"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="13" t="s">
         <v>24</v>
       </c>
@@ -3664,9 +3665,9 @@
       <c r="A37" s="7">
         <v>38</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
       <c r="E37" s="13" t="s">
         <v>26</v>
       </c>
@@ -3684,9 +3685,9 @@
       <c r="A38" s="7">
         <v>39</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
       <c r="E38" s="13" t="s">
         <v>28</v>
       </c>
@@ -3704,9 +3705,9 @@
       <c r="A39" s="7">
         <v>40</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="13" t="s">
         <v>30</v>
       </c>
@@ -3724,17 +3725,17 @@
       <c r="A40" s="7">
         <v>41</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="42" t="s">
+      <c r="F40" s="43" t="s">
         <v>33</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -3758,11 +3759,11 @@
     </row>
     <row r="41" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="27"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
       <c r="G41" s="23" t="s">
         <v>72</v>
       </c>
@@ -3782,11 +3783,11 @@
       <c r="A42" s="7">
         <v>42</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
       <c r="G42" s="2" t="s">
         <v>72</v>
       </c>
@@ -3810,15 +3811,15 @@
       <c r="A43" s="7">
         <v>43</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38" t="s">
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F43" s="43" t="s">
         <v>33</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -3844,11 +3845,11 @@
       <c r="A44" s="7">
         <v>44</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
       <c r="G44" s="2" t="s">
         <v>72</v>
       </c>
@@ -3866,6 +3867,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B26:B44"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C40:C44"/>
     <mergeCell ref="F40:F42"/>
     <mergeCell ref="F43:F44"/>
     <mergeCell ref="E43:E44"/>
@@ -3874,129 +3890,114 @@
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="E40:E42"/>
-    <mergeCell ref="B26:B44"/>
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:L6 G7:L9 F40:G40 I40:L40 E34:L39 E10:L30 E43:F43 K41:L44 F41">
-    <cfRule type="expression" dxfId="65" priority="54">
+    <cfRule type="expression" dxfId="62" priority="54">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="57">
+    <cfRule type="expression" dxfId="61" priority="57">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="58">
+    <cfRule type="expression" dxfId="60" priority="58">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E41">
-    <cfRule type="expression" dxfId="62" priority="43">
+    <cfRule type="expression" dxfId="59" priority="43">
       <formula>$K40 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="44">
+    <cfRule type="expression" dxfId="58" priority="44">
       <formula>$G40="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="45">
+    <cfRule type="expression" dxfId="57" priority="45">
       <formula>$G40="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:F9">
-    <cfRule type="expression" dxfId="59" priority="37">
+    <cfRule type="expression" dxfId="56" priority="37">
       <formula>$K7 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="38">
+    <cfRule type="expression" dxfId="55" priority="38">
       <formula>$G7="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="39">
+    <cfRule type="expression" dxfId="54" priority="39">
       <formula>$G7="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:L33">
-    <cfRule type="expression" dxfId="56" priority="34">
+    <cfRule type="expression" dxfId="53" priority="34">
       <formula>$K31 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="35">
+    <cfRule type="expression" dxfId="52" priority="35">
       <formula>$G31="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="36">
+    <cfRule type="expression" dxfId="51" priority="36">
       <formula>$G31="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="expression" dxfId="53" priority="31">
+    <cfRule type="expression" dxfId="50" priority="31">
       <formula>$K40 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="32">
+    <cfRule type="expression" dxfId="49" priority="32">
       <formula>$G40="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="33">
+    <cfRule type="expression" dxfId="48" priority="33">
       <formula>$G40="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:J42">
-    <cfRule type="expression" dxfId="50" priority="22">
+    <cfRule type="expression" dxfId="47" priority="22">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="23">
+    <cfRule type="expression" dxfId="46" priority="23">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="24">
+    <cfRule type="expression" dxfId="45" priority="24">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43 I43:J43">
-    <cfRule type="expression" dxfId="47" priority="19">
+    <cfRule type="expression" dxfId="44" priority="19">
       <formula>$K43 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="20">
+    <cfRule type="expression" dxfId="43" priority="20">
       <formula>$G43="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="21">
+    <cfRule type="expression" dxfId="42" priority="21">
       <formula>$G43="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="expression" dxfId="44" priority="16">
+    <cfRule type="expression" dxfId="41" priority="16">
       <formula>$K43 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="17">
+    <cfRule type="expression" dxfId="40" priority="17">
       <formula>$G43="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="18">
+    <cfRule type="expression" dxfId="39" priority="18">
       <formula>$G43="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:J44">
-    <cfRule type="expression" dxfId="41" priority="13">
+    <cfRule type="expression" dxfId="38" priority="13">
       <formula>$K44 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="14">
+    <cfRule type="expression" dxfId="37" priority="14">
       <formula>$G44="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="15">
+    <cfRule type="expression" dxfId="36" priority="15">
       <formula>$G44="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:J41">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>$K41 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>$G41="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>$G41="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4015,10 +4016,10 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4079,13 +4080,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -4105,9 +4106,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -4125,9 +4126,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -4145,9 +4146,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -4165,9 +4166,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -4185,9 +4186,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -4207,9 +4208,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -4227,9 +4228,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -4247,11 +4248,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -4269,9 +4270,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -4289,9 +4290,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -4309,9 +4310,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -4329,11 +4330,11 @@
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -4359,9 +4360,9 @@
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -4385,9 +4386,9 @@
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -4411,9 +4412,9 @@
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -4437,9 +4438,9 @@
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -4463,9 +4464,9 @@
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
@@ -4489,9 +4490,9 @@
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="39" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="38" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -4517,9 +4518,9 @@
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -4543,9 +4544,9 @@
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -4569,9 +4570,9 @@
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="4" t="s">
         <v>43</v>
       </c>
@@ -4595,9 +4596,9 @@
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -4621,9 +4622,9 @@
       <c r="A25" s="7">
         <v>28</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
@@ -4647,13 +4648,13 @@
       <c r="A26" s="27">
         <v>29</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="28" t="s">
@@ -4673,9 +4674,9 @@
       <c r="A27" s="27">
         <v>30</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="28" t="s">
         <v>11</v>
       </c>
@@ -4693,9 +4694,9 @@
       <c r="A28" s="27">
         <v>31</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="28" t="s">
         <v>13</v>
       </c>
@@ -4713,9 +4714,9 @@
       <c r="A29" s="27">
         <v>32</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="28" t="s">
         <v>14</v>
       </c>
@@ -4733,9 +4734,9 @@
       <c r="A30" s="27">
         <v>33</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="28" t="s">
         <v>17</v>
       </c>
@@ -4753,9 +4754,9 @@
       <c r="A31" s="27">
         <v>34</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="28" t="s">
@@ -4775,9 +4776,9 @@
       <c r="A32" s="27">
         <v>35</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="28" t="s">
         <v>20</v>
       </c>
@@ -4795,9 +4796,9 @@
       <c r="A33" s="27">
         <v>36</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="28" t="s">
         <v>21</v>
       </c>
@@ -4815,11 +4816,11 @@
       <c r="A34" s="27">
         <v>37</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="39" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="31" t="s">
         <v>24</v>
       </c>
@@ -4837,9 +4838,9 @@
       <c r="A35" s="27">
         <v>38</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="31" t="s">
         <v>26</v>
       </c>
@@ -4857,9 +4858,9 @@
       <c r="A36" s="27">
         <v>39</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="31" t="s">
         <v>28</v>
       </c>
@@ -4877,9 +4878,9 @@
       <c r="A37" s="27">
         <v>40</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="31" t="s">
         <v>30</v>
       </c>
@@ -4897,8 +4898,8 @@
       <c r="A38" s="27">
         <v>41</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="39" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="38" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="35" t="s">
@@ -4927,8 +4928,8 @@
     </row>
     <row r="39" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="27"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="34" t="s">
         <v>34</v>
       </c>
@@ -4955,6 +4956,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -4964,55 +4972,48 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <conditionalFormatting sqref="K39:L39 E2:L38">
-    <cfRule type="expression" dxfId="35" priority="28">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="31">
+    <cfRule type="expression" dxfId="31" priority="31">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="32">
+    <cfRule type="expression" dxfId="30" priority="32">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:G39">
-    <cfRule type="expression" dxfId="32" priority="7">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>$K39 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>$G39="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>$G39="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>$K39 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>$G39="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>$G39="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:J39">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>$K39 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>$G39="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>$G39="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5092,13 +5093,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -5118,9 +5119,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -5138,9 +5139,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -5158,9 +5159,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -5178,9 +5179,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -5198,9 +5199,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -5220,9 +5221,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -5240,9 +5241,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -5260,11 +5261,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -5282,9 +5283,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -5302,9 +5303,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -5322,9 +5323,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -5342,9 +5343,9 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="39" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="38" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -5364,9 +5365,9 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="15" t="s">
         <v>67</v>
       </c>
@@ -5384,9 +5385,9 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="15" t="s">
         <v>68</v>
       </c>
@@ -5404,9 +5405,9 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="15" t="s">
         <v>69</v>
       </c>
@@ -5424,11 +5425,11 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="38" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -5448,9 +5449,9 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
@@ -5468,9 +5469,9 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
@@ -5488,9 +5489,9 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="4" t="s">
         <v>43</v>
       </c>
@@ -5508,9 +5509,9 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="4" t="s">
         <v>46</v>
       </c>
@@ -5528,9 +5529,9 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="4" t="s">
         <v>44</v>
       </c>
@@ -5548,9 +5549,9 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="39" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="38" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -5570,9 +5571,9 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="4" t="s">
         <v>45</v>
       </c>
@@ -5590,9 +5591,9 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="4" t="s">
         <v>42</v>
       </c>
@@ -5610,9 +5611,9 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="4" t="s">
         <v>43</v>
       </c>
@@ -5630,9 +5631,9 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="4" t="s">
         <v>46</v>
       </c>
@@ -5650,9 +5651,9 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="4" t="s">
         <v>44</v>
       </c>
@@ -5670,13 +5671,13 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -5696,9 +5697,9 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="10" t="s">
         <v>11</v>
       </c>
@@ -5716,9 +5717,9 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="10" t="s">
         <v>13</v>
       </c>
@@ -5736,9 +5737,9 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
@@ -5756,9 +5757,9 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="10" t="s">
         <v>17</v>
       </c>
@@ -5776,9 +5777,9 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="39" t="s">
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -5798,9 +5799,9 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="10" t="s">
         <v>20</v>
       </c>
@@ -5818,9 +5819,9 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="10" t="s">
         <v>21</v>
       </c>
@@ -5838,11 +5839,11 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="39" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="39"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="10" t="s">
         <v>24</v>
       </c>
@@ -5860,9 +5861,9 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="10" t="s">
         <v>26</v>
       </c>
@@ -5880,9 +5881,9 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
       <c r="E40" s="10" t="s">
         <v>28</v>
       </c>
@@ -5900,9 +5901,9 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="10" t="s">
         <v>30</v>
       </c>
@@ -5920,9 +5921,9 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="39" t="s">
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="38" t="s">
         <v>62</v>
       </c>
       <c r="E42" s="13" t="s">
@@ -5942,9 +5943,9 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
       <c r="E43" s="13" t="s">
         <v>67</v>
       </c>
@@ -5962,9 +5963,9 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
       <c r="E44" s="13" t="s">
         <v>68</v>
       </c>
@@ -5982,9 +5983,9 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="13" t="s">
         <v>69</v>
       </c>
@@ -6002,8 +6003,8 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="39" t="s">
+      <c r="B46" s="40"/>
+      <c r="C46" s="38" t="s">
         <v>0</v>
       </c>
       <c r="D46" s="33" t="s">
@@ -6026,9 +6027,9 @@
       <c r="A47" s="7">
         <v>51</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="39" t="s">
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="38" t="s">
         <v>34</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -6048,9 +6049,9 @@
       <c r="A48" s="7">
         <v>52</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
       <c r="E48" s="4" t="s">
         <v>45</v>
       </c>
@@ -6068,9 +6069,9 @@
       <c r="A49" s="7">
         <v>53</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
       <c r="E49" s="4" t="s">
         <v>42</v>
       </c>
@@ -6088,9 +6089,9 @@
       <c r="A50" s="7">
         <v>54</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
       <c r="E50" s="4" t="s">
         <v>43</v>
       </c>
@@ -6108,9 +6109,9 @@
       <c r="A51" s="7">
         <v>55</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
       <c r="E51" s="4" t="s">
         <v>46</v>
       </c>
@@ -6128,9 +6129,9 @@
       <c r="A52" s="7">
         <v>56</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
       <c r="E52" s="4" t="s">
         <v>44</v>
       </c>
@@ -6146,6 +6147,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B30:B52"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="D42:D45"/>
     <mergeCell ref="B2:B29"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -6156,43 +6166,34 @@
     <mergeCell ref="D24:D29"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="C10:C17"/>
-    <mergeCell ref="B30:B52"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="D42:D45"/>
   </mergeCells>
   <conditionalFormatting sqref="C30:D30 C38:D38 D47:D50 D35 C46:D46">
-    <cfRule type="expression" dxfId="23" priority="5">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>$G30="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>$G30="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L41 G42:L45 E46:L52">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F45">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6272,13 +6273,13 @@
       <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="28" t="s">
@@ -6298,9 +6299,9 @@
       <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="28" t="s">
         <v>11</v>
       </c>
@@ -6318,9 +6319,9 @@
       <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="28" t="s">
         <v>13</v>
       </c>
@@ -6338,9 +6339,9 @@
       <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="28" t="s">
         <v>14</v>
       </c>
@@ -6358,9 +6359,9 @@
       <c r="A6" s="27">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="28" t="s">
         <v>17</v>
       </c>
@@ -6378,9 +6379,9 @@
       <c r="A7" s="27">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="28" t="s">
@@ -6400,9 +6401,9 @@
       <c r="A8" s="27">
         <v>7</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="28" t="s">
         <v>20</v>
       </c>
@@ -6420,9 +6421,9 @@
       <c r="A9" s="27">
         <v>8</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="28" t="s">
         <v>21</v>
       </c>
@@ -6440,11 +6441,11 @@
       <c r="A10" s="27">
         <v>9</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="31" t="s">
         <v>24</v>
       </c>
@@ -6462,9 +6463,9 @@
       <c r="A11" s="27">
         <v>10</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="31" t="s">
         <v>26</v>
       </c>
@@ -6482,9 +6483,9 @@
       <c r="A12" s="27">
         <v>11</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="31" t="s">
         <v>28</v>
       </c>
@@ -6502,9 +6503,9 @@
       <c r="A13" s="27">
         <v>12</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="31" t="s">
         <v>30</v>
       </c>
@@ -6522,11 +6523,11 @@
       <c r="A14" s="27">
         <v>15</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="24" t="s">
@@ -6546,9 +6547,9 @@
       <c r="A15" s="27">
         <v>16</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="24" t="s">
         <v>87</v>
       </c>
@@ -6566,9 +6567,9 @@
       <c r="A16" s="27">
         <v>17</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="24" t="s">
         <v>88</v>
       </c>
@@ -6586,9 +6587,9 @@
       <c r="A17" s="27">
         <v>18</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="24" t="s">
         <v>89</v>
       </c>
@@ -6606,9 +6607,9 @@
       <c r="A18" s="27">
         <v>19</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="24" t="s">
         <v>90</v>
       </c>
@@ -6626,9 +6627,9 @@
       <c r="A19" s="27">
         <v>20</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="24" t="s">
         <v>91</v>
       </c>
@@ -6646,9 +6647,9 @@
       <c r="A20" s="27">
         <v>21</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="39" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="38" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="24" t="s">
@@ -6668,9 +6669,9 @@
       <c r="A21" s="27">
         <v>22</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="24" t="s">
         <v>87</v>
       </c>
@@ -6688,9 +6689,9 @@
       <c r="A22" s="27">
         <v>23</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="24" t="s">
         <v>88</v>
       </c>
@@ -6708,9 +6709,9 @@
       <c r="A23" s="27">
         <v>24</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="24" t="s">
         <v>89</v>
       </c>
@@ -6728,9 +6729,9 @@
       <c r="A24" s="27">
         <v>25</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="24" t="s">
         <v>90</v>
       </c>
@@ -6748,9 +6749,9 @@
       <c r="A25" s="27">
         <v>26</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="24" t="s">
         <v>91</v>
       </c>
@@ -6768,13 +6769,13 @@
       <c r="A26" s="27">
         <v>27</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="28" t="s">
@@ -6794,9 +6795,9 @@
       <c r="A27" s="27">
         <v>28</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="28" t="s">
         <v>11</v>
       </c>
@@ -6814,9 +6815,9 @@
       <c r="A28" s="27">
         <v>29</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="28" t="s">
         <v>13</v>
       </c>
@@ -6834,9 +6835,9 @@
       <c r="A29" s="27">
         <v>30</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="28" t="s">
         <v>14</v>
       </c>
@@ -6854,9 +6855,9 @@
       <c r="A30" s="27">
         <v>31</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="28" t="s">
         <v>17</v>
       </c>
@@ -6874,9 +6875,9 @@
       <c r="A31" s="27">
         <v>32</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="28" t="s">
@@ -6896,9 +6897,9 @@
       <c r="A32" s="27">
         <v>33</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="28" t="s">
         <v>20</v>
       </c>
@@ -6916,9 +6917,9 @@
       <c r="A33" s="27">
         <v>34</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="28" t="s">
         <v>21</v>
       </c>
@@ -6936,11 +6937,11 @@
       <c r="A34" s="27">
         <v>35</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="39" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="28" t="s">
         <v>24</v>
       </c>
@@ -6958,9 +6959,9 @@
       <c r="A35" s="27">
         <v>36</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="28" t="s">
         <v>26</v>
       </c>
@@ -6978,9 +6979,9 @@
       <c r="A36" s="27">
         <v>37</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="28" t="s">
         <v>28</v>
       </c>
@@ -6998,9 +6999,9 @@
       <c r="A37" s="27">
         <v>38</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="28" t="s">
         <v>30</v>
       </c>
@@ -7018,9 +7019,9 @@
       <c r="A38" s="27">
         <v>39</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="24" t="s">
         <v>86</v>
       </c>
@@ -7038,9 +7039,9 @@
       <c r="A39" s="27">
         <v>40</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="24" t="s">
         <v>87</v>
       </c>
@@ -7058,9 +7059,9 @@
       <c r="A40" s="27">
         <v>41</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
       <c r="E40" s="24" t="s">
         <v>88</v>
       </c>
@@ -7078,9 +7079,9 @@
       <c r="A41" s="27">
         <v>42</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
       <c r="E41" s="24" t="s">
         <v>89</v>
       </c>
@@ -7098,9 +7099,9 @@
       <c r="A42" s="27">
         <v>43</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="24" t="s">
         <v>90</v>
       </c>
@@ -7118,9 +7119,9 @@
       <c r="A43" s="27">
         <v>44</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="39" t="s">
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="38" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="24" t="s">
@@ -7140,9 +7141,9 @@
       <c r="A44" s="27">
         <v>45</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
       <c r="E44" s="24" t="s">
         <v>87</v>
       </c>
@@ -7160,9 +7161,9 @@
       <c r="A45" s="27">
         <v>46</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
       <c r="E45" s="24" t="s">
         <v>88</v>
       </c>
@@ -7180,9 +7181,9 @@
       <c r="A46" s="27">
         <v>47</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
       <c r="E46" s="24" t="s">
         <v>89</v>
       </c>
@@ -7200,9 +7201,9 @@
       <c r="A47" s="27">
         <v>48</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
       <c r="E47" s="24" t="s">
         <v>90</v>
       </c>
@@ -7220,9 +7221,9 @@
       <c r="A48" s="27">
         <v>49</v>
       </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
       <c r="E48" s="24" t="s">
         <v>91</v>
       </c>
@@ -7238,6 +7239,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B26:B48"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C38:C48"/>
+    <mergeCell ref="D38:D42"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -7247,32 +7257,23 @@
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B26:B48"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C38:C48"/>
-    <mergeCell ref="D38:D42"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D26 C34:D34 D43:D46 D31 C38:D40">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>$G26="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>$G26="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L48">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7352,13 +7353,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -7378,9 +7379,9 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -7398,9 +7399,9 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -7418,9 +7419,9 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -7438,9 +7439,9 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
@@ -7458,9 +7459,9 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -7480,9 +7481,9 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -7500,9 +7501,9 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
@@ -7520,11 +7521,11 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -7542,9 +7543,9 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -7562,9 +7563,9 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -7582,9 +7583,9 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
@@ -7602,11 +7603,11 @@
       <c r="A14" s="27">
         <v>13</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>98</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -7626,9 +7627,9 @@
       <c r="A15" s="27">
         <v>14</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="15" t="s">
         <v>93</v>
       </c>
@@ -7646,9 +7647,9 @@
       <c r="A16" s="27">
         <v>15</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="15" t="s">
         <v>94</v>
       </c>
@@ -7666,9 +7667,9 @@
       <c r="A17" s="27">
         <v>16</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="15" t="s">
         <v>95</v>
       </c>
@@ -7686,11 +7687,11 @@
       <c r="A18" s="27">
         <v>17</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="38" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -7710,9 +7711,9 @@
       <c r="A19" s="27">
         <v>18</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
@@ -7730,9 +7731,9 @@
       <c r="A20" s="27">
         <v>19</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
@@ -7750,9 +7751,9 @@
       <c r="A21" s="27">
         <v>20</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="4" t="s">
         <v>43</v>
       </c>
@@ -7770,9 +7771,9 @@
       <c r="A22" s="27">
         <v>21</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="4" t="s">
         <v>46</v>
       </c>
@@ -7790,9 +7791,9 @@
       <c r="A23" s="27">
         <v>22</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="4" t="s">
         <v>44</v>
       </c>
@@ -7810,9 +7811,9 @@
       <c r="A24" s="27">
         <v>23</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="39" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="38" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -7832,9 +7833,9 @@
       <c r="A25" s="27">
         <v>24</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="4" t="s">
         <v>45</v>
       </c>
@@ -7852,9 +7853,9 @@
       <c r="A26" s="27">
         <v>25</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="4" t="s">
         <v>42</v>
       </c>
@@ -7872,9 +7873,9 @@
       <c r="A27" s="27">
         <v>26</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="4" t="s">
         <v>43</v>
       </c>
@@ -7892,9 +7893,9 @@
       <c r="A28" s="27">
         <v>27</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="4" t="s">
         <v>46</v>
       </c>
@@ -7912,9 +7913,9 @@
       <c r="A29" s="27">
         <v>28</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="4" t="s">
         <v>44</v>
       </c>
@@ -7932,13 +7933,13 @@
       <c r="A30" s="27">
         <v>29</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -7958,9 +7959,9 @@
       <c r="A31" s="27">
         <v>30</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="10" t="s">
         <v>11</v>
       </c>
@@ -7978,9 +7979,9 @@
       <c r="A32" s="27">
         <v>31</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="10" t="s">
         <v>13</v>
       </c>
@@ -7998,9 +7999,9 @@
       <c r="A33" s="27">
         <v>32</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
@@ -8018,9 +8019,9 @@
       <c r="A34" s="27">
         <v>33</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="10" t="s">
         <v>17</v>
       </c>
@@ -8038,9 +8039,9 @@
       <c r="A35" s="27">
         <v>34</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="39" t="s">
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -8060,9 +8061,9 @@
       <c r="A36" s="27">
         <v>35</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="10" t="s">
         <v>20</v>
       </c>
@@ -8080,9 +8081,9 @@
       <c r="A37" s="27">
         <v>36</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="10" t="s">
         <v>21</v>
       </c>
@@ -8100,11 +8101,11 @@
       <c r="A38" s="27">
         <v>37</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="39" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="39"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="10" t="s">
         <v>24</v>
       </c>
@@ -8122,9 +8123,9 @@
       <c r="A39" s="27">
         <v>38</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="10" t="s">
         <v>26</v>
       </c>
@@ -8142,9 +8143,9 @@
       <c r="A40" s="27">
         <v>39</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
       <c r="E40" s="10" t="s">
         <v>28</v>
       </c>
@@ -8162,9 +8163,9 @@
       <c r="A41" s="27">
         <v>40</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="10" t="s">
         <v>30</v>
       </c>
@@ -8182,11 +8183,11 @@
       <c r="A42" s="27">
         <v>41</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41" t="s">
+      <c r="B42" s="40"/>
+      <c r="C42" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="38" t="s">
         <v>98</v>
       </c>
       <c r="E42" s="31" t="s">
@@ -8206,9 +8207,9 @@
       <c r="A43" s="27">
         <v>42</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
       <c r="E43" s="31" t="s">
         <v>93</v>
       </c>
@@ -8226,9 +8227,9 @@
       <c r="A44" s="27">
         <v>43</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
       <c r="E44" s="31" t="s">
         <v>94</v>
       </c>
@@ -8246,9 +8247,9 @@
       <c r="A45" s="27">
         <v>44</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="31" t="s">
         <v>95</v>
       </c>
@@ -8266,11 +8267,11 @@
       <c r="A46" s="27">
         <v>45</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="39" t="s">
+      <c r="B46" s="40"/>
+      <c r="C46" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="38" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -8290,9 +8291,9 @@
       <c r="A47" s="27">
         <v>46</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
       <c r="E47" s="4" t="s">
         <v>45</v>
       </c>
@@ -8310,9 +8311,9 @@
       <c r="A48" s="27">
         <v>47</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
       <c r="E48" s="4" t="s">
         <v>42</v>
       </c>
@@ -8330,9 +8331,9 @@
       <c r="A49" s="27">
         <v>48</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
       <c r="E49" s="4" t="s">
         <v>43</v>
       </c>
@@ -8350,9 +8351,9 @@
       <c r="A50" s="27">
         <v>49</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
       <c r="E50" s="4" t="s">
         <v>46</v>
       </c>
@@ -8370,9 +8371,9 @@
       <c r="A51" s="27">
         <v>50</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="39"/>
       <c r="E51" s="4" t="s">
         <v>44</v>
       </c>
@@ -8390,9 +8391,9 @@
       <c r="A52" s="27">
         <v>51</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="39" t="s">
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="38" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -8412,9 +8413,9 @@
       <c r="A53" s="27">
         <v>52</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
       <c r="E53" s="4" t="s">
         <v>45</v>
       </c>
@@ -8432,9 +8433,9 @@
       <c r="A54" s="27">
         <v>53</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
       <c r="E54" s="4" t="s">
         <v>42</v>
       </c>
@@ -8452,9 +8453,9 @@
       <c r="A55" s="27">
         <v>54</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
       <c r="E55" s="4" t="s">
         <v>43</v>
       </c>
@@ -8472,9 +8473,9 @@
       <c r="A56" s="27">
         <v>55</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
       <c r="E56" s="4" t="s">
         <v>46</v>
       </c>
@@ -8492,9 +8493,9 @@
       <c r="A57" s="27">
         <v>56</v>
       </c>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
       <c r="E57" s="4" t="s">
         <v>44</v>
       </c>
@@ -8510,6 +8511,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B30:B57"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C46:C57"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C42:C45"/>
     <mergeCell ref="B2:B29"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D6"/>
@@ -8521,45 +8533,34 @@
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B30:B57"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C46:C57"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="C42:C45"/>
   </mergeCells>
   <conditionalFormatting sqref="C30:D30 C38:D38 D52:D55 C46:D49 D35">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$G30="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$G30="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:L41 E46:L57 G42:L45">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$K2 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>$G2="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>$G2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F45">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$K42 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$G42="NG"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$G42="OK"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/IntegrationTest_Index.xlsx
+++ b/test/IntegrationTest_Index.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakit\Desktop\web\Panda\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wxh52\Desktop\Panda\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="6225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Representative" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="104">
   <si>
     <t>design</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>Vegitable category button's animation text can not be read clearly</t>
+  </si>
+  <si>
+    <t>Wei</t>
+  </si>
+  <si>
+    <t>wei</t>
   </si>
 </sst>
 </file>
@@ -594,23 +600,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -618,7 +625,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1424,18 +1430,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>50</v>
@@ -1447,7 +1453,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>57</v>
       </c>
@@ -1475,21 +1481,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="36" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>59</v>
       </c>
@@ -1503,7 +1509,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>60</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>61</v>
       </c>
@@ -1540,30 +1546,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -1601,17 +1607,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1633,13 +1639,13 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1659,13 +1665,13 @@
       <c r="K3" s="3"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1685,13 +1691,13 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1711,12 +1717,12 @@
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="39"/>
       <c r="E6" s="4" t="s">
         <v>17</v>
@@ -1737,13 +1743,13 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="38" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1765,13 +1771,13 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1791,11 +1797,11 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
       <c r="E9" s="4" t="s">
@@ -1817,15 +1823,15 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="38"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1845,13 +1851,13 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1871,13 +1877,13 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1897,11 +1903,11 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="4" t="s">
@@ -1923,15 +1929,15 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="38" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1953,13 +1959,13 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1979,15 +1985,15 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="36" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="41" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -2005,15 +2011,15 @@
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
     </row>
-    <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="2" t="s">
         <v>72</v>
       </c>
@@ -2029,13 +2035,13 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="4" t="s">
         <v>43</v>
       </c>
@@ -2055,13 +2061,13 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="4" t="s">
         <v>46</v>
       </c>
@@ -2080,15 +2086,19 @@
       <c r="J19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="K19" s="3">
+        <v>42872</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="39"/>
       <c r="E20" s="4" t="s">
         <v>44</v>
@@ -2108,16 +2118,20 @@
       <c r="J20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="K20" s="3">
+        <v>42872</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="38" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -2135,13 +2149,13 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="4" t="s">
         <v>45</v>
       </c>
@@ -2157,13 +2171,13 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="4" t="s">
         <v>42</v>
       </c>
@@ -2185,13 +2199,13 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>22</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="4" t="s">
         <v>43</v>
       </c>
@@ -2211,13 +2225,13 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="4" t="s">
         <v>46</v>
       </c>
@@ -2236,10 +2250,14 @@
       <c r="J25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="K25" s="3">
+        <v>42872</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -2264,20 +2282,24 @@
       <c r="J26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="K26" s="3">
+        <v>42872</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="40" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -2299,13 +2321,13 @@
       <c r="K27" s="3"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>26</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="4" t="s">
         <v>11</v>
       </c>
@@ -2325,13 +2347,13 @@
       <c r="K28" s="3"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
@@ -2351,13 +2373,13 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="4" t="s">
         <v>14</v>
       </c>
@@ -2377,13 +2399,13 @@
       <c r="K30" s="3"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="4" t="s">
         <v>17</v>
       </c>
@@ -2403,13 +2425,13 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -2431,13 +2453,13 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>31</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="4" t="s">
         <v>20</v>
       </c>
@@ -2457,13 +2479,13 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="4" t="s">
         <v>21</v>
       </c>
@@ -2483,15 +2505,15 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>33</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41" t="s">
+      <c r="B35" s="40"/>
+      <c r="C35" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="41"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="4" t="s">
         <v>24</v>
       </c>
@@ -2511,13 +2533,13 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="4" t="s">
         <v>26</v>
       </c>
@@ -2537,13 +2559,13 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="4" t="s">
         <v>28</v>
       </c>
@@ -2563,13 +2585,13 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="4" t="s">
         <v>30</v>
       </c>
@@ -2589,21 +2611,21 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="41" t="s">
         <v>33</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -2625,13 +2647,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
       <c r="G40" s="23" t="s">
         <v>72</v>
       </c>
@@ -2647,13 +2669,13 @@
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
     </row>
-    <row r="41" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
       <c r="D41" s="39"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="2" t="s">
         <v>72</v>
       </c>
@@ -2669,17 +2691,17 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="38" t="s">
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="36" t="s">
+      <c r="F42" s="41" t="s">
         <v>33</v>
       </c>
       <c r="G42" s="23" t="s">
@@ -2701,15 +2723,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>38</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="39"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
       <c r="G43" s="23" t="s">
         <v>72</v>
       </c>
@@ -2727,19 +2749,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:B26"/>
-    <mergeCell ref="C14:C26"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="B27:B43"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="D21:D26"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="E42:E43"/>
@@ -2751,6 +2760,19 @@
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="B2:B26"/>
+    <mergeCell ref="C14:C26"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="B27:B43"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:L16 G17:L17 E18:L40 G41:L43">
     <cfRule type="expression" dxfId="68" priority="7">
@@ -2795,23 +2817,23 @@
       <selection pane="bottomRight" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -2849,17 +2871,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -2875,13 +2897,13 @@
       <c r="K2" s="12"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -2895,13 +2917,13 @@
       <c r="K3" s="12"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
@@ -2915,13 +2937,13 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
@@ -2935,12 +2957,12 @@
       <c r="K5" s="12"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="39"/>
       <c r="E6" s="10" t="s">
         <v>17</v>
@@ -2955,11 +2977,11 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="38" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2975,11 +2997,11 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
@@ -2993,10 +3015,10 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="39"/>
       <c r="E9" s="10" t="s">
         <v>21</v>
@@ -3011,15 +3033,15 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="38"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
@@ -3033,13 +3055,13 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
@@ -3053,13 +3075,13 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
@@ -3073,12 +3095,12 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="39"/>
       <c r="E13" s="13" t="s">
         <v>30</v>
@@ -3093,15 +3115,15 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>17</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="38" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -3125,13 +3147,13 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
@@ -3151,13 +3173,13 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>19</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
@@ -3177,13 +3199,13 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3203,13 +3225,13 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>21</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
@@ -3231,12 +3253,12 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>22</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="39"/>
       <c r="E19" s="4" t="s">
         <v>44</v>
@@ -3259,13 +3281,13 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>23</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="38" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3289,13 +3311,13 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>24</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
@@ -3315,13 +3337,13 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>25</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
@@ -3341,13 +3363,13 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>26</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="20" t="s">
         <v>43</v>
       </c>
@@ -3361,13 +3383,13 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
@@ -3389,7 +3411,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>28</v>
       </c>
@@ -3417,17 +3439,17 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>29</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -3443,13 +3465,13 @@
       <c r="K26" s="12"/>
       <c r="L26" s="11"/>
     </row>
-    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>30</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="10" t="s">
         <v>11</v>
       </c>
@@ -3463,13 +3485,13 @@
       <c r="K27" s="12"/>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>31</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="10" t="s">
         <v>13</v>
       </c>
@@ -3483,13 +3505,13 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>32</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
@@ -3503,13 +3525,13 @@
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
     </row>
-    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>33</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="10" t="s">
         <v>17</v>
       </c>
@@ -3523,13 +3545,13 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>34</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -3545,13 +3567,13 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
     </row>
-    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>35</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="10" t="s">
         <v>20</v>
       </c>
@@ -3565,13 +3587,13 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
     </row>
-    <row r="33" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>36</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
@@ -3585,13 +3607,13 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>34</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40" t="s">
         <v>79</v>
       </c>
       <c r="E34" s="18" t="s">
@@ -3613,13 +3635,13 @@
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
     </row>
-    <row r="35" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>35</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="18" t="s">
         <v>82</v>
       </c>
@@ -3639,15 +3661,15 @@
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>37</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="41"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="13" t="s">
         <v>24</v>
       </c>
@@ -3661,13 +3683,13 @@
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>38</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="13" t="s">
         <v>26</v>
       </c>
@@ -3681,13 +3703,13 @@
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>39</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="13" t="s">
         <v>28</v>
       </c>
@@ -3701,13 +3723,13 @@
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>40</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="13" t="s">
         <v>30</v>
       </c>
@@ -3721,21 +3743,21 @@
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>41</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41" t="s">
+      <c r="B40" s="40"/>
+      <c r="C40" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="44" t="s">
         <v>75</v>
